--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -16048,12 +16048,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>PKI</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>PerkinElmer</t>
+          <t>Pfizer</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -16063,637 +16063,637 @@
       </c>
       <c r="D373" t="inlineStr">
         <is>
-          <t>Health Care Equipment</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>Waltham, Massachusetts</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F373" t="inlineStr">
         <is>
-          <t>1985-05-31</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G373" t="inlineStr">
         <is>
-          <t>0000031791</t>
+          <t>0000078003</t>
         </is>
       </c>
       <c r="H373" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1849</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>PFE</t>
+          <t>PCG</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Pfizer</t>
+          <t>PG&amp;E Corporation</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D374" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Multi-Utilities</t>
         </is>
       </c>
       <c r="E374" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>San Francisco, California</t>
         </is>
       </c>
       <c r="F374" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2022-10-03</t>
         </is>
       </c>
       <c r="G374" t="inlineStr">
         <is>
-          <t>0000078003</t>
+          <t>0001004980</t>
         </is>
       </c>
       <c r="H374" t="inlineStr">
         <is>
-          <t>1849</t>
+          <t>1905</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>PG&amp;E Corporation</t>
+          <t>Philip Morris International</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D375" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Tobacco</t>
         </is>
       </c>
       <c r="E375" t="inlineStr">
         <is>
-          <t>San Francisco, California</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F375" t="inlineStr">
         <is>
-          <t>2022-10-03</t>
+          <t>2008-03-31</t>
         </is>
       </c>
       <c r="G375" t="inlineStr">
         <is>
-          <t>0001004980</t>
+          <t>0001413329</t>
         </is>
       </c>
       <c r="H375" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>2008 (1847)</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>PM</t>
+          <t>PSX</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Philip Morris International</t>
+          <t>Phillips 66</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D376" t="inlineStr">
         <is>
-          <t>Tobacco</t>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
         </is>
       </c>
       <c r="E376" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>Houston, Texas</t>
         </is>
       </c>
       <c r="F376" t="inlineStr">
         <is>
-          <t>2008-03-31</t>
+          <t>2012-05-01</t>
         </is>
       </c>
       <c r="G376" t="inlineStr">
         <is>
-          <t>0001413329</t>
+          <t>0001534701</t>
         </is>
       </c>
       <c r="H376" t="inlineStr">
         <is>
-          <t>2008 (1847)</t>
+          <t>2012 (1917)</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>PSX</t>
+          <t>PNW</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Phillips 66</t>
+          <t>Pinnacle West</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+          <t>Multi-Utilities</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Houston, Texas</t>
+          <t>Phoenix, Arizona</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2012-05-01</t>
+          <t>1999-10-04</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>0001534701</t>
+          <t>0000764622</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>2012 (1917)</t>
+          <t>1985</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>PNW</t>
+          <t>PXD</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Pinnacle West</t>
+          <t>Pioneer Natural Resources</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Oil &amp; Gas Exploration &amp; Production</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Phoenix, Arizona</t>
+          <t>Irving, Texas</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>1999-10-04</t>
+          <t>2008-09-24</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>0000764622</t>
+          <t>0001038357</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1997</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>PXD</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Pioneer Natural Resources</t>
+          <t>PNC Financial Services</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Exploration &amp; Production</t>
+          <t>Regional Banks</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>Irving, Texas</t>
+          <t>Pittsburgh, Pennsylvania</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>2008-09-24</t>
+          <t>1988-04-30</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>0001038357</t>
+          <t>0000713676</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1845</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>PNC</t>
+          <t>POOL</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>PNC Financial Services</t>
+          <t>Pool Corporation</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Regional Banks</t>
+          <t>Distributors</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Pittsburgh, Pennsylvania</t>
+          <t>Covington, Louisiana</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>1988-04-30</t>
+          <t>2020-10-07</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>0000713676</t>
+          <t>0000945841</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>1845</t>
+          <t>1993</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>PPG</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Pool Corporation</t>
+          <t>PPG Industries</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Distributors</t>
+          <t>Specialty Chemicals</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Covington, Louisiana</t>
+          <t>Pittsburgh, Pennsylvania</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>2020-10-07</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>0000945841</t>
+          <t>0000079879</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1883</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>PPG</t>
+          <t>PPL</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>PPG Industries</t>
+          <t>PPL Corporation</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Specialty Chemicals</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Pittsburgh, Pennsylvania</t>
+          <t>Allentown, Pennsylvania</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2001-10-01</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>0000079879</t>
+          <t>0000922224</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>1883</t>
+          <t>1920</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>PPL</t>
+          <t>PFG</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>PPL Corporation</t>
+          <t>Principal Financial Group</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Life &amp; Health Insurance</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Allentown, Pennsylvania</t>
+          <t>Des Moines, Iowa</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>2001-10-01</t>
+          <t>2002-07-22</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>0000922224</t>
+          <t>0001126328</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1879</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>PFG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Principal Financial Group</t>
+          <t>Procter &amp; Gamble</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Life &amp; Health Insurance</t>
+          <t>Personal Care Products</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Des Moines, Iowa</t>
+          <t>Cincinnati, Ohio</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>2002-07-22</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>0001126328</t>
+          <t>0000080424</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>1837</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PGR</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Procter &amp; Gamble</t>
+          <t>Progressive Corporation</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Personal Care Products</t>
+          <t>Property &amp; Casualty Insurance</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>Cincinnati, Ohio</t>
+          <t>Mayfield Village, Ohio</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>1997-08-04</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>0000080424</t>
+          <t>0000080661</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>1837</t>
+          <t>1937</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>PLD</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Progressive Corporation</t>
+          <t>Prologis</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Property &amp; Casualty Insurance</t>
+          <t>Industrial REITs</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
         <is>
-          <t>Mayfield Village, Ohio</t>
+          <t>San Francisco, California</t>
         </is>
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>1997-08-04</t>
+          <t>2003-07-17</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>0000080661</t>
+          <t>0001045609</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1983</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>PRU</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Prologis</t>
+          <t>Prudential Financial</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Industrial REITs</t>
+          <t>Life &amp; Health Insurance</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>San Francisco, California</t>
+          <t>Newark, New Jersey</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>2003-07-17</t>
+          <t>2002-07-22</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>0001045609</t>
+          <t>0001137774</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1875</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>PEG</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Prudential Financial</t>
+          <t>Public Service Enterprise Group</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Life &amp; Health Insurance</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
@@ -16703,348 +16703,348 @@
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>2002-07-22</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>0001137774</t>
+          <t>0000788784</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>1875</t>
+          <t>1903</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>PEG</t>
+          <t>PTC</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Public Service Enterprise Group</t>
+          <t>PTC</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Application Software</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Newark, New Jersey</t>
+          <t>Boston, Massachusetts</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2021-04-20</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>0000788784</t>
+          <t>0000857005</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>1985</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>PSA</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>Public Storage</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Self-Storage REITs</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Boston, Massachusetts</t>
+          <t>Glendale, California</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>2021-04-20</t>
+          <t>2005-08-19</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>0000857005</t>
+          <t>0001393311</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1972</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>PHM</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Public Storage</t>
+          <t>PulteGroup</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Self-Storage REITs</t>
+          <t>Homebuilding</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Glendale, California</t>
+          <t>Atlanta, Georgia</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>2005-08-19</t>
+          <t>1984-04-30</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>0001393311</t>
+          <t>0000822416</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1956</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>PHM</t>
+          <t>QRVO</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>PulteGroup</t>
+          <t>Qorvo</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Homebuilding</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Atlanta, Georgia</t>
+          <t>Greensboro, North Carolina</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>1984-04-30</t>
+          <t>2015-06-11</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>0000822416</t>
+          <t>0001604778</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>QRVO</t>
+          <t>PWR</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Qorvo</t>
+          <t>Quanta Services</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Construction &amp; Engineering</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>Greensboro, North Carolina</t>
+          <t>Houston, Texas</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>2015-06-11</t>
+          <t>2009-07-01</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>0001604778</t>
+          <t>0001050915</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1997</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>PWR</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Quanta Services</t>
+          <t>Qualcomm</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Houston, Texas</t>
+          <t>San Diego, California</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>2009-07-01</t>
+          <t>1999-07-22</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>0001050915</t>
+          <t>0000804328</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1985</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>DGX</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Qualcomm</t>
+          <t>Quest Diagnostics</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Health Care Services</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>San Diego, California</t>
+          <t>Secaucus, New Jersey</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>1999-07-22</t>
+          <t>2002-12-12</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>0000804328</t>
+          <t>0001022079</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1967</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>DGX</t>
+          <t>RL</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Quest Diagnostics</t>
+          <t>Ralph Lauren Corporation</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Health Care Services</t>
+          <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>Secaucus, New Jersey</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>2002-12-12</t>
+          <t>2007-02-02</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>0001022079</t>
+          <t>0001037038</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
@@ -17056,138 +17056,138 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>RJF</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Ralph Lauren Corporation</t>
+          <t>Raymond James</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Investment Banking &amp; Brokerage</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>St. Petersburg, Florida</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>2007-02-02</t>
+          <t>2017-03-20</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>0001037038</t>
+          <t>0000720005</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1962</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Raymond James</t>
+          <t>Raytheon Technologies</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D398" t="inlineStr">
         <is>
-          <t>Investment Banking &amp; Brokerage</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>St. Petersburg, Florida</t>
+          <t>Waltham, Massachusetts</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>2017-03-20</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>0000720005</t>
+          <t>0000101829</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1922</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Raytheon Technologies</t>
+          <t>Realty Income</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Retail REITs</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Waltham, Massachusetts</t>
+          <t>San Diego, California</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2015-04-07</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>0000101829</t>
+          <t>0000726728</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>1922</t>
+          <t>1969</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>REG</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Realty Income</t>
+          <t>Regency Centers</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -17202,202 +17202,202 @@
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>San Diego, California</t>
+          <t>Jacksonville, Florida</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>2015-04-07</t>
+          <t>2017-03-02</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>0000726728</t>
+          <t>0000910606</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1963</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>REG</t>
+          <t>REGN</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Regency Centers</t>
+          <t>Regeneron</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Retail REITs</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Jacksonville, Florida</t>
+          <t>Tarrytown, New York</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>2017-03-02</t>
+          <t>2013-05-01</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>0000910606</t>
+          <t>0000872589</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1988</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Regeneron</t>
+          <t>Regions Financial Corporation</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Regional Banks</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Tarrytown, New York</t>
+          <t>Birmingham, Alabama</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>2013-05-01</t>
+          <t>1998-08-28</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>0000872589</t>
+          <t>0001281761</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1971</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RSG</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Regions Financial Corporation</t>
+          <t>Republic Services</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D403" t="inlineStr">
         <is>
-          <t>Regional Banks</t>
+          <t>Environmental &amp; Facilities Services</t>
         </is>
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>Birmingham, Alabama</t>
+          <t>Phoenix, Arizona</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>1998-08-28</t>
+          <t>2008-12-05</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>0001281761</t>
+          <t>0001060391</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1998 (1981)</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>RSG</t>
+          <t>RMD</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Republic Services</t>
+          <t>ResMed</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Environmental &amp; Facilities Services</t>
+          <t>Health Care Equipment</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Phoenix, Arizona</t>
+          <t>San Diego, California</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>2008-12-05</t>
+          <t>2017-07-26</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>0001060391</t>
+          <t>0000943819</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>1998 (1981)</t>
+          <t>1989</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>RVTY</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>ResMed</t>
+          <t>Revvity</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -17412,22 +17412,22 @@
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>San Diego, California</t>
+          <t>Waltham, Massachusetts</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>2017-07-26</t>
+          <t>1985-05-31</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>0000943819</t>
+          <t>0000031791</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1937</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -17828,7 +17828,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Curaçao, Kingdom of the Netherlands</t>
+          <t>Houston, Texas</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -9000,7 +9000,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>FISV</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -1543,7 +1543,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Broadline Retail</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Hotels, Restaurants &amp; Leisure</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -7419,7 +7419,7 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Broadline Retail</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
@@ -8175,7 +8175,7 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Broadline Retail</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
@@ -8202,7 +8202,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RE</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -8385,7 +8385,7 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Internet &amp; Direct Marketing Retail</t>
+          <t>Hotels, Restaurants &amp; Leisure</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -17103,7 +17103,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Raytheon Technologies</t>
+          <t>RTX Corporation</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -2677,7 +2677,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Specialty Stores</t>
+          <t>Automotive Retail</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2719,7 +2719,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Residential REITs</t>
+          <t>Multi-Family Residential REITs</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4021,7 +4021,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Residential REITs</t>
+          <t>Multi-Family Residential REITs</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>Residential REITs</t>
+          <t>Multi-Family Residential REITs</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -8049,7 +8049,7 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Residential REITs</t>
+          <t>Multi-Family Residential REITs</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -9725,7 +9725,7 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Specialty Stores</t>
+          <t>Automotive Parts &amp; Equipment</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
@@ -15265,7 +15265,7 @@
       </c>
       <c r="D354" t="inlineStr">
         <is>
-          <t>Specialty Stores</t>
+          <t>Automotive Retail</t>
         </is>
       </c>
       <c r="E354" t="inlineStr">
@@ -19743,7 +19743,7 @@
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Residential REITs</t>
+          <t>Multi-Family Residential REITs</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -3166,7 +3166,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BRK-B</t>
+          <t>BRK.B</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BF-B</t>
+          <t>BF.B</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4772,12 +4772,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Human Resource &amp; Employment Services</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -6116,12 +6116,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Research &amp; Consulting Services</t>
+          <t>Real Estate Services</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -15890,12 +15890,12 @@
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D369" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Human Resource &amp; Employment Services</t>
         </is>
       </c>
       <c r="E369" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -20747,7 +20747,7 @@
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Health Care Distributors</t>
+          <t>Life Sciences Tools &amp; Services</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -4335,7 +4335,7 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>2020 (1915)</t>
+          <t>2020 (1915, United Technologies spinoff)</t>
         </is>
       </c>
     </row>
@@ -7145,7 +7145,7 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2019 (1897)</t>
         </is>
       </c>
     </row>
@@ -7271,7 +7271,7 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2017 (1802)</t>
         </is>
       </c>
     </row>
@@ -11895,7 +11895,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Kellogg's</t>
+          <t>Kellanova</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -11910,7 +11910,7 @@
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Battle Creek, Michigan</t>
+          <t>Chicago, Illinois</t>
         </is>
       </c>
       <c r="F274" t="inlineStr">
@@ -11967,7 +11967,7 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022 (Johnson &amp; Johnson spinoff)</t>
         </is>
       </c>
     </row>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>2019 (1895)</t>
+          <t>2019 (L3 1997, Harris 1895)</t>
         </is>
       </c>
     </row>
@@ -14655,7 +14655,7 @@
       </c>
       <c r="H339" t="inlineStr">
         <is>
-          <t>2013 (1980)</t>
+          <t>2013 (News Corporation 1980)</t>
         </is>
       </c>
     </row>
@@ -14697,7 +14697,7 @@
       </c>
       <c r="H340" t="inlineStr">
         <is>
-          <t>2013 (1980)</t>
+          <t>2013 (News Corporation 1980)</t>
         </is>
       </c>
     </row>
@@ -15579,7 +15579,7 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>2020 (1853)</t>
+          <t>2020 (1853, United Technologies spinoff)</t>
         </is>
       </c>
     </row>
@@ -15685,7 +15685,7 @@
       </c>
       <c r="D364" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Systems Software</t>
         </is>
       </c>
       <c r="E364" t="inlineStr">
@@ -15747,7 +15747,7 @@
       </c>
       <c r="H365" t="inlineStr">
         <is>
-          <t>2019 (1952)</t>
+          <t>2019 (Paramount Pictures 1912)</t>
         </is>
       </c>
     </row>
@@ -20141,7 +20141,7 @@
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>2023 (Danaher spinoff)</t>
         </is>
       </c>
     </row>
@@ -20687,7 +20687,7 @@
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2022 (Warner Bros. 1923)</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -7011,7 +7011,11 @@
           <t>Richmond, Virginia</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2016-11-30</t>
+        </is>
+      </c>
       <c r="G157" t="inlineStr">
         <is>
           <t>0000715957</t>
@@ -8269,7 +8273,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>2009-07-24</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -9317,7 +9321,11 @@
           <t>Phoenix, Arizona</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2011-07-01</t>
+        </is>
+      </c>
       <c r="G212" t="inlineStr">
         <is>
           <t>0000831259</t>
@@ -10699,7 +10707,11 @@
           <t>Louisville, Kentucky</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2012-12-10</t>
+        </is>
+      </c>
       <c r="G245" t="inlineStr">
         <is>
           <t>0000049071</t>
@@ -17457,7 +17469,11 @@
           <t>Milwaukee, Wisconsin</t>
         </is>
       </c>
-      <c r="F406" t="inlineStr"/>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>2000-03-12</t>
+        </is>
+      </c>
       <c r="G406" t="inlineStr">
         <is>
           <t>0001024478</t>
@@ -17917,7 +17933,7 @@
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>2001?</t>
+          <t>2017-03-17</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
@@ -18755,7 +18771,11 @@
           <t>Baltimore, Maryland</t>
         </is>
       </c>
-      <c r="F437" t="inlineStr"/>
+      <c r="F437" t="inlineStr">
+        <is>
+          <t>2019-07-29</t>
+        </is>
+      </c>
       <c r="G437" t="inlineStr">
         <is>
           <t>0001113169</t>
@@ -19171,7 +19191,11 @@
           <t>Dallas, Texas</t>
         </is>
       </c>
-      <c r="F447" t="inlineStr"/>
+      <c r="F447" t="inlineStr">
+        <is>
+          <t>2001-03-12</t>
+        </is>
+      </c>
       <c r="G447" t="inlineStr">
         <is>
           <t>0000097476</t>
@@ -19671,7 +19695,11 @@
           <t>Minneapolis, Minnesota</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr"/>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>1999-11-01</t>
+        </is>
+      </c>
       <c r="G459" t="inlineStr">
         <is>
           <t>0000036104</t>
@@ -20717,7 +20745,11 @@
           <t>Houston, Texas</t>
         </is>
       </c>
-      <c r="F484" t="inlineStr"/>
+      <c r="F484" t="inlineStr">
+        <is>
+          <t>1998-08-31</t>
+        </is>
+      </c>
       <c r="G484" t="inlineStr">
         <is>
           <t>0000823768</t>
@@ -21049,7 +21081,11 @@
           <t>Seattle, Washington</t>
         </is>
       </c>
-      <c r="F492" t="inlineStr"/>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>1979-10-01</t>
+        </is>
+      </c>
       <c r="G492" t="inlineStr">
         <is>
           <t>0000106535</t>
@@ -21087,7 +21123,11 @@
           <t>Benton Harbor, Michigan</t>
         </is>
       </c>
-      <c r="F493" t="inlineStr"/>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>1958-03-31</t>
+        </is>
+      </c>
       <c r="G493" t="inlineStr">
         <is>
           <t>0000106640</t>

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -3885,7 +3885,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Bunge Limited</t>
+          <t>Bunge Global SA</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3910,7 +3910,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>0001144519</t>
+          <t>0001996862</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -10657,7 +10657,7 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>Industrial Machinery</t>
+          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
         </is>
       </c>
       <c r="E244" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -17325,7 +17325,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>Revvity</t>
+          <t>Revvity (Previously PerkinElmer)</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -6331,7 +6331,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Life Sciences Tolls &amp; Services</t>
+          <t>Life Sciences Tools &amp; Services</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -10499,7 +10499,7 @@
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2016-10-21</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -10509,7 +10509,7 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1888</t>
         </is>
       </c>
     </row>
@@ -21041,7 +21041,7 @@
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2015-06-25</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -9113,7 +9113,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2013-07-01</t>
+          <t>2019-03-04</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -9155,7 +9155,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2015-09-18</t>
+          <t>2019-03-04</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -4636,600 +4636,600 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CDAY</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Ceridian</t>
+          <t>CF Industries</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Human Resource &amp; Employment Services</t>
+          <t>Fertilizers &amp; Agricultural Chemicals</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Minneapolis, Minnesota</t>
+          <t>Deerfield, Illinois</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2008-08-27</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>0001725057</t>
+          <t>0001324404</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>1946</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CF</t>
+          <t>CHRW</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>CF Industries</t>
+          <t>CH Robinson</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Fertilizers &amp; Agricultural Chemicals</t>
+          <t>Air Freight &amp; Logistics</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Deerfield, Illinois</t>
+          <t>Eden Prairie, Minnesota</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2008-08-27</t>
+          <t>2007-03-02</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>0001324404</t>
+          <t>0001043277</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1905</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>CHRW</t>
+          <t>CRL</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>CH Robinson</t>
+          <t>Charles River Laboratories</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Air Freight &amp; Logistics</t>
+          <t>Life Sciences Tools &amp; Services</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Eden Prairie, Minnesota</t>
+          <t>Wilmington, Massachusetts</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2007-03-02</t>
+          <t>2021-05-14</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>0001043277</t>
+          <t>0001100682</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>1905</t>
+          <t>1947</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>SCHW</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Charles River Laboratories</t>
+          <t>Charles Schwab Corporation</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services</t>
+          <t>Investment Banking &amp; Brokerage</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Wilmington, Massachusetts</t>
+          <t>Westlake, Texas</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2021-05-14</t>
+          <t>1997-06-02</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>0001100682</t>
+          <t>0000316709</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1971</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SCHW</t>
+          <t>CHTR</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Charles Schwab Corporation</t>
+          <t>Charter Communications</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Investment Banking &amp; Brokerage</t>
+          <t>Cable &amp; Satellite</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Westlake, Texas</t>
+          <t>Stamford, Connecticut</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>1997-06-02</t>
+          <t>2016-09-08</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>0000316709</t>
+          <t>0001091667</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1993</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CHTR</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Charter Communications</t>
+          <t>Chevron Corporation</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Cable &amp; Satellite</t>
+          <t>Integrated Oil &amp; Gas</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Stamford, Connecticut</t>
+          <t>San Ramon, California</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2016-09-08</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>0001091667</t>
+          <t>0000093410</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1879</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>CMG</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Chevron Corporation</t>
+          <t>Chipotle Mexican Grill</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Integrated Oil &amp; Gas</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>San Ramon, California</t>
+          <t>Newport Beach, California</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2011-04-28</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>0000093410</t>
+          <t>0001058090</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>1993</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>CB</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Chipotle Mexican Grill</t>
+          <t>Chubb Limited</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Property &amp; Casualty Insurance</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Newport Beach, California</t>
+          <t>Zurich, Switzerland</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2011-04-28</t>
+          <t>2010-07-15</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>0001058090</t>
+          <t>0000896159</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1985</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CB</t>
+          <t>CHD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Chubb Limited</t>
+          <t>Church &amp; Dwight</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Property &amp; Casualty Insurance</t>
+          <t>Household Products</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Zurich, Switzerland</t>
+          <t>Ewing, New Jersey</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2010-07-15</t>
+          <t>2015-12-29</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>0000896159</t>
+          <t>0000313927</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1847</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CHD</t>
+          <t>CI</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Church &amp; Dwight</t>
+          <t>Cigna</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>Household Products</t>
+          <t>Health Care Services</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Ewing, New Jersey</t>
+          <t>Bloomfield, Connecticut</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2015-12-29</t>
+          <t>1976-06-30</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>0000313927</t>
+          <t>0001739940</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>1847</t>
+          <t>1982</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CI</t>
+          <t>CINF</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Cigna</t>
+          <t>Cincinnati Financial</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Health Care Services</t>
+          <t>Property &amp; Casualty Insurance</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Bloomfield, Connecticut</t>
+          <t>Fairfield, Ohio</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>1976-06-30</t>
+          <t>1997-12-18</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>0001739940</t>
+          <t>0000020286</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1950</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CINF</t>
+          <t>CTAS</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Cincinnati Financial</t>
+          <t>Cintas</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>Property &amp; Casualty Insurance</t>
+          <t>Diversified Support Services</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Fairfield, Ohio</t>
+          <t>Mason, Ohio</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>1997-12-18</t>
+          <t>2001-03-01</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>0000020286</t>
+          <t>0000723254</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>1950</t>
+          <t>1929</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CTAS</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Cintas</t>
+          <t>Cisco</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>Diversified Support Services</t>
+          <t>Communications Equipment</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Mason, Ohio</t>
+          <t>San Jose, California</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2001-03-01</t>
+          <t>1993-12-01</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>0000723254</t>
+          <t>0000858877</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>1984</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>C</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Cisco</t>
+          <t>Citigroup</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>Communications Equipment</t>
+          <t>Diversified Banks</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>San Jose, California</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>1993-12-01</t>
+          <t>1988-05-31</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>0000858877</t>
+          <t>0000831001</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1998</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>CFG</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Citigroup</t>
+          <t>Citizens Financial Group</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5239,180 +5239,180 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>Diversified Banks</t>
+          <t>Regional Banks</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>Providence, Rhode Island</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>1988-05-31</t>
+          <t>2016-01-29</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>0000831001</t>
+          <t>0000759944</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1828</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CFG</t>
+          <t>CLX</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Citizens Financial Group</t>
+          <t>Clorox</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Regional Banks</t>
+          <t>Household Products</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Providence, Rhode Island</t>
+          <t>Oakland, California</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2016-01-29</t>
+          <t>1969-03-31</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>0000759944</t>
+          <t>0000021076</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>1828</t>
+          <t>1913</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CLX</t>
+          <t>CME</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Clorox</t>
+          <t>CME Group</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Household Products</t>
+          <t>Financial Exchanges &amp; Data</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Oakland, California</t>
+          <t>Chicago, Illinois</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>1969-03-31</t>
+          <t>2006-08-11</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>0000021076</t>
+          <t>0001156375</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>1913</t>
+          <t>1848</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CME</t>
+          <t>CMS</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CME Group</t>
+          <t>CMS Energy</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Financial Exchanges &amp; Data</t>
+          <t>Multi-Utilities</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Chicago, Illinois</t>
+          <t>Jackson, Michigan</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2006-08-11</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>0001156375</t>
+          <t>0000811156</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>1848</t>
+          <t>1886</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CMS</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>CMS Energy</t>
+          <t>Coca-Cola Company (The)</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Soft Drinks &amp; Non-alcoholic Beverages</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Jackson, Michigan</t>
+          <t>Atlanta, Georgia</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>0000811156</t>
+          <t>0000021344</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -5434,279 +5434,279 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>CTSH</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Coca-Cola Company (The)</t>
+          <t>Cognizant</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>Soft Drinks &amp; Non-alcoholic Beverages</t>
+          <t>IT Consulting &amp; Other Services</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>Atlanta, Georgia</t>
+          <t>Teaneck, New Jersey</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2006-11-17</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>0000021344</t>
+          <t>0001058290</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>1886</t>
+          <t>1994</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CTSH</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cognizant</t>
+          <t>Colgate-Palmolive</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>IT Consulting &amp; Other Services</t>
+          <t>Household Products</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Teaneck, New Jersey</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2006-11-17</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>0001058290</t>
+          <t>0000021665</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1806</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>CMCSA</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Colgate-Palmolive</t>
+          <t>Comcast</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>Household Products</t>
+          <t>Cable &amp; Satellite</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>Philadelphia, Pennsylvania</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2002-11-19</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>0000021665</t>
+          <t>0001166691</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>1806</t>
+          <t>1963</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CMCSA</t>
+          <t>CMA</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Comcast</t>
+          <t>Comerica</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Cable &amp; Satellite</t>
+          <t>Diversified Banks</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Philadelphia, Pennsylvania</t>
+          <t>Dallas, Texas</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2002-11-19</t>
+          <t>1995-12-01</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>0001166691</t>
+          <t>0000028412</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1849</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CMA</t>
+          <t>CAG</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Comerica</t>
+          <t>Conagra Brands</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>Diversified Banks</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Dallas, Texas</t>
+          <t>Chicago, Illinois</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>1995-12-01</t>
+          <t>1983-08-31</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>0000028412</t>
+          <t>0000023217</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>1849</t>
+          <t>1919</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CAG</t>
+          <t>COP</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Conagra Brands</t>
+          <t>ConocoPhillips</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Packaged Foods &amp; Meats</t>
+          <t>Oil &amp; Gas Exploration &amp; Production</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Chicago, Illinois</t>
+          <t>Houston, Texas</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>1983-08-31</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>0000023217</t>
+          <t>0001163165</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>1919</t>
+          <t>2002</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>COP</t>
+          <t>ED</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ConocoPhillips</t>
+          <t>Consolidated Edison</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Exploration &amp; Production</t>
+          <t>Multi-Utilities</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Houston, Texas</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -5716,412 +5716,412 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>0001163165</t>
+          <t>0001047862</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1823</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>ED</t>
+          <t>STZ</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Consolidated Edison</t>
+          <t>Constellation Brands</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Distillers &amp; Vintners</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>Victor, New York</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2005-07-01</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>0001047862</t>
+          <t>0000016918</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>1823</t>
+          <t>1945</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>STZ</t>
+          <t>CEG</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Constellation Brands</t>
+          <t>Constellation Energy</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Distillers &amp; Vintners</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Victor, New York</t>
+          <t>Baltimore, Maryland</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2005-07-01</t>
+          <t>2022-02-02</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>0000016918</t>
+          <t>0001868275</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1999</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CEG</t>
+          <t>COO</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Constellation Energy</t>
+          <t>CooperCompanies</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Health Care Supplies</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Baltimore, Maryland</t>
+          <t>San Ramon, California</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2022-02-02</t>
+          <t>2016-09-23</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>0001868275</t>
+          <t>0000711404</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1958</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>COO</t>
+          <t>CPRT</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>CooperCompanies</t>
+          <t>Copart</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Health Care Supplies</t>
+          <t>Diversified Support Services</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>San Ramon, California</t>
+          <t>Dallas, Texas</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2016-09-23</t>
+          <t>2018-07-02</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>0000711404</t>
+          <t>0000900075</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1982</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>GLW</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Copart</t>
+          <t>Corning Inc.</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>Diversified Support Services</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Dallas, Texas</t>
+          <t>Corning, New York</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2018-07-02</t>
+          <t>1995-02-27</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>0000900075</t>
+          <t>0000024741</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1851</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>GLW</t>
+          <t>CTVA</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Corning Inc.</t>
+          <t>Corteva</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Fertilizers &amp; Agricultural Chemicals</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Corning, New York</t>
+          <t>Indianapolis, Indiana</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>1995-02-27</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>0000024741</t>
+          <t>0001755672</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>1851</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CTVA</t>
+          <t>CSGP</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Corteva</t>
+          <t>CoStar Group</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Fertilizers &amp; Agricultural Chemicals</t>
+          <t>Real Estate Services</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Indianapolis, Indiana</t>
+          <t>Washington, D.C.</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2019-06-03</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0001755672</t>
+          <t>0001057352</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1987</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>COST</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>CoStar Group</t>
+          <t>Costco</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Real Estate Services</t>
+          <t>Consumer Staples Merchandise Retail</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Washington, D.C.</t>
+          <t>Issaquah, Washington</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2022-09-19</t>
+          <t>1993-10-01</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>0001057352</t>
+          <t>0000909832</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1976</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>CTRA</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Costco</t>
+          <t>Coterra</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Consumer Staples Merchandise Retail</t>
+          <t>Oil &amp; Gas Exploration &amp; Production</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Issaquah, Washington</t>
+          <t>Houston, Texas</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>1993-10-01</t>
+          <t>2008-06-23</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>0000909832</t>
+          <t>0000858470</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>2021 (1989)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CTRA</t>
+          <t>CCI</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Coterra</t>
+          <t>Crown Castle</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Exploration &amp; Production</t>
+          <t>Telecom Tower REITs</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6131,71 +6131,71 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2008-06-23</t>
+          <t>2012-03-14</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>0000858470</t>
+          <t>0001051470</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>2021 (1989)</t>
+          <t>1994</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>CSX</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Crown Castle</t>
+          <t>CSX</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Telecom Tower REITs</t>
+          <t>Rail Transportation</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Houston, Texas</t>
+          <t>Jacksonville, Florida</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2012-03-14</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>0001051470</t>
+          <t>0000277948</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1980</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CSX</t>
+          <t>CMI</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>CSX</t>
+          <t>Cummins</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6205,81 +6205,81 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Rail Transportation</t>
+          <t>Construction Machinery &amp; Heavy Transportation Equipment</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Jacksonville, Florida</t>
+          <t>Columbus, Indiana</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>1965-03-31</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>0000277948</t>
+          <t>0000026172</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1919</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CMI</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Cummins</t>
+          <t>CVS Health</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Construction Machinery &amp; Heavy Transportation Equipment</t>
+          <t>Health Care Services</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Columbus, Indiana</t>
+          <t>Woonsocket, Rhode Island</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1965-03-31</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>0000026172</t>
+          <t>0000064803</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>1919</t>
+          <t>1996</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>DHR</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Danaher Corporation</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6289,153 +6289,153 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Health Care Services</t>
+          <t>Life Sciences Tools &amp; Services</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Woonsocket, Rhode Island</t>
+          <t>Washington, D.C.</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>1998-11-18</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0000064803</t>
+          <t>0000313616</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1969</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>DRI</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Danaher Corporation</t>
+          <t>Darden Restaurants</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Washington, D.C.</t>
+          <t>Orlando, Florida</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1998-11-18</t>
+          <t>1995-05-31</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>0000313616</t>
+          <t>0000940944</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1938</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>DVA</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Darden Restaurants</t>
+          <t>DaVita Inc.</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Health Care Services</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Orlando, Florida</t>
+          <t>Denver, Colorado</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>1995-05-31</t>
+          <t>2008-07-31</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>0000940944</t>
+          <t>0000927066</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1979</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>DVA</t>
+          <t>DAY</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>DaVita Inc.</t>
+          <t>Dayforce</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Health Care Services</t>
+          <t>Human Resource &amp; Employment Services</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Denver, Colorado</t>
+          <t>Minneapolis, Minnesota</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2008-07-31</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>0000927066</t>
+          <t>0001725057</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1992</t>
         </is>
       </c>
     </row>
@@ -19225,7 +19225,7 @@
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Specialty Stores</t>
+          <t>Other Specialty Retail</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
@@ -19687,7 +19687,7 @@
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Specialty Stores</t>
+          <t>Other Specialty Retail</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -10012,7 +10012,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>PEAK</t>
+          <t>DOC</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -10032,7 +10032,7 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Long Beach, California</t>
+          <t>Denver, Colorado</t>
         </is>
       </c>
       <c r="F229" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -1039,7 +1039,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Specialty Chemicals</t>
+          <t>Specialty Bust Chemicals</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -2583,7 +2583,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Automated Data Processing</t>
+          <t>Automatic Data Processing</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -5938,190 +5938,190 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CTVA</t>
+          <t>CPAY</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Corteva</t>
+          <t>Corpay</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Fertilizers &amp; Agricultural Chemicals</t>
+          <t>Transaction &amp; Payment Processing Services</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Indianapolis, Indiana</t>
+          <t>Atlanta, Georgia</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2019-06-03</t>
+          <t>2018-06-20</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>0001755672</t>
+          <t>0001175454</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CSGP</t>
+          <t>CTVA</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>CoStar Group</t>
+          <t>Corteva</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Real Estate Services</t>
+          <t>Fertilizers &amp; Agricultural Chemicals</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Washington, D.C.</t>
+          <t>Indianapolis, Indiana</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2022-09-19</t>
+          <t>2019-06-03</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>0001057352</t>
+          <t>0001755672</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>COST</t>
+          <t>CSGP</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Costco</t>
+          <t>CoStar Group</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>Consumer Staples Merchandise Retail</t>
+          <t>Real Estate Services</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Issaquah, Washington</t>
+          <t>Washington, D.C.</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>1993-10-01</t>
+          <t>2022-09-19</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>0000909832</t>
+          <t>0001057352</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>1976</t>
+          <t>1987</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CTRA</t>
+          <t>COST</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Coterra</t>
+          <t>Costco</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Exploration &amp; Production</t>
+          <t>Consumer Staples Merchandise Retail</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Houston, Texas</t>
+          <t>Issaquah, Washington</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2008-06-23</t>
+          <t>1993-10-01</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>0000858470</t>
+          <t>0000909832</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>2021 (1989)</t>
+          <t>1976</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CCI</t>
+          <t>CTRA</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Crown Castle</t>
+          <t>Coterra</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>Telecom Tower REITs</t>
+          <t>Oil &amp; Gas Exploration &amp; Production</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -6131,71 +6131,71 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2012-03-14</t>
+          <t>2008-06-23</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>0001051470</t>
+          <t>0000858470</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>2021 (1989)</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CSX</t>
+          <t>CCI</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>CSX</t>
+          <t>Crown Castle</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Rail Transportation</t>
+          <t>Telecom Tower REITs</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Jacksonville, Florida</t>
+          <t>Houston, Texas</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2012-03-14</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>0000277948</t>
+          <t>0001051470</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1994</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CMI</t>
+          <t>CSX</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Cummins</t>
+          <t>CSX</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6205,81 +6205,81 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>Construction Machinery &amp; Heavy Transportation Equipment</t>
+          <t>Rail Transportation</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Columbus, Indiana</t>
+          <t>Jacksonville, Florida</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>1965-03-31</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>0000026172</t>
+          <t>0000277948</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>1919</t>
+          <t>1980</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>CMI</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>CVS Health</t>
+          <t>Cummins</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Health Care Services</t>
+          <t>Construction Machinery &amp; Heavy Transportation Equipment</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Woonsocket, Rhode Island</t>
+          <t>Columbus, Indiana</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>1965-03-31</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>0000064803</t>
+          <t>0000026172</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1919</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>DHR</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Danaher Corporation</t>
+          <t>CVS Health</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6289,249 +6289,249 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services</t>
+          <t>Health Care Services</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Washington, D.C.</t>
+          <t>Woonsocket, Rhode Island</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>1998-11-18</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>0000313616</t>
+          <t>0000064803</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1996</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>DRI</t>
+          <t>DHR</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Darden Restaurants</t>
+          <t>Danaher Corporation</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Life Sciences Tools &amp; Services</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Orlando, Florida</t>
+          <t>Washington, D.C.</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>1995-05-31</t>
+          <t>1998-11-18</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>0000940944</t>
+          <t>0000313616</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1969</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>DVA</t>
+          <t>DRI</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>DaVita Inc.</t>
+          <t>Darden Restaurants</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Health Care Services</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Denver, Colorado</t>
+          <t>Orlando, Florida</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2008-07-31</t>
+          <t>1995-05-31</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>0000927066</t>
+          <t>0000940944</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1938</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>DAY</t>
+          <t>DVA</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Dayforce</t>
+          <t>DaVita Inc.</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>Human Resource &amp; Employment Services</t>
+          <t>Health Care Services</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Minneapolis, Minnesota</t>
+          <t>Denver, Colorado</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2021-09-20</t>
+          <t>2008-07-31</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>0001725057</t>
+          <t>0000927066</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>1992</t>
+          <t>1979</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>DECK</t>
+          <t>DAY</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Deckers Brands</t>
+          <t>Dayforce</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>Footwear</t>
+          <t>Human Resource &amp; Employment Services</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Goleta, California</t>
+          <t>Minneapolis, Minnesota</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2021-09-20</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>0000910521</t>
+          <t>0001725057</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1992</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>DECK</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>John Deere</t>
+          <t>Deckers Brands</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>Agricultural &amp; Farm Machinery</t>
+          <t>Footwear</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Moline, Illinois</t>
+          <t>Goleta, California</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>0000315189</t>
+          <t>0000910521</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>1837</t>
+          <t>1973</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Delta Air Lines</t>
+          <t>John Deere</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6541,333 +6541,333 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>Passenger Airlines</t>
+          <t>Agricultural &amp; Farm Machinery</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Atlanta, Georgia</t>
+          <t>Moline, Illinois</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2013-09-11</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>0000027904</t>
+          <t>0000315189</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>1929</t>
+          <t>1837</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>XRAY</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Dentsply Sirona</t>
+          <t>Delta Air Lines</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>Health Care Supplies</t>
+          <t>Passenger Airlines</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Charlotte, North Carolina</t>
+          <t>Atlanta, Georgia</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2008-11-14</t>
+          <t>2013-09-11</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>0000818479</t>
+          <t>0000027904</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>2016 (1969)</t>
+          <t>1929</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>DVN</t>
+          <t>XRAY</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Devon Energy</t>
+          <t>Dentsply Sirona</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Exploration &amp; Production</t>
+          <t>Health Care Supplies</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Oklahoma City, Oklahoma</t>
+          <t>Charlotte, North Carolina</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2000-08-30</t>
+          <t>2008-11-14</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>0001090012</t>
+          <t>0000818479</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>2016 (1969)</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>DXCM</t>
+          <t>DVN</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Dexcom</t>
+          <t>Devon Energy</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Health Care Equipment</t>
+          <t>Oil &amp; Gas Exploration &amp; Production</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>San Diego, California</t>
+          <t>Oklahoma City, Oklahoma</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>2000-08-30</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>0001093557</t>
+          <t>0001090012</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1971</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>FANG</t>
+          <t>DXCM</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Diamondback Energy</t>
+          <t>Dexcom</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Exploration &amp; Production</t>
+          <t>Health Care Equipment</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Midland, Texas</t>
+          <t>San Diego, California</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2018-12-03</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>0001539838</t>
+          <t>0001093557</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1999</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>FANG</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Digital Realty</t>
+          <t>Diamondback Energy</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Data Center REITs</t>
+          <t>Oil &amp; Gas Exploration &amp; Production</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Austin, Texas</t>
+          <t>Midland, Texas</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2016-05-18</t>
+          <t>2018-12-03</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>0001297996</t>
+          <t>0001539838</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>2007</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>DFS</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Discover Financial</t>
+          <t>Digital Realty</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Consumer Finance</t>
+          <t>Data Center REITs</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Riverwoods, Illinois</t>
+          <t>Austin, Texas</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2007-07-02</t>
+          <t>2016-05-18</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>0001393612</t>
+          <t>0001297996</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>2004</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>DFS</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Dollar General</t>
+          <t>Discover Financial</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Consumer Staples Merchandise Retail</t>
+          <t>Consumer Finance</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Goodlettsville, Tennessee</t>
+          <t>Riverwoods, Illinois</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2012-12-03</t>
+          <t>2007-07-02</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>0000029534</t>
+          <t>0001393612</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>1985</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>DG</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Dollar Tree</t>
+          <t>Dollar General</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6882,286 +6882,286 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Chesapeake, Virginia</t>
+          <t>Goodlettsville, Tennessee</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2011-12-19</t>
+          <t>2012-12-03</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>0000935703</t>
+          <t>0000029534</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1939</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>DLTR</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Dominion Energy</t>
+          <t>Dollar Tree</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Consumer Staples Merchandise Retail</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Richmond, Virginia</t>
+          <t>Chesapeake, Virginia</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2016-11-30</t>
+          <t>2011-12-19</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>0000715957</t>
+          <t>0000935703</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1986</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Domino's</t>
+          <t>Dominion Energy</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Multi-Utilities</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Ann Arbor, Michigan</t>
+          <t>Richmond, Virginia</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>2016-11-30</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>0001286681</t>
+          <t>0000715957</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1983</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>DPZ</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Dover Corporation</t>
+          <t>Domino's</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Downers Grove, Illinois</t>
+          <t>Ann Arbor, Michigan</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>1985-10-31</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>0000029905</t>
+          <t>0001286681</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>1960</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>DOV</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Dow Inc.</t>
+          <t>Dover Corporation</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Commodity Chemicals</t>
+          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Midland, Michigan</t>
+          <t>Downers Grove, Illinois</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2019-04-01</t>
+          <t>1985-10-31</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>0001751788</t>
+          <t>0000029905</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>2019 (1897)</t>
+          <t>1955</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>DR Horton</t>
+          <t>Dow Inc.</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Homebuilding</t>
+          <t>Commodity Chemicals</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Arlington, Texas</t>
+          <t>Midland, Michigan</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2005-06-22</t>
+          <t>2019-04-01</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>0000882184</t>
+          <t>0001751788</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>2019 (1897)</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>DTE</t>
+          <t>DHI</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DTE Energy</t>
+          <t>DR Horton</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Homebuilding</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Detroit, Michigan</t>
+          <t>Arlington, Texas</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2005-06-22</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>0000936340</t>
+          <t>0000882184</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1978</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>DUK</t>
+          <t>DTE</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Duke Energy</t>
+          <t>DTE Energy</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7171,81 +7171,81 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Multi-Utilities</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Charlotte, North Carolina</t>
+          <t>Detroit, Michigan</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1976-06-30</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>0001326160</t>
+          <t>0000936340</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>1904</t>
+          <t>1995</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>DUK</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>DuPont</t>
+          <t>Duke Energy</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Specialty Chemicals</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Wilmington, Delaware</t>
+          <t>Charlotte, North Carolina</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>1976-06-30</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>0001666700</t>
+          <t>0001326160</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>2017 (1802)</t>
+          <t>1904</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>EMN</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Eastman Chemical Company</t>
+          <t>DuPont</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7260,328 +7260,328 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Kingsport, Tennessee</t>
+          <t>Wilmington, Delaware</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>1994-01-01</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>0000915389</t>
+          <t>0001666700</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>2017 (1802)</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ETN</t>
+          <t>EMN</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Eaton Corporation</t>
+          <t>Eastman Chemical Company</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Electrical Components &amp; Equipment</t>
+          <t>Specialty Chemicals</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Dublin, Ireland</t>
+          <t>Kingsport, Tennessee</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>1994-01-01</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>0001551182</t>
+          <t>0000915389</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>1920</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>EBAY</t>
+          <t>ETN</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>eBay</t>
+          <t>Eaton Corporation</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Broadline Retail</t>
+          <t>Electrical Components &amp; Equipment</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>San Jose, California</t>
+          <t>Dublin, Ireland</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2002-07-22</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>0001065088</t>
+          <t>0001551182</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1911</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ECL</t>
+          <t>EBAY</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Ecolab</t>
+          <t>eBay</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Specialty Chemicals</t>
+          <t>Broadline Retail</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Saint Paul, Minnesota</t>
+          <t>San Jose, California</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>1989-01-31</t>
+          <t>2002-07-22</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>0000031462</t>
+          <t>0001065088</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1995</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>EIX</t>
+          <t>ECL</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Edison International</t>
+          <t>Ecolab</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Specialty Chemicals</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Rosemead, California</t>
+          <t>Saint Paul, Minnesota</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>1989-01-31</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>0000827052</t>
+          <t>0000031462</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>1886</t>
+          <t>1923</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>EIX</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Edwards Lifesciences</t>
+          <t>Edison International</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Health Care Equipment</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Irvine, California</t>
+          <t>Rosemead, California</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2011-04-01</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>0001099800</t>
+          <t>0000827052</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1886</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>EW</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Electronic Arts</t>
+          <t>Edwards Lifesciences</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Interactive Home Entertainment</t>
+          <t>Health Care Equipment</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Redwood City, California</t>
+          <t>Irvine, California</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2002-07-22</t>
+          <t>2011-04-01</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>0000712515</t>
+          <t>0001099800</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1958</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Elevance Health</t>
+          <t>Electronic Arts</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Managed Health Care</t>
+          <t>Interactive Home Entertainment</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Indianapolis, Indiana</t>
+          <t>Redwood City, California</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2002-07-25</t>
+          <t>2002-07-22</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>0001156039</t>
+          <t>0000712515</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>2014 (1946)</t>
+          <t>1982</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>ELV</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Eli Lilly and Company</t>
+          <t>Elevance Health</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Managed Health Care</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7601,365 +7601,365 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>1970-12-31</t>
+          <t>2002-07-25</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>0000059478</t>
+          <t>0001156039</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>1876</t>
+          <t>2014 (1946)</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>EMR</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Emerson Electric</t>
+          <t>Eli Lilly and Company</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Electrical Components &amp; Equipment</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Ferguson, Missouri</t>
+          <t>Indianapolis, Indiana</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1965-03-31</t>
+          <t>1970-12-31</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>0000032604</t>
+          <t>0000059478</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>1876</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ENPH</t>
+          <t>EMR</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Enphase</t>
+          <t>Emerson Electric</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Semiconductor Materials &amp; Equipment</t>
+          <t>Electrical Components &amp; Equipment</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Fremont, California</t>
+          <t>Ferguson, Missouri</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2021-01-07</t>
+          <t>1965-03-31</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>0001463101</t>
+          <t>0000032604</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1890</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ETR</t>
+          <t>ENPH</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Entergy</t>
+          <t>Enphase</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Semiconductor Materials &amp; Equipment</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>New Orleans, Louisiana</t>
+          <t>Fremont, California</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2021-01-07</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>0000065984</t>
+          <t>0001463101</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>1913</t>
+          <t>2006</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>EOG</t>
+          <t>ETR</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>EOG Resources</t>
+          <t>Entergy</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Exploration &amp; Production</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Houston, Texas</t>
+          <t>New Orleans, Louisiana</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2000-11-02</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>0000821189</t>
+          <t>0000065984</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1913</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>EOG</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>EPAM Systems</t>
+          <t>EOG Resources</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>IT Consulting &amp; Other Services</t>
+          <t>Oil &amp; Gas Exploration &amp; Production</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Newtown, Pennsylvania</t>
+          <t>Houston, Texas</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2000-11-02</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>0001352010</t>
+          <t>0000821189</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1999</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>EPAM</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>EPAM Systems</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Exploration &amp; Production</t>
+          <t>IT Consulting &amp; Other Services</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Pittsburgh, Pennsylvania</t>
+          <t>Newtown, Pennsylvania</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2022-10-03</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>0000033213</t>
+          <t>0001352010</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>1993</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Equifax</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Research &amp; Consulting Services</t>
+          <t>Oil &amp; Gas Exploration &amp; Production</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Atlanta, Georgia</t>
+          <t>Pittsburgh, Pennsylvania</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>1997-06-19</t>
+          <t>2022-10-03</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>0000033185</t>
+          <t>0000033213</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>1899</t>
+          <t>1888</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>EQIX</t>
+          <t>EFX</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Equinix</t>
+          <t>Equifax</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Data Center REITs</t>
+          <t>Research &amp; Consulting Services</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Redwood City, California</t>
+          <t>Atlanta, Georgia</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2015-03-20</t>
+          <t>1997-06-19</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>0001101239</t>
+          <t>0000033185</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1899</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>EQR</t>
+          <t>EQIX</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Equity Residential</t>
+          <t>Equinix</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7969,39 +7969,39 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Multi-Family Residential REITs</t>
+          <t>Data Center REITs</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Chicago, Illinois</t>
+          <t>Redwood City, California</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2001-12-03</t>
+          <t>2015-03-20</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>0000906107</t>
+          <t>0001101239</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1998</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>EQR</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Essex Property Trust</t>
+          <t>Equity Residential</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8016,86 +8016,86 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>San Mateo, California</t>
+          <t>Chicago, Illinois</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2014-04-02</t>
+          <t>2001-12-03</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>0000920522</t>
+          <t>0000906107</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1969</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>ESS</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Estée Lauder Companies (The)</t>
+          <t>Essex Property Trust</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Personal Care Products</t>
+          <t>Multi-Family Residential REITs</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>San Mateo, California</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2006-01-05</t>
+          <t>2014-04-02</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>0001001250</t>
+          <t>0000920522</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>1971</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ETSY</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Etsy</t>
+          <t>Estée Lauder Companies (The)</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Broadline Retail</t>
+          <t>Personal Care Products</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8105,113 +8105,113 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2020-09-21</t>
+          <t>2006-01-05</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>0001370637</t>
+          <t>0001001250</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1946</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>EG</t>
+          <t>ETSY</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Everest Re</t>
+          <t>Etsy</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Reinsurance</t>
+          <t>Broadline Retail</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Hamilton, Bermuda</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2017-06-19</t>
+          <t>2020-09-21</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>0001095073</t>
+          <t>0001370637</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>2005</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>EVRG</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Evergy</t>
+          <t>Everest Re</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Reinsurance</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Kansas City, Missouri</t>
+          <t>Hamilton, Bermuda</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2018-06-05</t>
+          <t>2017-06-19</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>0001711269</t>
+          <t>0001095073</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>1909</t>
+          <t>1973</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EVRG</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Eversource</t>
+          <t>Evergy</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8226,34 +8226,34 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Hartford, Connecticut</t>
+          <t>Kansas City, Missouri</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2009-07-24</t>
+          <t>2018-06-05</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>0000072741</t>
+          <t>0001711269</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1909</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Exelon</t>
+          <t>Eversource</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8268,86 +8268,86 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Chicago, Illinois</t>
+          <t>Hartford, Connecticut</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2009-07-24</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>0001109357</t>
+          <t>0000072741</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1966</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Expedia Group</t>
+          <t>Exelon</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Hotels, Resorts &amp; Cruise Lines</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Seattle, Washington</t>
+          <t>Chicago, Illinois</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2007-10-02</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>0001324424</t>
+          <t>0001109357</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>EXPD</t>
+          <t>EXPE</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Expeditors International</t>
+          <t>Expedia Group</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Air Freight &amp; Logistics</t>
+          <t>Hotels, Resorts &amp; Cruise Lines</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8357,407 +8357,407 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2007-10-10</t>
+          <t>2007-10-02</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>0000746515</t>
+          <t>0001324424</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1996</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>EXPD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Extra Space Storage</t>
+          <t>Expeditors International</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Self-Storage REITs</t>
+          <t>Air Freight &amp; Logistics</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Salt Lake City, Utah</t>
+          <t>Seattle, Washington</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2016-01-19</t>
+          <t>2007-10-10</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>0001289490</t>
+          <t>0000746515</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1979</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>EXR</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ExxonMobil</t>
+          <t>Extra Space Storage</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Integrated Oil &amp; Gas</t>
+          <t>Self-Storage REITs</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Irving, Texas</t>
+          <t>Salt Lake City, Utah</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2016-01-19</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>0000034088</t>
+          <t>0001289490</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1977</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>FFIV</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>F5, Inc.</t>
+          <t>ExxonMobil</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Communications Equipment</t>
+          <t>Integrated Oil &amp; Gas</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Seattle, Washington</t>
+          <t>Irving, Texas</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2010-12-20</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>0001048695</t>
+          <t>0000034088</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1999</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>FFIV</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>FactSet</t>
+          <t>F5, Inc.</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Financial Exchanges &amp; Data</t>
+          <t>Communications Equipment</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Norwalk, Connecticut</t>
+          <t>Seattle, Washington</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2021-12-20</t>
+          <t>2010-12-20</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>0001013237</t>
+          <t>0001048695</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1996</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>FDS</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Fair Isaac</t>
+          <t>FactSet</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Financial Exchanges &amp; Data</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Bozeman, Montana</t>
+          <t>Norwalk, Connecticut</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2021-12-20</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>0000814547</t>
+          <t>0001013237</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>1978</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>FAST</t>
+          <t>FICO</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Fastenal</t>
+          <t>Fair Isaac</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors</t>
+          <t>Application Software</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Winona, Minnesota</t>
+          <t>Bozeman, Montana</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2008-09-15</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>0000815556</t>
+          <t>0000814547</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1956</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>FAST</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Federal Realty</t>
+          <t>Fastenal</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Retail REITs</t>
+          <t>Trading Companies &amp; Distributors</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Rockville, Maryland</t>
+          <t>Winona, Minnesota</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2016-02-01</t>
+          <t>2008-09-15</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>0000034903</t>
+          <t>0000815556</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1967</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>FDX</t>
+          <t>FRT</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>FedEx</t>
+          <t>Federal Realty</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Air Freight &amp; Logistics</t>
+          <t>Retail REITs</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Memphis, Tennessee</t>
+          <t>Rockville, Maryland</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>1980-12-31</t>
+          <t>2016-02-01</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>0001048911</t>
+          <t>0000034903</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1962</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>FDX</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Fidelity National Information Services</t>
+          <t>FedEx</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Transaction &amp; Payment Processing Services</t>
+          <t>Air Freight &amp; Logistics</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Jacksonville, Florida</t>
+          <t>Memphis, Tennessee</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2006-11-10</t>
+          <t>1980-12-31</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>0001136893</t>
+          <t>0001048911</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1971</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>FITB</t>
+          <t>FIS</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Fifth Third Bank</t>
+          <t>Fidelity National Information Services</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8767,165 +8767,165 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Diversified Banks</t>
+          <t>Transaction &amp; Payment Processing Services</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Cincinnati, Ohio</t>
+          <t>Jacksonville, Florida</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>1996-03-29</t>
+          <t>2006-11-10</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>0000035527</t>
+          <t>0001136893</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>1968</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>FITB</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>First Solar</t>
+          <t>Fifth Third Bank</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Diversified Banks</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Tempe, Arizona</t>
+          <t>Cincinnati, Ohio</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>1996-03-29</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>0001274494</t>
+          <t>0000035527</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1858</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>FirstEnergy</t>
+          <t>First Solar</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Akron, Ohio</t>
+          <t>Tempe, Arizona</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>1997-11-28</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>0001031296</t>
+          <t>0001274494</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1999</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Fiserv</t>
+          <t>FirstEnergy</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Transaction &amp; Payment Processing Services</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Brookfield, Wisconsin</t>
+          <t>Akron, Ohio</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2001-04-02</t>
+          <t>1997-11-28</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>0000798354</t>
+          <t>0001031296</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1997</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>FLT</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Fleetcor</t>
+          <t>Fiserv</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8940,22 +8940,22 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Atlanta, Georgia</t>
+          <t>Brookfield, Wisconsin</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2018-06-20</t>
+          <t>2001-04-02</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>0001175454</t>
+          <t>0000798354</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1984</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -1039,7 +1039,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Specialty Bust Chemicals</t>
+          <t>Specialty Chemicals</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -6610,264 +6610,264 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>XRAY</t>
+          <t>DVN</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Dentsply Sirona</t>
+          <t>Devon Energy</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>Health Care Supplies</t>
+          <t>Oil &amp; Gas Exploration &amp; Production</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Charlotte, North Carolina</t>
+          <t>Oklahoma City, Oklahoma</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2008-11-14</t>
+          <t>2000-08-30</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>0000818479</t>
+          <t>0001090012</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>2016 (1969)</t>
+          <t>1971</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>DVN</t>
+          <t>DXCM</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Devon Energy</t>
+          <t>Dexcom</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Exploration &amp; Production</t>
+          <t>Health Care Equipment</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Oklahoma City, Oklahoma</t>
+          <t>San Diego, California</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2000-08-30</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>0001090012</t>
+          <t>0001093557</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1999</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>DXCM</t>
+          <t>FANG</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Dexcom</t>
+          <t>Diamondback Energy</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>Health Care Equipment</t>
+          <t>Oil &amp; Gas Exploration &amp; Production</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>San Diego, California</t>
+          <t>Midland, Texas</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>2018-12-03</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>0001093557</t>
+          <t>0001539838</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>2007</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>FANG</t>
+          <t>DLR</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Diamondback Energy</t>
+          <t>Digital Realty</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Exploration &amp; Production</t>
+          <t>Data Center REITs</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Midland, Texas</t>
+          <t>Austin, Texas</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2018-12-03</t>
+          <t>2016-05-18</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>0001539838</t>
+          <t>0001297996</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>2004</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>DLR</t>
+          <t>DFS</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Digital Realty</t>
+          <t>Discover Financial</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>Data Center REITs</t>
+          <t>Consumer Finance</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Austin, Texas</t>
+          <t>Riverwoods, Illinois</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2016-05-18</t>
+          <t>2007-07-02</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>0001297996</t>
+          <t>0001393612</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>2004</t>
+          <t>1985</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>DFS</t>
+          <t>DG</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Discover Financial</t>
+          <t>Dollar General</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>Consumer Finance</t>
+          <t>Consumer Staples Merchandise Retail</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Riverwoods, Illinois</t>
+          <t>Goodlettsville, Tennessee</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2007-07-02</t>
+          <t>2012-12-03</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>0001393612</t>
+          <t>0000029534</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1939</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>DG</t>
+          <t>DLTR</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Dollar General</t>
+          <t>Dollar Tree</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6882,286 +6882,286 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Goodlettsville, Tennessee</t>
+          <t>Chesapeake, Virginia</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2012-12-03</t>
+          <t>2011-12-19</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>0000029534</t>
+          <t>0000935703</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>1939</t>
+          <t>1986</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>D</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Dollar Tree</t>
+          <t>Dominion Energy</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>Consumer Staples Merchandise Retail</t>
+          <t>Multi-Utilities</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Chesapeake, Virginia</t>
+          <t>Richmond, Virginia</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2011-12-19</t>
+          <t>2016-11-30</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>0000935703</t>
+          <t>0000715957</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1983</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>DPZ</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Dominion Energy</t>
+          <t>Domino's</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Richmond, Virginia</t>
+          <t>Ann Arbor, Michigan</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2016-11-30</t>
+          <t>2020-05-12</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>0000715957</t>
+          <t>0001286681</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1960</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>DPZ</t>
+          <t>DOV</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Domino's</t>
+          <t>Dover Corporation</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Ann Arbor, Michigan</t>
+          <t>Downers Grove, Illinois</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2020-05-12</t>
+          <t>1985-10-31</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>0001286681</t>
+          <t>0000029905</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1955</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>DOV</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Dover Corporation</t>
+          <t>Dow Inc.</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
+          <t>Commodity Chemicals</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Downers Grove, Illinois</t>
+          <t>Midland, Michigan</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>1985-10-31</t>
+          <t>2019-04-01</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>0000029905</t>
+          <t>0001751788</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>1955</t>
+          <t>2019 (1897)</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>DHI</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Dow Inc.</t>
+          <t>DR Horton</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>Commodity Chemicals</t>
+          <t>Homebuilding</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Midland, Michigan</t>
+          <t>Arlington, Texas</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2019-04-01</t>
+          <t>2005-06-22</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>0001751788</t>
+          <t>0000882184</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>2019 (1897)</t>
+          <t>1978</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>DHI</t>
+          <t>DTE</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>DR Horton</t>
+          <t>DTE Energy</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>Homebuilding</t>
+          <t>Multi-Utilities</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Arlington, Texas</t>
+          <t>Detroit, Michigan</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2005-06-22</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>0000882184</t>
+          <t>0000936340</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1995</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>DTE</t>
+          <t>DUK</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>DTE Energy</t>
+          <t>Duke Energy</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7171,81 +7171,81 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Detroit, Michigan</t>
+          <t>Charlotte, North Carolina</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>1976-06-30</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>0000936340</t>
+          <t>0001326160</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1904</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>DUK</t>
+          <t>DD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Duke Energy</t>
+          <t>DuPont</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Specialty Chemicals</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Charlotte, North Carolina</t>
+          <t>Wilmington, Delaware</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>1976-06-30</t>
+          <t>2019-04-02</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>0001326160</t>
+          <t>0001666700</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>1904</t>
+          <t>2017 (1802)</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>DD</t>
+          <t>EMN</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>DuPont</t>
+          <t>Eastman Chemical Company</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7260,328 +7260,328 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Wilmington, Delaware</t>
+          <t>Kingsport, Tennessee</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2019-04-02</t>
+          <t>1994-01-01</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>0001666700</t>
+          <t>0000915389</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>2017 (1802)</t>
+          <t>1920</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>EMN</t>
+          <t>ETN</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Eastman Chemical Company</t>
+          <t>Eaton Corporation</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>Specialty Chemicals</t>
+          <t>Electrical Components &amp; Equipment</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Kingsport, Tennessee</t>
+          <t>Dublin, Ireland</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>1994-01-01</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>0000915389</t>
+          <t>0001551182</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1911</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ETN</t>
+          <t>EBAY</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Eaton Corporation</t>
+          <t>eBay</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>Electrical Components &amp; Equipment</t>
+          <t>Broadline Retail</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Dublin, Ireland</t>
+          <t>San Jose, California</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2002-07-22</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>0001551182</t>
+          <t>0001065088</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>1911</t>
+          <t>1995</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>EBAY</t>
+          <t>ECL</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>eBay</t>
+          <t>Ecolab</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Broadline Retail</t>
+          <t>Specialty Chemicals</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>San Jose, California</t>
+          <t>Saint Paul, Minnesota</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2002-07-22</t>
+          <t>1989-01-31</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>0001065088</t>
+          <t>0000031462</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1923</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>ECL</t>
+          <t>EIX</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Ecolab</t>
+          <t>Edison International</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>Specialty Chemicals</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Saint Paul, Minnesota</t>
+          <t>Rosemead, California</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>1989-01-31</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>0000031462</t>
+          <t>0000827052</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1886</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>EIX</t>
+          <t>EW</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Edison International</t>
+          <t>Edwards Lifesciences</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Health Care Equipment</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>Rosemead, California</t>
+          <t>Irvine, California</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2011-04-01</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>0000827052</t>
+          <t>0001099800</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>1886</t>
+          <t>1958</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>EW</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Edwards Lifesciences</t>
+          <t>Electronic Arts</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>Health Care Equipment</t>
+          <t>Interactive Home Entertainment</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Irvine, California</t>
+          <t>Redwood City, California</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2011-04-01</t>
+          <t>2002-07-22</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>0001099800</t>
+          <t>0000712515</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1982</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t>ELV</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Electronic Arts</t>
+          <t>Elevance Health</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Interactive Home Entertainment</t>
+          <t>Managed Health Care</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Redwood City, California</t>
+          <t>Indianapolis, Indiana</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2002-07-22</t>
+          <t>2002-07-25</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>0000712515</t>
+          <t>0001156039</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>2014 (1946)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ELV</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Elevance Health</t>
+          <t>Eli Lilly and Company</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -7591,7 +7591,7 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>Managed Health Care</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -7601,365 +7601,365 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2002-07-25</t>
+          <t>1970-12-31</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>0001156039</t>
+          <t>0000059478</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>2014 (1946)</t>
+          <t>1876</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>LLY</t>
+          <t>EMR</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Eli Lilly and Company</t>
+          <t>Emerson Electric</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Electrical Components &amp; Equipment</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Indianapolis, Indiana</t>
+          <t>Ferguson, Missouri</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>1970-12-31</t>
+          <t>1965-03-31</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>0000059478</t>
+          <t>0000032604</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>1876</t>
+          <t>1890</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>EMR</t>
+          <t>ENPH</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Emerson Electric</t>
+          <t>Enphase</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>Electrical Components &amp; Equipment</t>
+          <t>Semiconductor Materials &amp; Equipment</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Ferguson, Missouri</t>
+          <t>Fremont, California</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>1965-03-31</t>
+          <t>2021-01-07</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>0000032604</t>
+          <t>0001463101</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>1890</t>
+          <t>2006</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ENPH</t>
+          <t>ETR</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Enphase</t>
+          <t>Entergy</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>Semiconductor Materials &amp; Equipment</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Fremont, California</t>
+          <t>New Orleans, Louisiana</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2021-01-07</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>0001463101</t>
+          <t>0000065984</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>2006</t>
+          <t>1913</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ETR</t>
+          <t>EOG</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Entergy</t>
+          <t>EOG Resources</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Oil &amp; Gas Exploration &amp; Production</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>New Orleans, Louisiana</t>
+          <t>Houston, Texas</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2000-11-02</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>0000065984</t>
+          <t>0000821189</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>1913</t>
+          <t>1999</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>EOG</t>
+          <t>EPAM</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>EOG Resources</t>
+          <t>EPAM Systems</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Exploration &amp; Production</t>
+          <t>IT Consulting &amp; Other Services</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Houston, Texas</t>
+          <t>Newtown, Pennsylvania</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2000-11-02</t>
+          <t>2021-12-14</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>0000821189</t>
+          <t>0001352010</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1993</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>EPAM</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>EPAM Systems</t>
+          <t>EQT</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>IT Consulting &amp; Other Services</t>
+          <t>Oil &amp; Gas Exploration &amp; Production</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Newtown, Pennsylvania</t>
+          <t>Pittsburgh, Pennsylvania</t>
         </is>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2021-12-14</t>
+          <t>2022-10-03</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>0001352010</t>
+          <t>0000033213</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1888</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>EFX</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>Equifax</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Exploration &amp; Production</t>
+          <t>Research &amp; Consulting Services</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Pittsburgh, Pennsylvania</t>
+          <t>Atlanta, Georgia</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2022-10-03</t>
+          <t>1997-06-19</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>0000033213</t>
+          <t>0000033185</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>1888</t>
+          <t>1899</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>EFX</t>
+          <t>EQIX</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Equifax</t>
+          <t>Equinix</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>Research &amp; Consulting Services</t>
+          <t>Data Center REITs</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Atlanta, Georgia</t>
+          <t>Redwood City, California</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>1997-06-19</t>
+          <t>2015-03-20</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>0000033185</t>
+          <t>0001101239</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>1899</t>
+          <t>1998</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>EQIX</t>
+          <t>EQR</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Equinix</t>
+          <t>Equity Residential</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7969,39 +7969,39 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>Data Center REITs</t>
+          <t>Multi-Family Residential REITs</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Redwood City, California</t>
+          <t>Chicago, Illinois</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2015-03-20</t>
+          <t>2001-12-03</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>0001101239</t>
+          <t>0000906107</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1969</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>EQR</t>
+          <t>ESS</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Equity Residential</t>
+          <t>Essex Property Trust</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -8016,86 +8016,86 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Chicago, Illinois</t>
+          <t>San Mateo, California</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2001-12-03</t>
+          <t>2014-04-02</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>0000906107</t>
+          <t>0000920522</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1971</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ESS</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Essex Property Trust</t>
+          <t>Estée Lauder Companies (The)</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Multi-Family Residential REITs</t>
+          <t>Personal Care Products</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>San Mateo, California</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2014-04-02</t>
+          <t>2006-01-05</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>0000920522</t>
+          <t>0001001250</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1946</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>ETSY</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Estée Lauder Companies (The)</t>
+          <t>Etsy</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>Personal Care Products</t>
+          <t>Broadline Retail</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
@@ -8105,113 +8105,113 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2006-01-05</t>
+          <t>2020-09-21</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>0001001250</t>
+          <t>0001370637</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>1946</t>
+          <t>2005</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>ETSY</t>
+          <t>EG</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Etsy</t>
+          <t>Everest Re</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>Broadline Retail</t>
+          <t>Reinsurance</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>Hamilton, Bermuda</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2020-09-21</t>
+          <t>2017-06-19</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>0001370637</t>
+          <t>0001095073</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1973</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>EG</t>
+          <t>EVRG</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Everest Re</t>
+          <t>Evergy</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Reinsurance</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Hamilton, Bermuda</t>
+          <t>Kansas City, Missouri</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2017-06-19</t>
+          <t>2018-06-05</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>0001095073</t>
+          <t>0001711269</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>1973</t>
+          <t>1909</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>EVRG</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Evergy</t>
+          <t>Eversource</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -8226,34 +8226,34 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Kansas City, Missouri</t>
+          <t>Hartford, Connecticut</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2018-06-05</t>
+          <t>2009-07-24</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>0001711269</t>
+          <t>0000072741</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>1909</t>
+          <t>1966</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Eversource</t>
+          <t>Exelon</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -8268,86 +8268,86 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Hartford, Connecticut</t>
+          <t>Chicago, Illinois</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2009-07-24</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>0000072741</t>
+          <t>0001109357</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>EXPE</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Exelon</t>
+          <t>Expedia Group</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Hotels, Resorts &amp; Cruise Lines</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Chicago, Illinois</t>
+          <t>Seattle, Washington</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2007-10-02</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>0001109357</t>
+          <t>0001324424</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>1996</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>EXPE</t>
+          <t>EXPD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Expedia Group</t>
+          <t>Expeditors International</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>Hotels, Resorts &amp; Cruise Lines</t>
+          <t>Air Freight &amp; Logistics</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
@@ -8357,407 +8357,407 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2007-10-02</t>
+          <t>2007-10-10</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>0001324424</t>
+          <t>0000746515</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1979</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>EXPD</t>
+          <t>EXR</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Expeditors International</t>
+          <t>Extra Space Storage</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>Air Freight &amp; Logistics</t>
+          <t>Self-Storage REITs</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Seattle, Washington</t>
+          <t>Salt Lake City, Utah</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2007-10-10</t>
+          <t>2016-01-19</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>0000746515</t>
+          <t>0001289490</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1977</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>EXR</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Extra Space Storage</t>
+          <t>ExxonMobil</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
         <is>
-          <t>Self-Storage REITs</t>
+          <t>Integrated Oil &amp; Gas</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Salt Lake City, Utah</t>
+          <t>Irving, Texas</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2016-01-19</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>0001289490</t>
+          <t>0000034088</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1999</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>FFIV</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ExxonMobil</t>
+          <t>F5, Inc.</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>Integrated Oil &amp; Gas</t>
+          <t>Communications Equipment</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Irving, Texas</t>
+          <t>Seattle, Washington</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2010-12-20</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>0000034088</t>
+          <t>0001048695</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1996</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>FFIV</t>
+          <t>FDS</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>F5, Inc.</t>
+          <t>FactSet</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Communications Equipment</t>
+          <t>Financial Exchanges &amp; Data</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Seattle, Washington</t>
+          <t>Norwalk, Connecticut</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2010-12-20</t>
+          <t>2021-12-20</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>0001048695</t>
+          <t>0001013237</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>1996</t>
+          <t>1978</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>FDS</t>
+          <t>FICO</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>FactSet</t>
+          <t>Fair Isaac</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>Financial Exchanges &amp; Data</t>
+          <t>Application Software</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Norwalk, Connecticut</t>
+          <t>Bozeman, Montana</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2021-12-20</t>
+          <t>2023-03-20</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>0001013237</t>
+          <t>0000814547</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1956</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>FICO</t>
+          <t>FAST</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Fair Isaac</t>
+          <t>Fastenal</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Trading Companies &amp; Distributors</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Bozeman, Montana</t>
+          <t>Winona, Minnesota</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2023-03-20</t>
+          <t>2008-09-15</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>0000814547</t>
+          <t>0000815556</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>1967</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>FAST</t>
+          <t>FRT</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Fastenal</t>
+          <t>Federal Realty</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors</t>
+          <t>Retail REITs</t>
         </is>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Winona, Minnesota</t>
+          <t>Rockville, Maryland</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2008-09-15</t>
+          <t>2016-02-01</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>0000815556</t>
+          <t>0000034903</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1962</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>FRT</t>
+          <t>FDX</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Federal Realty</t>
+          <t>FedEx</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
         <is>
-          <t>Retail REITs</t>
+          <t>Air Freight &amp; Logistics</t>
         </is>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>Rockville, Maryland</t>
+          <t>Memphis, Tennessee</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2016-02-01</t>
+          <t>1980-12-31</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>0000034903</t>
+          <t>0001048911</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1971</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>FDX</t>
+          <t>FIS</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>FedEx</t>
+          <t>Fidelity National Information Services</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Air Freight &amp; Logistics</t>
+          <t>Transaction &amp; Payment Processing Services</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>Memphis, Tennessee</t>
+          <t>Jacksonville, Florida</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>1980-12-31</t>
+          <t>2006-11-10</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>0001048911</t>
+          <t>0001136893</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1968</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>FIS</t>
+          <t>FITB</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Fidelity National Information Services</t>
+          <t>Fifth Third Bank</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8767,375 +8767,375 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>Transaction &amp; Payment Processing Services</t>
+          <t>Diversified Banks</t>
         </is>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>Jacksonville, Florida</t>
+          <t>Cincinnati, Ohio</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2006-11-10</t>
+          <t>1996-03-29</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>0001136893</t>
+          <t>0000035527</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1858</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>FITB</t>
+          <t>FSLR</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Fifth Third Bank</t>
+          <t>First Solar</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Diversified Banks</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Cincinnati, Ohio</t>
+          <t>Tempe, Arizona</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>1996-03-29</t>
+          <t>2022-12-19</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>0000035527</t>
+          <t>0001274494</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>1858</t>
+          <t>1999</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>FSLR</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>First Solar</t>
+          <t>FirstEnergy</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>Tempe, Arizona</t>
+          <t>Akron, Ohio</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2022-12-19</t>
+          <t>1997-11-28</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>0001274494</t>
+          <t>0001031296</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1997</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>FE</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>FirstEnergy</t>
+          <t>Fiserv</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Transaction &amp; Payment Processing Services</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>Akron, Ohio</t>
+          <t>Brookfield, Wisconsin</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>1997-11-28</t>
+          <t>2001-04-02</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>0001031296</t>
+          <t>0000798354</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1984</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>FMC</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Fiserv</t>
+          <t>FMC Corporation</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Transaction &amp; Payment Processing Services</t>
+          <t>Fertilizers &amp; Agricultural Chemicals</t>
         </is>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>Brookfield, Wisconsin</t>
+          <t>Philadelphia, Pennsylvania</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2001-04-02</t>
+          <t>2009-08-19</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>0000798354</t>
+          <t>0000037785</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>1984</t>
+          <t>1883</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>FMC</t>
+          <t>F</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>FMC Corporation</t>
+          <t>Ford Motor Company</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>Fertilizers &amp; Agricultural Chemicals</t>
+          <t>Automobile Manufacturers</t>
         </is>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Philadelphia, Pennsylvania</t>
+          <t>Dearborn, Michigan</t>
         </is>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2009-08-19</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>0000037785</t>
+          <t>0000037996</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>1883</t>
+          <t>1903</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>FTNT</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Ford Motor Company</t>
+          <t>Fortinet</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
         <is>
-          <t>Automobile Manufacturers</t>
+          <t>Systems Software</t>
         </is>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>Dearborn, Michigan</t>
+          <t>Sunnyvale, California</t>
         </is>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2018-10-11</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>0000037996</t>
+          <t>0001262039</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>2000</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>FTNT</t>
+          <t>FTV</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Fortinet</t>
+          <t>Fortive</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>Systems Software</t>
+          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
         </is>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Sunnyvale, California</t>
+          <t>Everett, Washington</t>
         </is>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2018-10-11</t>
+          <t>2016-07-01</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>0001262039</t>
+          <t>0001659166</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>2000</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>FTV</t>
+          <t>FOXA</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Fortive</t>
+          <t>Fox Corporation (Class A)</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
+          <t>Broadcasting</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Everett, Washington</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2016-07-01</t>
+          <t>2019-03-04</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>0001659166</t>
+          <t>0001754301</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2019</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>FOXA</t>
+          <t>FOX</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Fox Corporation (Class A)</t>
+          <t>Fox Corporation (Class B)</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -9172,210 +9172,210 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>FOX</t>
+          <t>BEN</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Fox Corporation (Class B)</t>
+          <t>Franklin Templeton</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>Broadcasting</t>
+          <t>Asset Management &amp; Custody Banks</t>
         </is>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>San Mateo, California</t>
         </is>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2019-03-04</t>
+          <t>1998-04-30</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>0001754301</t>
+          <t>0000038777</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>1947</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>BEN</t>
+          <t>FCX</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Franklin Templeton</t>
+          <t>Freeport-McMoRan</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Asset Management &amp; Custody Banks</t>
+          <t>Copper</t>
         </is>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>San Mateo, California</t>
+          <t>Phoenix, Arizona</t>
         </is>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>1998-04-30</t>
+          <t>2011-07-01</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>0000038777</t>
+          <t>0000831259</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>1947</t>
+          <t>1912</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>FCX</t>
+          <t>GRMN</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Freeport-McMoRan</t>
+          <t>Garmin</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>Copper</t>
+          <t>Consumer Electronics</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
         <is>
-          <t>Phoenix, Arizona</t>
+          <t>Schaffhausen, Switzerland</t>
         </is>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2011-07-01</t>
+          <t>2012-12-12</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>0000831259</t>
+          <t>0001121788</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>1912</t>
+          <t>1989</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>GRMN</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Garmin</t>
+          <t>Gartner</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>Consumer Electronics</t>
+          <t>IT Consulting &amp; Other Services</t>
         </is>
       </c>
       <c r="E212" t="inlineStr">
         <is>
-          <t>Schaffhausen, Switzerland</t>
+          <t>Stamford, Connecticut</t>
         </is>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2012-12-12</t>
+          <t>2017-04-05</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>0001121788</t>
+          <t>0000749251</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1979</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Gartner</t>
+          <t>GE Aerospace</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>IT Consulting &amp; Other Services</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Stamford, Connecticut</t>
+          <t>Evendale, Ohio</t>
         </is>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2017-04-05</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>0000749251</t>
+          <t>0000040545</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1892</t>
         </is>
       </c>
     </row>
@@ -9424,96 +9424,96 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>GEN</t>
+          <t>GEV</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Gen Digital</t>
+          <t>GE Vernova</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Systems Software</t>
+          <t>Heavy Electrical Equipment</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Tempe, Arizona</t>
+          <t>Cambridge, Massachusetts</t>
         </is>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2003-03-25</t>
+          <t>2024-04-02</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>0000849399</t>
+          <t>0001996810</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>GNRC</t>
+          <t>GEN</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Generac</t>
+          <t>Gen Digital</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Electrical Components &amp; Equipment</t>
+          <t>Systems Software</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Waukesha, Wisconsin</t>
+          <t>Tempe, Arizona</t>
         </is>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2021-03-22</t>
+          <t>2003-03-25</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>0001474735</t>
+          <t>0000849399</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>1959</t>
+          <t>1982</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>GNRC</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>General Dynamics</t>
+          <t>Generac</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -9523,39 +9523,39 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Electrical Components &amp; Equipment</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Falls Church, Virginia</t>
+          <t>Waukesha, Wisconsin</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2021-03-22</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>0000040533</t>
+          <t>0001474735</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>1899</t>
+          <t>1959</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>General Electric</t>
+          <t>General Dynamics</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -9565,12 +9565,12 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Industrial Conglomerates</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Boston, Massachusetts</t>
+          <t>Falls Church, Virginia</t>
         </is>
       </c>
       <c r="F218" t="inlineStr">
@@ -9580,12 +9580,12 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>0000040545</t>
+          <t>0000040533</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>1892</t>
+          <t>1899</t>
         </is>
       </c>
     </row>
@@ -18160,96 +18160,96 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>SOLV</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Southern Company</t>
+          <t>Solventum</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Health Care Technology</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Atlanta, Georgia</t>
+          <t>Saint Paul, Minnesota</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>0000092122</t>
+          <t>0001964738</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>LUV</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Southwest Airlines</t>
+          <t>Southern Company</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Passenger Airlines</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Dallas, Texas</t>
+          <t>Atlanta, Georgia</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>1994-07-01</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>0000092380</t>
+          <t>0000092122</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1945</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>LUV</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Stanley Black &amp; Decker</t>
+          <t>Southwest Airlines</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -18259,207 +18259,207 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
+          <t>Passenger Airlines</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>New Britain, Connecticut</t>
+          <t>Dallas, Texas</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>1982-09-30</t>
+          <t>1994-07-01</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>0000093556</t>
+          <t>0000092380</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>1843</t>
+          <t>1967</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>SWK</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Starbucks</t>
+          <t>Stanley Black &amp; Decker</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>Seattle, Washington</t>
+          <t>New Britain, Connecticut</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>2000-06-07</t>
+          <t>1982-09-30</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>0000829224</t>
+          <t>0000093556</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1843</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>STT</t>
+          <t>SBUX</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>State Street Corporation</t>
+          <t>Starbucks</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Asset Management &amp; Custody Banks</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Boston, Massachusetts</t>
+          <t>Seattle, Washington</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>2003-03-14</t>
+          <t>2000-06-07</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>0000093751</t>
+          <t>0000829224</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>1792</t>
+          <t>1971</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>STLD</t>
+          <t>STT</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Steel Dynamics</t>
+          <t>State Street Corporation</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Asset Management &amp; Custody Banks</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Fort Wayne, Indiana</t>
+          <t>Boston, Massachusetts</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2003-03-14</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>0001022671</t>
+          <t>0000093751</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1792</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>STE</t>
+          <t>STLD</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Steris</t>
+          <t>Steel Dynamics</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Health Care Equipment</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Dublin, Ireland</t>
+          <t>Fort Wayne, Indiana</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>0001757898</t>
+          <t>0001022671</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1993</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>SYK</t>
+          <t>STE</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Stryker Corporation</t>
+          <t>Steris</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -18474,338 +18474,338 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Kalamazoo, Michigan</t>
+          <t>Dublin, Ireland</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>2000-12-12</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>0000310764</t>
+          <t>0001757898</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>1985</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>SYK</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Supermicro</t>
+          <t>Stryker Corporation</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Technology Hardware, Storage &amp; Peripherals</t>
+          <t>Health Care Equipment</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>San Jose, California</t>
+          <t>Kalamazoo, Michigan</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2000-12-12</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>0001375365</t>
+          <t>0000310764</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1941</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>SMCI</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Synchrony Financial</t>
+          <t>Supermicro</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Consumer Finance</t>
+          <t>Technology Hardware, Storage &amp; Peripherals</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>Stamford, Connecticut</t>
+          <t>San Jose, California</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>2015-11-18</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>0001601712</t>
+          <t>0001375365</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1993</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>SYF</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Synopsys</t>
+          <t>Synchrony Financial</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Consumer Finance</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Sunnyvale, California</t>
+          <t>Stamford, Connecticut</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>2017-03-16</t>
+          <t>2015-11-18</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>0000883241</t>
+          <t>0001601712</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>2003</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SYY</t>
+          <t>SNPS</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Sysco</t>
+          <t>Synopsys</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Food Distributors</t>
+          <t>Application Software</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Houston, Texas</t>
+          <t>Sunnyvale, California</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>1986-12-31</t>
+          <t>2017-03-16</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>0000096021</t>
+          <t>0000883241</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1986</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>SYY</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>T-Mobile US</t>
+          <t>Sysco</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Wireless Telecommunication Services</t>
+          <t>Food Distributors</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Bellevue, Washington</t>
+          <t>Houston, Texas</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>2019-07-15</t>
+          <t>1986-12-31</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>0001283699</t>
+          <t>0000096021</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1969</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>T. Rowe Price</t>
+          <t>T-Mobile US</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Asset Management &amp; Custody Banks</t>
+          <t>Wireless Telecommunication Services</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Baltimore, Maryland</t>
+          <t>Bellevue, Washington</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2019-07-15</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>0001113169</t>
+          <t>0001283699</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1994</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>TROW</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Take-Two Interactive</t>
+          <t>T. Rowe Price</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Interactive Home Entertainment</t>
+          <t>Asset Management &amp; Custody Banks</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>Baltimore, Maryland</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>2018-03-19</t>
+          <t>2019-07-29</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>0000946581</t>
+          <t>0001113169</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1937</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>TTWO</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Tapestry, Inc.</t>
+          <t>Take-Two Interactive</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Interactive Home Entertainment</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -18815,155 +18815,155 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>2004-09-01</t>
+          <t>2018-03-19</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>0001116132</t>
+          <t>0000946581</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1993</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>TRGP</t>
+          <t>TPR</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Targa Resources</t>
+          <t>Tapestry, Inc.</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Storage &amp; Transportation</t>
+          <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>Houston, Texas</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>2022-10-12</t>
+          <t>2004-09-01</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>0001389170</t>
+          <t>0001116132</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>TRGP</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Target Corporation</t>
+          <t>Targa Resources</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Consumer Staples Merchandise Retail</t>
+          <t>Oil &amp; Gas Storage &amp; Transportation</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Minneapolis, Minnesota</t>
+          <t>Houston, Texas</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>1976-12-31</t>
+          <t>2022-10-12</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>0000027419</t>
+          <t>0001389170</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>1902</t>
+          <t>2005</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>TGT</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>TE Connectivity</t>
+          <t>Target Corporation</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Electronic Manufacturing Services</t>
+          <t>Consumer Staples Merchandise Retail</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Schaffhausen, Switzerland</t>
+          <t>Minneapolis, Minnesota</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>2011-10-17</t>
+          <t>1976-12-31</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>0001385157</t>
+          <t>0000027419</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1902</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>TDY</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Teledyne Technologies</t>
+          <t>TE Connectivity</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -18973,333 +18973,333 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Electronic Equipment &amp; Instruments</t>
+          <t>Electronic Manufacturing Services</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Thousand Oaks, California</t>
+          <t>Schaffhausen, Switzerland</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>2020-06-22</t>
+          <t>2011-10-17</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>0001094285</t>
+          <t>0001385157</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>2007</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>TFX</t>
+          <t>TDY</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Teleflex</t>
+          <t>Teledyne Technologies</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Health Care Equipment</t>
+          <t>Electronic Equipment &amp; Instruments</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Wayne, Pennsylvania</t>
+          <t>Thousand Oaks, California</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>2019-01-18</t>
+          <t>2020-06-22</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>0000096943</t>
+          <t>0001094285</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1960</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>TFX</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Teradyne</t>
+          <t>Teleflex</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Semiconductor Materials &amp; Equipment</t>
+          <t>Health Care Equipment</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>North Reading, Massachusetts</t>
+          <t>Wayne, Pennsylvania</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>2020-09-21</t>
+          <t>2019-01-18</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>0000097210</t>
+          <t>0000096943</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1943</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Tesla, Inc.</t>
+          <t>Teradyne</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Automobile Manufacturers</t>
+          <t>Semiconductor Materials &amp; Equipment</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>Austin, Texas</t>
+          <t>North Reading, Massachusetts</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>2020-12-21</t>
+          <t>2020-09-21</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>0001318605</t>
+          <t>0000097210</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1960</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Texas Instruments</t>
+          <t>Tesla, Inc.</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Automobile Manufacturers</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Dallas, Texas</t>
+          <t>Austin, Texas</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>2001-03-12</t>
+          <t>2020-12-21</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>0000097476</t>
+          <t>0001318605</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>2003</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>TXN</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Textron</t>
+          <t>Texas Instruments</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Providence, Rhode Island</t>
+          <t>Dallas, Texas</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>1978-12-31</t>
+          <t>2001-03-12</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>0000217346</t>
+          <t>0000097476</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1930</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Thermo Fisher Scientific</t>
+          <t>Textron</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Waltham, Massachusetts</t>
+          <t>Providence, Rhode Island</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>2004-08-03</t>
+          <t>1978-12-31</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>0000097745</t>
+          <t>0000217346</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>2006 (1902)</t>
+          <t>1923</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>TMO</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>TJX Companies</t>
+          <t>Thermo Fisher Scientific</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Apparel Retail</t>
+          <t>Life Sciences Tools &amp; Services</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Framingham, Massachusetts</t>
+          <t>Waltham, Massachusetts</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>1985-09-30</t>
+          <t>2004-08-03</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>0000109198</t>
+          <t>0000097745</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>2006 (1902)</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>TJX</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Tractor Supply</t>
+          <t>TJX Companies</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -19309,81 +19309,81 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Other Specialty Retail</t>
+          <t>Apparel Retail</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Brentwood, Tennessee</t>
+          <t>Framingham, Massachusetts</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>2014-01-24</t>
+          <t>1985-09-30</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>0000916365</t>
+          <t>0000109198</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1987</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>TT</t>
+          <t>TSCO</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Trane Technologies</t>
+          <t>Tractor Supply</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Building Products</t>
+          <t>Other Specialty Retail</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Dublin, Ireland</t>
+          <t>Brentwood, Tennessee</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>2010-11-17</t>
+          <t>2014-01-24</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>0001466258</t>
+          <t>0000916365</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>1938</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>TT</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>TransDigm Group</t>
+          <t>Trane Technologies</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -19393,459 +19393,459 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Building Products</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Cleveland, Ohio</t>
+          <t>Dublin, Ireland</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>2016-06-03</t>
+          <t>2010-11-17</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>0001260221</t>
+          <t>0001466258</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1871</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>TDG</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Travelers Companies (The)</t>
+          <t>TransDigm Group</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Property &amp; Casualty Insurance</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>Cleveland, Ohio</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>2002-08-21</t>
+          <t>2016-06-03</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>0000086312</t>
+          <t>0001260221</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>1853</t>
+          <t>1993</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Trimble Inc.</t>
+          <t>Travelers Companies (The)</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Electronic Equipment &amp; Instruments</t>
+          <t>Property &amp; Casualty Insurance</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>Westminster, Colorado</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>2021-01-21</t>
+          <t>2002-08-21</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>0000864749</t>
+          <t>0000086312</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1853</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>TFC</t>
+          <t>TRMB</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Truist</t>
+          <t>Trimble Inc.</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Regional Banks</t>
+          <t>Electronic Equipment &amp; Instruments</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Charlotte, North Carolina</t>
+          <t>Westminster, Colorado</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>1997-12-04</t>
+          <t>2021-01-21</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>0000092230</t>
+          <t>0000864749</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>1872</t>
+          <t>1978</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>TFC</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Tyler Technologies</t>
+          <t>Truist</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Regional Banks</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Plano, Texas</t>
+          <t>Charlotte, North Carolina</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>2020-06-22</t>
+          <t>1997-12-04</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>0000860731</t>
+          <t>0000092230</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1872</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>TSN</t>
+          <t>TYL</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Tyson Foods</t>
+          <t>Tyler Technologies</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Packaged Foods &amp; Meats</t>
+          <t>Application Software</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Springdale, Arkansas</t>
+          <t>Plano, Texas</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>2005-08-10</t>
+          <t>2020-06-22</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>0000100493</t>
+          <t>0000860731</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1966</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>USB</t>
+          <t>TSN</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>U.S. Bank</t>
+          <t>Tyson Foods</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Diversified Banks</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Minneapolis, Minnesota</t>
+          <t>Springdale, Arkansas</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>1999-11-01</t>
+          <t>2005-08-10</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>0000036104</t>
+          <t>0000100493</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1935</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>USB</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Uber</t>
+          <t>U.S. Bank</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Passenger Ground Transportation</t>
+          <t>Diversified Banks</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>San Francisco, California</t>
+          <t>Minneapolis, Minnesota</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>1999-11-01</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>0001543151</t>
+          <t>0000036104</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1968</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>UBER</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>UDR, Inc.</t>
+          <t>Uber</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Multi-Family Residential REITs</t>
+          <t>Passenger Ground Transportation</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>Highlands Ranch, Colorado</t>
+          <t>San Francisco, California</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>2016-03-07</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>0000074208</t>
+          <t>0001543151</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>2009</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Ulta Beauty</t>
+          <t>UDR, Inc.</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Other Specialty Retail</t>
+          <t>Multi-Family Residential REITs</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Bolingbrook, Illinois</t>
+          <t>Highlands Ranch, Colorado</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>2016-04-18</t>
+          <t>2016-03-07</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>0001403568</t>
+          <t>0000074208</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1972</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>UNP</t>
+          <t>ULTA</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Union Pacific Corporation</t>
+          <t>Ulta Beauty</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Rail Transportation</t>
+          <t>Other Specialty Retail</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Omaha, Nebraska</t>
+          <t>Bolingbrook, Illinois</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2016-04-18</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>0000100885</t>
+          <t>0001403568</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>1990</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>UNP</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>United Airlines Holdings</t>
+          <t>Union Pacific Corporation</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -19855,39 +19855,39 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Passenger Airlines</t>
+          <t>Rail Transportation</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Chicago, Illinois</t>
+          <t>Omaha, Nebraska</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>2015-09-03</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>0000100517</t>
+          <t>0000100885</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1862</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>UAL</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>United Parcel Service</t>
+          <t>United Airlines Holdings</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -19897,39 +19897,39 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Air Freight &amp; Logistics</t>
+          <t>Passenger Airlines</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Sandy Springs, Georgia</t>
+          <t>Chicago, Illinois</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>2002-07-22</t>
+          <t>2015-09-03</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>0001090727</t>
+          <t>0000100517</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>1967</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>UPS</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>United Rentals</t>
+          <t>United Parcel Service</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -19939,81 +19939,81 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors</t>
+          <t>Air Freight &amp; Logistics</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Stamford, Connecticut</t>
+          <t>Sandy Springs, Georgia</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>2014-09-20</t>
+          <t>2002-07-22</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>0001067701</t>
+          <t>0001090727</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1907</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>URI</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>UnitedHealth Group</t>
+          <t>United Rentals</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Managed Health Care</t>
+          <t>Trading Companies &amp; Distributors</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Minnetonka, Minnesota</t>
+          <t>Stamford, Connecticut</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>1994-07-01</t>
+          <t>2014-09-20</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>0000731766</t>
+          <t>0001067701</t>
         </is>
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1997</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>Universal Health Services</t>
+          <t>UnitedHealth Group</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -20023,363 +20023,363 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Health Care Facilities</t>
+          <t>Managed Health Care</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>King of Prussia, Pennsylvania</t>
+          <t>Minnetonka, Minnesota</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>2014-09-20</t>
+          <t>1994-07-01</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>0000352915</t>
+          <t>0000731766</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1977</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>UHS</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Valero Energy</t>
+          <t>Universal Health Services</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+          <t>Health Care Facilities</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>San Antonio, Texas</t>
+          <t>King of Prussia, Pennsylvania</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>2002-12-20</t>
+          <t>2014-09-20</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>0001035002</t>
+          <t>0000352915</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1979</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Ventas</t>
+          <t>Valero Energy</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Health Care REITs</t>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>Chicago, Illinois</t>
+          <t>San Antonio, Texas</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>2009-03-04</t>
+          <t>2002-12-20</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>0000740260</t>
+          <t>0001035002</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>1980</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>VTR</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Veralto</t>
+          <t>Ventas</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Environmental &amp; Facilities Services</t>
+          <t>Health Care REITs</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Waltham, Massachusetts</t>
+          <t>Chicago, Illinois</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2009-03-04</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>0001967680</t>
+          <t>0000740260</t>
         </is>
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1998</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>VLTO</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Verisign</t>
+          <t>Veralto</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Internet Services &amp; Infrastructure</t>
+          <t>Environmental &amp; Facilities Services</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Dulles, Virginia</t>
+          <t>Waltham, Massachusetts</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>2006-02-01</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>0001014473</t>
+          <t>0001967680</t>
         </is>
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>VRSN</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Verisk</t>
+          <t>Verisign</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Research &amp; Consulting Services</t>
+          <t>Internet Services &amp; Infrastructure</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Jersey City, New Jersey</t>
+          <t>Dulles, Virginia</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>2015-10-08</t>
+          <t>2006-02-01</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>0001442145</t>
+          <t>0001014473</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1995</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>VRSK</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Verizon</t>
+          <t>Verisk</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Integrated Telecommunication Services</t>
+          <t>Research &amp; Consulting Services</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>Jersey City, New Jersey</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>1983-11-30</t>
+          <t>2015-10-08</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>0000732712</t>
+          <t>0001442145</t>
         </is>
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>1983 (1877)</t>
+          <t>1971</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>VRTX</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Vertex Pharmaceuticals</t>
+          <t>Verizon</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Integrated Telecommunication Services</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>Cambridge, Massachusetts</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>2013-09-23</t>
+          <t>1983-11-30</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>0000875320</t>
+          <t>0000732712</t>
         </is>
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1983 (1877)</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>VFC</t>
+          <t>VRTX</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>VF Corporation</t>
+          <t>Vertex Pharmaceuticals</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Denver, Colorado</t>
+          <t>Cambridge, Massachusetts</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>1979-06-30</t>
+          <t>2013-09-23</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>0000103379</t>
+          <t>0000875320</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>1899</t>
+          <t>1989</t>
         </is>
       </c>
     </row>

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -6509,7 +6509,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H504"/>
+  <dimension ref="A1:H503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16228,400 +16228,400 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>PXD</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Pioneer Natural Resources</t>
+          <t>PNC Financial Services</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D377" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Exploration &amp; Production</t>
+          <t>Regional Banks</t>
         </is>
       </c>
       <c r="E377" t="inlineStr">
         <is>
-          <t>Irving, Texas</t>
+          <t>Pittsburgh, Pennsylvania</t>
         </is>
       </c>
       <c r="F377" t="inlineStr">
         <is>
-          <t>2008-09-24</t>
+          <t>1988-04-30</t>
         </is>
       </c>
       <c r="G377" t="inlineStr">
         <is>
-          <t>0001038357</t>
+          <t>0000713676</t>
         </is>
       </c>
       <c r="H377" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1845</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>PNC</t>
+          <t>POOL</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>PNC Financial Services</t>
+          <t>Pool Corporation</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
         <is>
-          <t>Regional Banks</t>
+          <t>Distributors</t>
         </is>
       </c>
       <c r="E378" t="inlineStr">
         <is>
-          <t>Pittsburgh, Pennsylvania</t>
+          <t>Covington, Louisiana</t>
         </is>
       </c>
       <c r="F378" t="inlineStr">
         <is>
-          <t>1988-04-30</t>
+          <t>2020-10-07</t>
         </is>
       </c>
       <c r="G378" t="inlineStr">
         <is>
-          <t>0000713676</t>
+          <t>0000945841</t>
         </is>
       </c>
       <c r="H378" t="inlineStr">
         <is>
-          <t>1845</t>
+          <t>1993</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>POOL</t>
+          <t>PPG</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Pool Corporation</t>
+          <t>PPG Industries</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D379" t="inlineStr">
         <is>
-          <t>Distributors</t>
+          <t>Specialty Chemicals</t>
         </is>
       </c>
       <c r="E379" t="inlineStr">
         <is>
-          <t>Covington, Louisiana</t>
+          <t>Pittsburgh, Pennsylvania</t>
         </is>
       </c>
       <c r="F379" t="inlineStr">
         <is>
-          <t>2020-10-07</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G379" t="inlineStr">
         <is>
-          <t>0000945841</t>
+          <t>0000079879</t>
         </is>
       </c>
       <c r="H379" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1883</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>PPG</t>
+          <t>PPL</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>PPG Industries</t>
+          <t>PPL Corporation</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D380" t="inlineStr">
         <is>
-          <t>Specialty Chemicals</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E380" t="inlineStr">
         <is>
-          <t>Pittsburgh, Pennsylvania</t>
+          <t>Allentown, Pennsylvania</t>
         </is>
       </c>
       <c r="F380" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2001-10-01</t>
         </is>
       </c>
       <c r="G380" t="inlineStr">
         <is>
-          <t>0000079879</t>
+          <t>0000922224</t>
         </is>
       </c>
       <c r="H380" t="inlineStr">
         <is>
-          <t>1883</t>
+          <t>1920</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>PPL</t>
+          <t>PFG</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>PPL Corporation</t>
+          <t>Principal Financial Group</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D381" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Life &amp; Health Insurance</t>
         </is>
       </c>
       <c r="E381" t="inlineStr">
         <is>
-          <t>Allentown, Pennsylvania</t>
+          <t>Des Moines, Iowa</t>
         </is>
       </c>
       <c r="F381" t="inlineStr">
         <is>
-          <t>2001-10-01</t>
+          <t>2002-07-22</t>
         </is>
       </c>
       <c r="G381" t="inlineStr">
         <is>
-          <t>0000922224</t>
+          <t>0001126328</t>
         </is>
       </c>
       <c r="H381" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>1879</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>PFG</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Principal Financial Group</t>
+          <t>Procter &amp; Gamble</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D382" t="inlineStr">
         <is>
-          <t>Life &amp; Health Insurance</t>
+          <t>Personal Care Products</t>
         </is>
       </c>
       <c r="E382" t="inlineStr">
         <is>
-          <t>Des Moines, Iowa</t>
+          <t>Cincinnati, Ohio</t>
         </is>
       </c>
       <c r="F382" t="inlineStr">
         <is>
-          <t>2002-07-22</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G382" t="inlineStr">
         <is>
-          <t>0001126328</t>
+          <t>0000080424</t>
         </is>
       </c>
       <c r="H382" t="inlineStr">
         <is>
-          <t>1879</t>
+          <t>1837</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>PGR</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Procter &amp; Gamble</t>
+          <t>Progressive Corporation</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D383" t="inlineStr">
         <is>
-          <t>Personal Care Products</t>
+          <t>Property &amp; Casualty Insurance</t>
         </is>
       </c>
       <c r="E383" t="inlineStr">
         <is>
-          <t>Cincinnati, Ohio</t>
+          <t>Mayfield Village, Ohio</t>
         </is>
       </c>
       <c r="F383" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>1997-08-04</t>
         </is>
       </c>
       <c r="G383" t="inlineStr">
         <is>
-          <t>0000080424</t>
+          <t>0000080661</t>
         </is>
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>1837</t>
+          <t>1937</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>PGR</t>
+          <t>PLD</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Progressive Corporation</t>
+          <t>Prologis</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D384" t="inlineStr">
         <is>
-          <t>Property &amp; Casualty Insurance</t>
+          <t>Industrial REITs</t>
         </is>
       </c>
       <c r="E384" t="inlineStr">
         <is>
-          <t>Mayfield Village, Ohio</t>
+          <t>San Francisco, California</t>
         </is>
       </c>
       <c r="F384" t="inlineStr">
         <is>
-          <t>1997-08-04</t>
+          <t>2003-07-17</t>
         </is>
       </c>
       <c r="G384" t="inlineStr">
         <is>
-          <t>0000080661</t>
+          <t>0001045609</t>
         </is>
       </c>
       <c r="H384" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1983</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>PRU</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Prologis</t>
+          <t>Prudential Financial</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D385" t="inlineStr">
         <is>
-          <t>Industrial REITs</t>
+          <t>Life &amp; Health Insurance</t>
         </is>
       </c>
       <c r="E385" t="inlineStr">
         <is>
-          <t>San Francisco, California</t>
+          <t>Newark, New Jersey</t>
         </is>
       </c>
       <c r="F385" t="inlineStr">
         <is>
-          <t>2003-07-17</t>
+          <t>2002-07-22</t>
         </is>
       </c>
       <c r="G385" t="inlineStr">
         <is>
-          <t>0001045609</t>
+          <t>0001137774</t>
         </is>
       </c>
       <c r="H385" t="inlineStr">
         <is>
-          <t>1983</t>
+          <t>1875</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>PRU</t>
+          <t>PEG</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Prudential Financial</t>
+          <t>Public Service Enterprise Group</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D386" t="inlineStr">
         <is>
-          <t>Life &amp; Health Insurance</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E386" t="inlineStr">
@@ -16631,348 +16631,348 @@
       </c>
       <c r="F386" t="inlineStr">
         <is>
-          <t>2002-07-22</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G386" t="inlineStr">
         <is>
-          <t>0001137774</t>
+          <t>0000788784</t>
         </is>
       </c>
       <c r="H386" t="inlineStr">
         <is>
-          <t>1875</t>
+          <t>1903</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>PEG</t>
+          <t>PTC</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Public Service Enterprise Group</t>
+          <t>PTC</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D387" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Application Software</t>
         </is>
       </c>
       <c r="E387" t="inlineStr">
         <is>
-          <t>Newark, New Jersey</t>
+          <t>Boston, Massachusetts</t>
         </is>
       </c>
       <c r="F387" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2021-04-20</t>
         </is>
       </c>
       <c r="G387" t="inlineStr">
         <is>
-          <t>0000788784</t>
+          <t>0000857005</t>
         </is>
       </c>
       <c r="H387" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>1985</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>PSA</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>PTC</t>
+          <t>Public Storage</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D388" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Self-Storage REITs</t>
         </is>
       </c>
       <c r="E388" t="inlineStr">
         <is>
-          <t>Boston, Massachusetts</t>
+          <t>Glendale, California</t>
         </is>
       </c>
       <c r="F388" t="inlineStr">
         <is>
-          <t>2021-04-20</t>
+          <t>2005-08-19</t>
         </is>
       </c>
       <c r="G388" t="inlineStr">
         <is>
-          <t>0000857005</t>
+          <t>0001393311</t>
         </is>
       </c>
       <c r="H388" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1972</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>PSA</t>
+          <t>PHM</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Public Storage</t>
+          <t>PulteGroup</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D389" t="inlineStr">
         <is>
-          <t>Self-Storage REITs</t>
+          <t>Homebuilding</t>
         </is>
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Glendale, California</t>
+          <t>Atlanta, Georgia</t>
         </is>
       </c>
       <c r="F389" t="inlineStr">
         <is>
-          <t>2005-08-19</t>
+          <t>1984-04-30</t>
         </is>
       </c>
       <c r="G389" t="inlineStr">
         <is>
-          <t>0001393311</t>
+          <t>0000822416</t>
         </is>
       </c>
       <c r="H389" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1956</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>PHM</t>
+          <t>QRVO</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>PulteGroup</t>
+          <t>Qorvo</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D390" t="inlineStr">
         <is>
-          <t>Homebuilding</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="E390" t="inlineStr">
         <is>
-          <t>Atlanta, Georgia</t>
+          <t>Greensboro, North Carolina</t>
         </is>
       </c>
       <c r="F390" t="inlineStr">
         <is>
-          <t>1984-04-30</t>
+          <t>2015-06-11</t>
         </is>
       </c>
       <c r="G390" t="inlineStr">
         <is>
-          <t>0000822416</t>
+          <t>0001604778</t>
         </is>
       </c>
       <c r="H390" t="inlineStr">
         <is>
-          <t>1956</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>QRVO</t>
+          <t>PWR</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Qorvo</t>
+          <t>Quanta Services</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D391" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Construction &amp; Engineering</t>
         </is>
       </c>
       <c r="E391" t="inlineStr">
         <is>
-          <t>Greensboro, North Carolina</t>
+          <t>Houston, Texas</t>
         </is>
       </c>
       <c r="F391" t="inlineStr">
         <is>
-          <t>2015-06-11</t>
+          <t>2009-07-01</t>
         </is>
       </c>
       <c r="G391" t="inlineStr">
         <is>
-          <t>0001604778</t>
+          <t>0001050915</t>
         </is>
       </c>
       <c r="H391" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1997</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>PWR</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Quanta Services</t>
+          <t>Qualcomm</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D392" t="inlineStr">
         <is>
-          <t>Construction &amp; Engineering</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="E392" t="inlineStr">
         <is>
-          <t>Houston, Texas</t>
+          <t>San Diego, California</t>
         </is>
       </c>
       <c r="F392" t="inlineStr">
         <is>
-          <t>2009-07-01</t>
+          <t>1999-07-22</t>
         </is>
       </c>
       <c r="G392" t="inlineStr">
         <is>
-          <t>0001050915</t>
+          <t>0000804328</t>
         </is>
       </c>
       <c r="H392" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1985</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>DGX</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Qualcomm</t>
+          <t>Quest Diagnostics</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D393" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Health Care Services</t>
         </is>
       </c>
       <c r="E393" t="inlineStr">
         <is>
-          <t>San Diego, California</t>
+          <t>Secaucus, New Jersey</t>
         </is>
       </c>
       <c r="F393" t="inlineStr">
         <is>
-          <t>1999-07-22</t>
+          <t>2002-12-12</t>
         </is>
       </c>
       <c r="G393" t="inlineStr">
         <is>
-          <t>0000804328</t>
+          <t>0001022079</t>
         </is>
       </c>
       <c r="H393" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1967</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>DGX</t>
+          <t>RL</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Quest Diagnostics</t>
+          <t>Ralph Lauren Corporation</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D394" t="inlineStr">
         <is>
-          <t>Health Care Services</t>
+          <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
       <c r="E394" t="inlineStr">
         <is>
-          <t>Secaucus, New Jersey</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F394" t="inlineStr">
         <is>
-          <t>2002-12-12</t>
+          <t>2007-02-02</t>
         </is>
       </c>
       <c r="G394" t="inlineStr">
         <is>
-          <t>0001022079</t>
+          <t>0001037038</t>
         </is>
       </c>
       <c r="H394" t="inlineStr">
@@ -16984,138 +16984,138 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>RL</t>
+          <t>RJF</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Ralph Lauren Corporation</t>
+          <t>Raymond James</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D395" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Investment Banking &amp; Brokerage</t>
         </is>
       </c>
       <c r="E395" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>St. Petersburg, Florida</t>
         </is>
       </c>
       <c r="F395" t="inlineStr">
         <is>
-          <t>2007-02-02</t>
+          <t>2017-03-20</t>
         </is>
       </c>
       <c r="G395" t="inlineStr">
         <is>
-          <t>0001037038</t>
+          <t>0000720005</t>
         </is>
       </c>
       <c r="H395" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1962</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>RJF</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Raymond James</t>
+          <t>RTX Corporation</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D396" t="inlineStr">
         <is>
-          <t>Investment Banking &amp; Brokerage</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="E396" t="inlineStr">
         <is>
-          <t>St. Petersburg, Florida</t>
+          <t>Waltham, Massachusetts</t>
         </is>
       </c>
       <c r="F396" t="inlineStr">
         <is>
-          <t>2017-03-20</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G396" t="inlineStr">
         <is>
-          <t>0000720005</t>
+          <t>0000101829</t>
         </is>
       </c>
       <c r="H396" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1922</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>RTX</t>
+          <t>O</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>RTX Corporation</t>
+          <t>Realty Income</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D397" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Retail REITs</t>
         </is>
       </c>
       <c r="E397" t="inlineStr">
         <is>
-          <t>Waltham, Massachusetts</t>
+          <t>San Diego, California</t>
         </is>
       </c>
       <c r="F397" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2015-04-07</t>
         </is>
       </c>
       <c r="G397" t="inlineStr">
         <is>
-          <t>0000101829</t>
+          <t>0000726728</t>
         </is>
       </c>
       <c r="H397" t="inlineStr">
         <is>
-          <t>1922</t>
+          <t>1969</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>REG</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Realty Income</t>
+          <t>Regency Centers</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -17130,202 +17130,202 @@
       </c>
       <c r="E398" t="inlineStr">
         <is>
-          <t>San Diego, California</t>
+          <t>Jacksonville, Florida</t>
         </is>
       </c>
       <c r="F398" t="inlineStr">
         <is>
-          <t>2015-04-07</t>
+          <t>2017-03-02</t>
         </is>
       </c>
       <c r="G398" t="inlineStr">
         <is>
-          <t>0000726728</t>
+          <t>0000910606</t>
         </is>
       </c>
       <c r="H398" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1963</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>REG</t>
+          <t>REGN</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Regency Centers</t>
+          <t>Regeneron</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D399" t="inlineStr">
         <is>
-          <t>Retail REITs</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="E399" t="inlineStr">
         <is>
-          <t>Jacksonville, Florida</t>
+          <t>Tarrytown, New York</t>
         </is>
       </c>
       <c r="F399" t="inlineStr">
         <is>
-          <t>2017-03-02</t>
+          <t>2013-05-01</t>
         </is>
       </c>
       <c r="G399" t="inlineStr">
         <is>
-          <t>0000910606</t>
+          <t>0000872589</t>
         </is>
       </c>
       <c r="H399" t="inlineStr">
         <is>
-          <t>1963</t>
+          <t>1988</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>REGN</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>Regeneron</t>
+          <t>Regions Financial Corporation</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D400" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Regional Banks</t>
         </is>
       </c>
       <c r="E400" t="inlineStr">
         <is>
-          <t>Tarrytown, New York</t>
+          <t>Birmingham, Alabama</t>
         </is>
       </c>
       <c r="F400" t="inlineStr">
         <is>
-          <t>2013-05-01</t>
+          <t>1998-08-28</t>
         </is>
       </c>
       <c r="G400" t="inlineStr">
         <is>
-          <t>0000872589</t>
+          <t>0001281761</t>
         </is>
       </c>
       <c r="H400" t="inlineStr">
         <is>
-          <t>1988</t>
+          <t>1971</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>RSG</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Regions Financial Corporation</t>
+          <t>Republic Services</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D401" t="inlineStr">
         <is>
-          <t>Regional Banks</t>
+          <t>Environmental &amp; Facilities Services</t>
         </is>
       </c>
       <c r="E401" t="inlineStr">
         <is>
-          <t>Birmingham, Alabama</t>
+          <t>Phoenix, Arizona</t>
         </is>
       </c>
       <c r="F401" t="inlineStr">
         <is>
-          <t>1998-08-28</t>
+          <t>2008-12-05</t>
         </is>
       </c>
       <c r="G401" t="inlineStr">
         <is>
-          <t>0001281761</t>
+          <t>0001060391</t>
         </is>
       </c>
       <c r="H401" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1998 (1981)</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>RSG</t>
+          <t>RMD</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>Republic Services</t>
+          <t>ResMed</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D402" t="inlineStr">
         <is>
-          <t>Environmental &amp; Facilities Services</t>
+          <t>Health Care Equipment</t>
         </is>
       </c>
       <c r="E402" t="inlineStr">
         <is>
-          <t>Phoenix, Arizona</t>
+          <t>San Diego, California</t>
         </is>
       </c>
       <c r="F402" t="inlineStr">
         <is>
-          <t>2008-12-05</t>
+          <t>2017-07-26</t>
         </is>
       </c>
       <c r="G402" t="inlineStr">
         <is>
-          <t>0001060391</t>
+          <t>0000943819</t>
         </is>
       </c>
       <c r="H402" t="inlineStr">
         <is>
-          <t>1998 (1981)</t>
+          <t>1989</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>RMD</t>
+          <t>RVTY</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>ResMed</t>
+          <t>Revvity</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -17340,76 +17340,76 @@
       </c>
       <c r="E403" t="inlineStr">
         <is>
-          <t>San Diego, California</t>
+          <t>Waltham, Massachusetts</t>
         </is>
       </c>
       <c r="F403" t="inlineStr">
         <is>
-          <t>2017-07-26</t>
+          <t>1985-05-31</t>
         </is>
       </c>
       <c r="G403" t="inlineStr">
         <is>
-          <t>0000943819</t>
+          <t>0000031791</t>
         </is>
       </c>
       <c r="H403" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1937</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>RVTY</t>
+          <t>RHI</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Revvity</t>
+          <t>Robert Half</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D404" t="inlineStr">
         <is>
-          <t>Health Care Equipment</t>
+          <t>Human Resource &amp; Employment Services</t>
         </is>
       </c>
       <c r="E404" t="inlineStr">
         <is>
-          <t>Waltham, Massachusetts</t>
+          <t>Menlo Park, California</t>
         </is>
       </c>
       <c r="F404" t="inlineStr">
         <is>
-          <t>1985-05-31</t>
+          <t>2000-12-05</t>
         </is>
       </c>
       <c r="G404" t="inlineStr">
         <is>
-          <t>0000031791</t>
+          <t>0000315213</t>
         </is>
       </c>
       <c r="H404" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1948</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>RHI</t>
+          <t>ROK</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Robert Half</t>
+          <t>Rockwell Automation</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -17419,39 +17419,39 @@
       </c>
       <c r="D405" t="inlineStr">
         <is>
-          <t>Human Resource &amp; Employment Services</t>
+          <t>Electrical Components &amp; Equipment</t>
         </is>
       </c>
       <c r="E405" t="inlineStr">
         <is>
-          <t>Menlo Park, California</t>
+          <t>Milwaukee, Wisconsin</t>
         </is>
       </c>
       <c r="F405" t="inlineStr">
         <is>
-          <t>2000-12-05</t>
+          <t>2000-03-12</t>
         </is>
       </c>
       <c r="G405" t="inlineStr">
         <is>
-          <t>0000315213</t>
+          <t>0001024478</t>
         </is>
       </c>
       <c r="H405" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1903</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>ROK</t>
+          <t>ROL</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Rockwell Automation</t>
+          <t>Rollins, Inc.</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -17461,123 +17461,123 @@
       </c>
       <c r="D406" t="inlineStr">
         <is>
-          <t>Electrical Components &amp; Equipment</t>
+          <t>Environmental &amp; Facilities Services</t>
         </is>
       </c>
       <c r="E406" t="inlineStr">
         <is>
-          <t>Milwaukee, Wisconsin</t>
+          <t>Atlanta, Georgia</t>
         </is>
       </c>
       <c r="F406" t="inlineStr">
         <is>
-          <t>2000-03-12</t>
+          <t>2018-10-01</t>
         </is>
       </c>
       <c r="G406" t="inlineStr">
         <is>
-          <t>0001024478</t>
+          <t>0000084839</t>
         </is>
       </c>
       <c r="H406" t="inlineStr">
         <is>
-          <t>1903</t>
+          <t>1948</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>ROL</t>
+          <t>ROP</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Rollins, Inc.</t>
+          <t>Roper Technologies</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D407" t="inlineStr">
         <is>
-          <t>Environmental &amp; Facilities Services</t>
+          <t>Electronic Equipment &amp; Instruments</t>
         </is>
       </c>
       <c r="E407" t="inlineStr">
         <is>
-          <t>Atlanta, Georgia</t>
+          <t>Sarasota, Florida</t>
         </is>
       </c>
       <c r="F407" t="inlineStr">
         <is>
-          <t>2018-10-01</t>
+          <t>2009-12-23</t>
         </is>
       </c>
       <c r="G407" t="inlineStr">
         <is>
-          <t>0000084839</t>
+          <t>0000882835</t>
         </is>
       </c>
       <c r="H407" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1981</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>ROP</t>
+          <t>ROST</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Roper Technologies</t>
+          <t>Ross Stores</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D408" t="inlineStr">
         <is>
-          <t>Electronic Equipment &amp; Instruments</t>
+          <t>Apparel Retail</t>
         </is>
       </c>
       <c r="E408" t="inlineStr">
         <is>
-          <t>Sarasota, Florida</t>
+          <t>Dublin, California</t>
         </is>
       </c>
       <c r="F408" t="inlineStr">
         <is>
-          <t>2009-12-23</t>
+          <t>2009-12-21</t>
         </is>
       </c>
       <c r="G408" t="inlineStr">
         <is>
-          <t>0000882835</t>
+          <t>0000745732</t>
         </is>
       </c>
       <c r="H408" t="inlineStr">
         <is>
-          <t>1981</t>
+          <t>1982</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>ROST</t>
+          <t>RCL</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Ross Stores</t>
+          <t>Royal Caribbean Group</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
@@ -17587,669 +17587,669 @@
       </c>
       <c r="D409" t="inlineStr">
         <is>
-          <t>Apparel Retail</t>
+          <t>Hotels, Resorts &amp; Cruise Lines</t>
         </is>
       </c>
       <c r="E409" t="inlineStr">
         <is>
-          <t>Dublin, California</t>
+          <t>Miami, Florida</t>
         </is>
       </c>
       <c r="F409" t="inlineStr">
         <is>
-          <t>2009-12-21</t>
+          <t>2014-12-05</t>
         </is>
       </c>
       <c r="G409" t="inlineStr">
         <is>
-          <t>0000745732</t>
+          <t>0000884887</t>
         </is>
       </c>
       <c r="H409" t="inlineStr">
         <is>
-          <t>1982</t>
+          <t>1997</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>RCL</t>
+          <t>SPGI</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Royal Caribbean Group</t>
+          <t>S&amp;P Global</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D410" t="inlineStr">
         <is>
-          <t>Hotels, Resorts &amp; Cruise Lines</t>
+          <t>Financial Exchanges &amp; Data</t>
         </is>
       </c>
       <c r="E410" t="inlineStr">
         <is>
-          <t>Miami, Florida</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F410" t="inlineStr">
         <is>
-          <t>2014-12-05</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G410" t="inlineStr">
         <is>
-          <t>0000884887</t>
+          <t>0000064040</t>
         </is>
       </c>
       <c r="H410" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1917</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>SPGI</t>
+          <t>CRM</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>S&amp;P Global</t>
+          <t>Salesforce</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D411" t="inlineStr">
         <is>
-          <t>Financial Exchanges &amp; Data</t>
+          <t>Application Software</t>
         </is>
       </c>
       <c r="E411" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>San Francisco, California</t>
         </is>
       </c>
       <c r="F411" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2008-09-15</t>
         </is>
       </c>
       <c r="G411" t="inlineStr">
         <is>
-          <t>0000064040</t>
+          <t>0001108524</t>
         </is>
       </c>
       <c r="H411" t="inlineStr">
         <is>
-          <t>1917</t>
+          <t>1999</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>CRM</t>
+          <t>SBAC</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Salesforce</t>
+          <t>SBA Communications</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D412" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Telecom Tower REITs</t>
         </is>
       </c>
       <c r="E412" t="inlineStr">
         <is>
-          <t>San Francisco, California</t>
+          <t>Boca Raton, Florida</t>
         </is>
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>2008-09-15</t>
+          <t>2017-09-01</t>
         </is>
       </c>
       <c r="G412" t="inlineStr">
         <is>
-          <t>0001108524</t>
+          <t>0001034054</t>
         </is>
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>1999</t>
+          <t>1989</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>SBAC</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>SBA Communications</t>
+          <t>Schlumberger</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D413" t="inlineStr">
         <is>
-          <t>Telecom Tower REITs</t>
+          <t>Oil &amp; Gas Equipment &amp; Services</t>
         </is>
       </c>
       <c r="E413" t="inlineStr">
         <is>
-          <t>Boca Raton, Florida</t>
+          <t>Houston, Texas</t>
         </is>
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>2017-09-01</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G413" t="inlineStr">
         <is>
-          <t>0001034054</t>
+          <t>0000087347</t>
         </is>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1926</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Schlumberger</t>
+          <t>Seagate Technology</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D414" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Equipment &amp; Services</t>
+          <t>Technology Hardware, Storage &amp; Peripherals</t>
         </is>
       </c>
       <c r="E414" t="inlineStr">
         <is>
-          <t>Houston, Texas</t>
+          <t>Dublin, Ireland</t>
         </is>
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2012-07-02</t>
         </is>
       </c>
       <c r="G414" t="inlineStr">
         <is>
-          <t>0000087347</t>
+          <t>0001137789</t>
         </is>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>1926</t>
+          <t>1979</t>
         </is>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>SRE</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Seagate Technology</t>
+          <t>Sempra Energy</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D415" t="inlineStr">
         <is>
-          <t>Technology Hardware, Storage &amp; Peripherals</t>
+          <t>Multi-Utilities</t>
         </is>
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Dublin, Ireland</t>
+          <t>San Diego, California</t>
         </is>
       </c>
       <c r="F415" t="inlineStr">
         <is>
-          <t>2012-07-02</t>
+          <t>2017-03-17</t>
         </is>
       </c>
       <c r="G415" t="inlineStr">
         <is>
-          <t>0001137789</t>
+          <t>0001032208</t>
         </is>
       </c>
       <c r="H415" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1998</t>
         </is>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>SRE</t>
+          <t>NOW</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Sempra Energy</t>
+          <t>ServiceNow</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D416" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Systems Software</t>
         </is>
       </c>
       <c r="E416" t="inlineStr">
         <is>
-          <t>San Diego, California</t>
+          <t>Santa Clara, California</t>
         </is>
       </c>
       <c r="F416" t="inlineStr">
         <is>
-          <t>2017-03-17</t>
+          <t>2019-11-21</t>
         </is>
       </c>
       <c r="G416" t="inlineStr">
         <is>
-          <t>0001032208</t>
+          <t>0001373715</t>
         </is>
       </c>
       <c r="H416" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2003</t>
         </is>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>NOW</t>
+          <t>SHW</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>ServiceNow</t>
+          <t>Sherwin-Williams</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D417" t="inlineStr">
         <is>
-          <t>Systems Software</t>
+          <t>Specialty Chemicals</t>
         </is>
       </c>
       <c r="E417" t="inlineStr">
         <is>
-          <t>Santa Clara, California</t>
+          <t>Cleveland, Ohio</t>
         </is>
       </c>
       <c r="F417" t="inlineStr">
         <is>
-          <t>2019-11-21</t>
+          <t>1964-06-30</t>
         </is>
       </c>
       <c r="G417" t="inlineStr">
         <is>
-          <t>0001373715</t>
+          <t>0000089800</t>
         </is>
       </c>
       <c r="H417" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1866</t>
         </is>
       </c>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>SHW</t>
+          <t>SPG</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Sherwin-Williams</t>
+          <t>Simon Property Group</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D418" t="inlineStr">
         <is>
-          <t>Specialty Chemicals</t>
+          <t>Retail REITs</t>
         </is>
       </c>
       <c r="E418" t="inlineStr">
         <is>
-          <t>Cleveland, Ohio</t>
+          <t>Indianapolis, Indiana</t>
         </is>
       </c>
       <c r="F418" t="inlineStr">
         <is>
-          <t>1964-06-30</t>
+          <t>2002-06-26</t>
         </is>
       </c>
       <c r="G418" t="inlineStr">
         <is>
-          <t>0000089800</t>
+          <t>0001063761</t>
         </is>
       </c>
       <c r="H418" t="inlineStr">
         <is>
-          <t>1866</t>
+          <t>2003</t>
         </is>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>SPG</t>
+          <t>SWKS</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Simon Property Group</t>
+          <t>Skyworks Solutions</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D419" t="inlineStr">
         <is>
-          <t>Retail REITs</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="E419" t="inlineStr">
         <is>
-          <t>Indianapolis, Indiana</t>
+          <t>Irvine, California</t>
         </is>
       </c>
       <c r="F419" t="inlineStr">
         <is>
-          <t>2002-06-26</t>
+          <t>2015-03-12</t>
         </is>
       </c>
       <c r="G419" t="inlineStr">
         <is>
-          <t>0001063761</t>
+          <t>0000004127</t>
         </is>
       </c>
       <c r="H419" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>2002</t>
         </is>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>SWKS</t>
+          <t>SJM</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Skyworks Solutions</t>
+          <t>J.M. Smucker Company (The)</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D420" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
       <c r="E420" t="inlineStr">
         <is>
-          <t>Irvine, California</t>
+          <t>Orrville, Ohio</t>
         </is>
       </c>
       <c r="F420" t="inlineStr">
         <is>
-          <t>2015-03-12</t>
+          <t>2008-11-06</t>
         </is>
       </c>
       <c r="G420" t="inlineStr">
         <is>
-          <t>0000004127</t>
+          <t>0000091419</t>
         </is>
       </c>
       <c r="H420" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1897</t>
         </is>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>SJM</t>
+          <t>SNA</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>J.M. Smucker Company (The)</t>
+          <t>Snap-on</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D421" t="inlineStr">
         <is>
-          <t>Packaged Foods &amp; Meats</t>
+          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
         </is>
       </c>
       <c r="E421" t="inlineStr">
         <is>
-          <t>Orrville, Ohio</t>
+          <t>Kenosha, Wisconsin</t>
         </is>
       </c>
       <c r="F421" t="inlineStr">
         <is>
-          <t>2008-11-06</t>
+          <t>1982-09-30</t>
         </is>
       </c>
       <c r="G421" t="inlineStr">
         <is>
-          <t>0000091419</t>
+          <t>0000091440</t>
         </is>
       </c>
       <c r="H421" t="inlineStr">
         <is>
-          <t>1897</t>
+          <t>1920</t>
         </is>
       </c>
     </row>
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>SNA</t>
+          <t>SOLV</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Snap-on</t>
+          <t>Solventum</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D422" t="inlineStr">
         <is>
-          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
+          <t>Health Care Technology</t>
         </is>
       </c>
       <c r="E422" t="inlineStr">
         <is>
-          <t>Kenosha, Wisconsin</t>
+          <t>Saint Paul, Minnesota</t>
         </is>
       </c>
       <c r="F422" t="inlineStr">
         <is>
-          <t>1982-09-30</t>
+          <t>2024-04-01</t>
         </is>
       </c>
       <c r="G422" t="inlineStr">
         <is>
-          <t>0000091440</t>
+          <t>0001964738</t>
         </is>
       </c>
       <c r="H422" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>SOLV</t>
+          <t>SO</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Solventum</t>
+          <t>Southern Company</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D423" t="inlineStr">
         <is>
-          <t>Health Care Technology</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E423" t="inlineStr">
         <is>
-          <t>Saint Paul, Minnesota</t>
+          <t>Atlanta, Georgia</t>
         </is>
       </c>
       <c r="F423" t="inlineStr">
         <is>
-          <t>2024-04-01</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G423" t="inlineStr">
         <is>
-          <t>0001964738</t>
+          <t>0000092122</t>
         </is>
       </c>
       <c r="H423" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1945</t>
         </is>
       </c>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>SO</t>
+          <t>LUV</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Southern Company</t>
+          <t>Southwest Airlines</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D424" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Passenger Airlines</t>
         </is>
       </c>
       <c r="E424" t="inlineStr">
         <is>
-          <t>Atlanta, Georgia</t>
+          <t>Dallas, Texas</t>
         </is>
       </c>
       <c r="F424" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>1994-07-01</t>
         </is>
       </c>
       <c r="G424" t="inlineStr">
         <is>
-          <t>0000092122</t>
+          <t>0000092380</t>
         </is>
       </c>
       <c r="H424" t="inlineStr">
         <is>
-          <t>1945</t>
+          <t>1967</t>
         </is>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>LUV</t>
+          <t>SWK</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>Southwest Airlines</t>
+          <t>Stanley Black &amp; Decker</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
@@ -18259,207 +18259,207 @@
       </c>
       <c r="D425" t="inlineStr">
         <is>
-          <t>Passenger Airlines</t>
+          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
         </is>
       </c>
       <c r="E425" t="inlineStr">
         <is>
-          <t>Dallas, Texas</t>
+          <t>New Britain, Connecticut</t>
         </is>
       </c>
       <c r="F425" t="inlineStr">
         <is>
-          <t>1994-07-01</t>
+          <t>1982-09-30</t>
         </is>
       </c>
       <c r="G425" t="inlineStr">
         <is>
-          <t>0000092380</t>
+          <t>0000093556</t>
         </is>
       </c>
       <c r="H425" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1843</t>
         </is>
       </c>
     </row>
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>SWK</t>
+          <t>SBUX</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>Stanley Black &amp; Decker</t>
+          <t>Starbucks</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D426" t="inlineStr">
         <is>
-          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="E426" t="inlineStr">
         <is>
-          <t>New Britain, Connecticut</t>
+          <t>Seattle, Washington</t>
         </is>
       </c>
       <c r="F426" t="inlineStr">
         <is>
-          <t>1982-09-30</t>
+          <t>2000-06-07</t>
         </is>
       </c>
       <c r="G426" t="inlineStr">
         <is>
-          <t>0000093556</t>
+          <t>0000829224</t>
         </is>
       </c>
       <c r="H426" t="inlineStr">
         <is>
-          <t>1843</t>
+          <t>1971</t>
         </is>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>STT</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>Starbucks</t>
+          <t>State Street Corporation</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D427" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Asset Management &amp; Custody Banks</t>
         </is>
       </c>
       <c r="E427" t="inlineStr">
         <is>
-          <t>Seattle, Washington</t>
+          <t>Boston, Massachusetts</t>
         </is>
       </c>
       <c r="F427" t="inlineStr">
         <is>
-          <t>2000-06-07</t>
+          <t>2003-03-14</t>
         </is>
       </c>
       <c r="G427" t="inlineStr">
         <is>
-          <t>0000829224</t>
+          <t>0000093751</t>
         </is>
       </c>
       <c r="H427" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1792</t>
         </is>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>STT</t>
+          <t>STLD</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>State Street Corporation</t>
+          <t>Steel Dynamics</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D428" t="inlineStr">
         <is>
-          <t>Asset Management &amp; Custody Banks</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E428" t="inlineStr">
         <is>
-          <t>Boston, Massachusetts</t>
+          <t>Fort Wayne, Indiana</t>
         </is>
       </c>
       <c r="F428" t="inlineStr">
         <is>
-          <t>2003-03-14</t>
+          <t>2022-12-22</t>
         </is>
       </c>
       <c r="G428" t="inlineStr">
         <is>
-          <t>0000093751</t>
+          <t>0001022671</t>
         </is>
       </c>
       <c r="H428" t="inlineStr">
         <is>
-          <t>1792</t>
+          <t>1993</t>
         </is>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>STLD</t>
+          <t>STE</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>Steel Dynamics</t>
+          <t>Steris</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D429" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Health Care Equipment</t>
         </is>
       </c>
       <c r="E429" t="inlineStr">
         <is>
-          <t>Fort Wayne, Indiana</t>
+          <t>Dublin, Ireland</t>
         </is>
       </c>
       <c r="F429" t="inlineStr">
         <is>
-          <t>2022-12-22</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="G429" t="inlineStr">
         <is>
-          <t>0001022671</t>
+          <t>0001757898</t>
         </is>
       </c>
       <c r="H429" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1985</t>
         </is>
       </c>
     </row>
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>STE</t>
+          <t>SYK</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Steris</t>
+          <t>Stryker Corporation</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
@@ -18474,338 +18474,338 @@
       </c>
       <c r="E430" t="inlineStr">
         <is>
-          <t>Dublin, Ireland</t>
+          <t>Kalamazoo, Michigan</t>
         </is>
       </c>
       <c r="F430" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2000-12-12</t>
         </is>
       </c>
       <c r="G430" t="inlineStr">
         <is>
-          <t>0001757898</t>
+          <t>0000310764</t>
         </is>
       </c>
       <c r="H430" t="inlineStr">
         <is>
-          <t>1985</t>
+          <t>1941</t>
         </is>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>SYK</t>
+          <t>SMCI</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Stryker Corporation</t>
+          <t>Supermicro</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D431" t="inlineStr">
         <is>
-          <t>Health Care Equipment</t>
+          <t>Technology Hardware, Storage &amp; Peripherals</t>
         </is>
       </c>
       <c r="E431" t="inlineStr">
         <is>
-          <t>Kalamazoo, Michigan</t>
+          <t>San Jose, California</t>
         </is>
       </c>
       <c r="F431" t="inlineStr">
         <is>
-          <t>2000-12-12</t>
+          <t>2024-03-18</t>
         </is>
       </c>
       <c r="G431" t="inlineStr">
         <is>
-          <t>0000310764</t>
+          <t>0001375365</t>
         </is>
       </c>
       <c r="H431" t="inlineStr">
         <is>
-          <t>1941</t>
+          <t>1993</t>
         </is>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>SYF</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Supermicro</t>
+          <t>Synchrony Financial</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D432" t="inlineStr">
         <is>
-          <t>Technology Hardware, Storage &amp; Peripherals</t>
+          <t>Consumer Finance</t>
         </is>
       </c>
       <c r="E432" t="inlineStr">
         <is>
-          <t>San Jose, California</t>
+          <t>Stamford, Connecticut</t>
         </is>
       </c>
       <c r="F432" t="inlineStr">
         <is>
-          <t>2024-03-18</t>
+          <t>2015-11-18</t>
         </is>
       </c>
       <c r="G432" t="inlineStr">
         <is>
-          <t>0001375365</t>
+          <t>0001601712</t>
         </is>
       </c>
       <c r="H432" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2003</t>
         </is>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>SNPS</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Synchrony Financial</t>
+          <t>Synopsys</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D433" t="inlineStr">
         <is>
-          <t>Consumer Finance</t>
+          <t>Application Software</t>
         </is>
       </c>
       <c r="E433" t="inlineStr">
         <is>
-          <t>Stamford, Connecticut</t>
+          <t>Sunnyvale, California</t>
         </is>
       </c>
       <c r="F433" t="inlineStr">
         <is>
-          <t>2015-11-18</t>
+          <t>2017-03-16</t>
         </is>
       </c>
       <c r="G433" t="inlineStr">
         <is>
-          <t>0001601712</t>
+          <t>0000883241</t>
         </is>
       </c>
       <c r="H433" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1986</t>
         </is>
       </c>
     </row>
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>SNPS</t>
+          <t>SYY</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>Synopsys</t>
+          <t>Sysco</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D434" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Food Distributors</t>
         </is>
       </c>
       <c r="E434" t="inlineStr">
         <is>
-          <t>Sunnyvale, California</t>
+          <t>Houston, Texas</t>
         </is>
       </c>
       <c r="F434" t="inlineStr">
         <is>
-          <t>2017-03-16</t>
+          <t>1986-12-31</t>
         </is>
       </c>
       <c r="G434" t="inlineStr">
         <is>
-          <t>0000883241</t>
+          <t>0000096021</t>
         </is>
       </c>
       <c r="H434" t="inlineStr">
         <is>
-          <t>1986</t>
+          <t>1969</t>
         </is>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>SYY</t>
+          <t>TMUS</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>Sysco</t>
+          <t>T-Mobile US</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D435" t="inlineStr">
         <is>
-          <t>Food Distributors</t>
+          <t>Wireless Telecommunication Services</t>
         </is>
       </c>
       <c r="E435" t="inlineStr">
         <is>
-          <t>Houston, Texas</t>
+          <t>Bellevue, Washington</t>
         </is>
       </c>
       <c r="F435" t="inlineStr">
         <is>
-          <t>1986-12-31</t>
+          <t>2019-07-15</t>
         </is>
       </c>
       <c r="G435" t="inlineStr">
         <is>
-          <t>0000096021</t>
+          <t>0001283699</t>
         </is>
       </c>
       <c r="H435" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1994</t>
         </is>
       </c>
     </row>
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>TMUS</t>
+          <t>TROW</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>T-Mobile US</t>
+          <t>T. Rowe Price</t>
         </is>
       </c>
       <c r="C436" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D436" t="inlineStr">
         <is>
-          <t>Wireless Telecommunication Services</t>
+          <t>Asset Management &amp; Custody Banks</t>
         </is>
       </c>
       <c r="E436" t="inlineStr">
         <is>
-          <t>Bellevue, Washington</t>
+          <t>Baltimore, Maryland</t>
         </is>
       </c>
       <c r="F436" t="inlineStr">
         <is>
-          <t>2019-07-15</t>
+          <t>2019-07-29</t>
         </is>
       </c>
       <c r="G436" t="inlineStr">
         <is>
-          <t>0001283699</t>
+          <t>0001113169</t>
         </is>
       </c>
       <c r="H436" t="inlineStr">
         <is>
-          <t>1994</t>
+          <t>1937</t>
         </is>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>TROW</t>
+          <t>TTWO</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>T. Rowe Price</t>
+          <t>Take-Two Interactive</t>
         </is>
       </c>
       <c r="C437" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D437" t="inlineStr">
         <is>
-          <t>Asset Management &amp; Custody Banks</t>
+          <t>Interactive Home Entertainment</t>
         </is>
       </c>
       <c r="E437" t="inlineStr">
         <is>
-          <t>Baltimore, Maryland</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F437" t="inlineStr">
         <is>
-          <t>2019-07-29</t>
+          <t>2018-03-19</t>
         </is>
       </c>
       <c r="G437" t="inlineStr">
         <is>
-          <t>0001113169</t>
+          <t>0000946581</t>
         </is>
       </c>
       <c r="H437" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>1993</t>
         </is>
       </c>
     </row>
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>TTWO</t>
+          <t>TPR</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Take-Two Interactive</t>
+          <t>Tapestry, Inc.</t>
         </is>
       </c>
       <c r="C438" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D438" t="inlineStr">
         <is>
-          <t>Interactive Home Entertainment</t>
+          <t>Apparel, Accessories &amp; Luxury Goods</t>
         </is>
       </c>
       <c r="E438" t="inlineStr">
@@ -18815,155 +18815,155 @@
       </c>
       <c r="F438" t="inlineStr">
         <is>
-          <t>2018-03-19</t>
+          <t>2004-09-01</t>
         </is>
       </c>
       <c r="G438" t="inlineStr">
         <is>
-          <t>0000946581</t>
+          <t>0001116132</t>
         </is>
       </c>
       <c r="H438" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>TPR</t>
+          <t>TRGP</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Tapestry, Inc.</t>
+          <t>Targa Resources</t>
         </is>
       </c>
       <c r="C439" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D439" t="inlineStr">
         <is>
-          <t>Apparel, Accessories &amp; Luxury Goods</t>
+          <t>Oil &amp; Gas Storage &amp; Transportation</t>
         </is>
       </c>
       <c r="E439" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>Houston, Texas</t>
         </is>
       </c>
       <c r="F439" t="inlineStr">
         <is>
-          <t>2004-09-01</t>
+          <t>2022-10-12</t>
         </is>
       </c>
       <c r="G439" t="inlineStr">
         <is>
-          <t>0001116132</t>
+          <t>0001389170</t>
         </is>
       </c>
       <c r="H439" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2005</t>
         </is>
       </c>
     </row>
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>TRGP</t>
+          <t>TGT</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Targa Resources</t>
+          <t>Target Corporation</t>
         </is>
       </c>
       <c r="C440" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D440" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Storage &amp; Transportation</t>
+          <t>Consumer Staples Merchandise Retail</t>
         </is>
       </c>
       <c r="E440" t="inlineStr">
         <is>
-          <t>Houston, Texas</t>
+          <t>Minneapolis, Minnesota</t>
         </is>
       </c>
       <c r="F440" t="inlineStr">
         <is>
-          <t>2022-10-12</t>
+          <t>1976-12-31</t>
         </is>
       </c>
       <c r="G440" t="inlineStr">
         <is>
-          <t>0001389170</t>
+          <t>0000027419</t>
         </is>
       </c>
       <c r="H440" t="inlineStr">
         <is>
-          <t>2005</t>
+          <t>1902</t>
         </is>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Target Corporation</t>
+          <t>TE Connectivity</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D441" t="inlineStr">
         <is>
-          <t>Consumer Staples Merchandise Retail</t>
+          <t>Electronic Manufacturing Services</t>
         </is>
       </c>
       <c r="E441" t="inlineStr">
         <is>
-          <t>Minneapolis, Minnesota</t>
+          <t>Schaffhausen, Switzerland</t>
         </is>
       </c>
       <c r="F441" t="inlineStr">
         <is>
-          <t>1976-12-31</t>
+          <t>2011-10-17</t>
         </is>
       </c>
       <c r="G441" t="inlineStr">
         <is>
-          <t>0000027419</t>
+          <t>0001385157</t>
         </is>
       </c>
       <c r="H441" t="inlineStr">
         <is>
-          <t>1902</t>
+          <t>2007</t>
         </is>
       </c>
     </row>
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>TDY</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>TE Connectivity</t>
+          <t>Teledyne Technologies</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -18973,333 +18973,333 @@
       </c>
       <c r="D442" t="inlineStr">
         <is>
-          <t>Electronic Manufacturing Services</t>
+          <t>Electronic Equipment &amp; Instruments</t>
         </is>
       </c>
       <c r="E442" t="inlineStr">
         <is>
-          <t>Schaffhausen, Switzerland</t>
+          <t>Thousand Oaks, California</t>
         </is>
       </c>
       <c r="F442" t="inlineStr">
         <is>
-          <t>2011-10-17</t>
+          <t>2020-06-22</t>
         </is>
       </c>
       <c r="G442" t="inlineStr">
         <is>
-          <t>0001385157</t>
+          <t>0001094285</t>
         </is>
       </c>
       <c r="H442" t="inlineStr">
         <is>
-          <t>2007</t>
+          <t>1960</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>TDY</t>
+          <t>TFX</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Teledyne Technologies</t>
+          <t>Teleflex</t>
         </is>
       </c>
       <c r="C443" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D443" t="inlineStr">
         <is>
-          <t>Electronic Equipment &amp; Instruments</t>
+          <t>Health Care Equipment</t>
         </is>
       </c>
       <c r="E443" t="inlineStr">
         <is>
-          <t>Thousand Oaks, California</t>
+          <t>Wayne, Pennsylvania</t>
         </is>
       </c>
       <c r="F443" t="inlineStr">
         <is>
-          <t>2020-06-22</t>
+          <t>2019-01-18</t>
         </is>
       </c>
       <c r="G443" t="inlineStr">
         <is>
-          <t>0001094285</t>
+          <t>0000096943</t>
         </is>
       </c>
       <c r="H443" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>1943</t>
         </is>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>TFX</t>
+          <t>TER</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Teleflex</t>
+          <t>Teradyne</t>
         </is>
       </c>
       <c r="C444" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D444" t="inlineStr">
         <is>
-          <t>Health Care Equipment</t>
+          <t>Semiconductor Materials &amp; Equipment</t>
         </is>
       </c>
       <c r="E444" t="inlineStr">
         <is>
-          <t>Wayne, Pennsylvania</t>
+          <t>North Reading, Massachusetts</t>
         </is>
       </c>
       <c r="F444" t="inlineStr">
         <is>
-          <t>2019-01-18</t>
+          <t>2020-09-21</t>
         </is>
       </c>
       <c r="G444" t="inlineStr">
         <is>
-          <t>0000096943</t>
+          <t>0000097210</t>
         </is>
       </c>
       <c r="H444" t="inlineStr">
         <is>
-          <t>1943</t>
+          <t>1960</t>
         </is>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>TER</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Teradyne</t>
+          <t>Tesla, Inc.</t>
         </is>
       </c>
       <c r="C445" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D445" t="inlineStr">
         <is>
-          <t>Semiconductor Materials &amp; Equipment</t>
+          <t>Automobile Manufacturers</t>
         </is>
       </c>
       <c r="E445" t="inlineStr">
         <is>
-          <t>North Reading, Massachusetts</t>
+          <t>Austin, Texas</t>
         </is>
       </c>
       <c r="F445" t="inlineStr">
         <is>
-          <t>2020-09-21</t>
+          <t>2020-12-21</t>
         </is>
       </c>
       <c r="G445" t="inlineStr">
         <is>
-          <t>0000097210</t>
+          <t>0001318605</t>
         </is>
       </c>
       <c r="H445" t="inlineStr">
         <is>
-          <t>1960</t>
+          <t>2003</t>
         </is>
       </c>
     </row>
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>TXN</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Tesla, Inc.</t>
+          <t>Texas Instruments</t>
         </is>
       </c>
       <c r="C446" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D446" t="inlineStr">
         <is>
-          <t>Automobile Manufacturers</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="E446" t="inlineStr">
         <is>
-          <t>Austin, Texas</t>
+          <t>Dallas, Texas</t>
         </is>
       </c>
       <c r="F446" t="inlineStr">
         <is>
-          <t>2020-12-21</t>
+          <t>2001-03-12</t>
         </is>
       </c>
       <c r="G446" t="inlineStr">
         <is>
-          <t>0001318605</t>
+          <t>0000097476</t>
         </is>
       </c>
       <c r="H446" t="inlineStr">
         <is>
-          <t>2003</t>
+          <t>1930</t>
         </is>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>TXT</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Texas Instruments</t>
+          <t>Textron</t>
         </is>
       </c>
       <c r="C447" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D447" t="inlineStr">
         <is>
-          <t>Semiconductors</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="E447" t="inlineStr">
         <is>
-          <t>Dallas, Texas</t>
+          <t>Providence, Rhode Island</t>
         </is>
       </c>
       <c r="F447" t="inlineStr">
         <is>
-          <t>2001-03-12</t>
+          <t>1978-12-31</t>
         </is>
       </c>
       <c r="G447" t="inlineStr">
         <is>
-          <t>0000097476</t>
+          <t>0000217346</t>
         </is>
       </c>
       <c r="H447" t="inlineStr">
         <is>
-          <t>1930</t>
+          <t>1923</t>
         </is>
       </c>
     </row>
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>TXT</t>
+          <t>TMO</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Textron</t>
+          <t>Thermo Fisher Scientific</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D448" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Life Sciences Tools &amp; Services</t>
         </is>
       </c>
       <c r="E448" t="inlineStr">
         <is>
-          <t>Providence, Rhode Island</t>
+          <t>Waltham, Massachusetts</t>
         </is>
       </c>
       <c r="F448" t="inlineStr">
         <is>
-          <t>1978-12-31</t>
+          <t>2004-08-03</t>
         </is>
       </c>
       <c r="G448" t="inlineStr">
         <is>
-          <t>0000217346</t>
+          <t>0000097745</t>
         </is>
       </c>
       <c r="H448" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>2006 (1902)</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>TMO</t>
+          <t>TJX</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Thermo Fisher Scientific</t>
+          <t>TJX Companies</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D449" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services</t>
+          <t>Apparel Retail</t>
         </is>
       </c>
       <c r="E449" t="inlineStr">
         <is>
-          <t>Waltham, Massachusetts</t>
+          <t>Framingham, Massachusetts</t>
         </is>
       </c>
       <c r="F449" t="inlineStr">
         <is>
-          <t>2004-08-03</t>
+          <t>1985-09-30</t>
         </is>
       </c>
       <c r="G449" t="inlineStr">
         <is>
-          <t>0000097745</t>
+          <t>0000109198</t>
         </is>
       </c>
       <c r="H449" t="inlineStr">
         <is>
-          <t>2006 (1902)</t>
+          <t>1987</t>
         </is>
       </c>
     </row>
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>TJX</t>
+          <t>TSCO</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>TJX Companies</t>
+          <t>Tractor Supply</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -19309,81 +19309,81 @@
       </c>
       <c r="D450" t="inlineStr">
         <is>
-          <t>Apparel Retail</t>
+          <t>Other Specialty Retail</t>
         </is>
       </c>
       <c r="E450" t="inlineStr">
         <is>
-          <t>Framingham, Massachusetts</t>
+          <t>Brentwood, Tennessee</t>
         </is>
       </c>
       <c r="F450" t="inlineStr">
         <is>
-          <t>1985-09-30</t>
+          <t>2014-01-24</t>
         </is>
       </c>
       <c r="G450" t="inlineStr">
         <is>
-          <t>0000109198</t>
+          <t>0000916365</t>
         </is>
       </c>
       <c r="H450" t="inlineStr">
         <is>
-          <t>1987</t>
+          <t>1938</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>TSCO</t>
+          <t>TT</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Tractor Supply</t>
+          <t>Trane Technologies</t>
         </is>
       </c>
       <c r="C451" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D451" t="inlineStr">
         <is>
-          <t>Other Specialty Retail</t>
+          <t>Building Products</t>
         </is>
       </c>
       <c r="E451" t="inlineStr">
         <is>
-          <t>Brentwood, Tennessee</t>
+          <t>Dublin, Ireland</t>
         </is>
       </c>
       <c r="F451" t="inlineStr">
         <is>
-          <t>2014-01-24</t>
+          <t>2010-11-17</t>
         </is>
       </c>
       <c r="G451" t="inlineStr">
         <is>
-          <t>0000916365</t>
+          <t>0001466258</t>
         </is>
       </c>
       <c r="H451" t="inlineStr">
         <is>
-          <t>1938</t>
+          <t>1871</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>TT</t>
+          <t>TDG</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Trane Technologies</t>
+          <t>TransDigm Group</t>
         </is>
       </c>
       <c r="C452" t="inlineStr">
@@ -19393,459 +19393,459 @@
       </c>
       <c r="D452" t="inlineStr">
         <is>
-          <t>Building Products</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="E452" t="inlineStr">
         <is>
-          <t>Dublin, Ireland</t>
+          <t>Cleveland, Ohio</t>
         </is>
       </c>
       <c r="F452" t="inlineStr">
         <is>
-          <t>2010-11-17</t>
+          <t>2016-06-03</t>
         </is>
       </c>
       <c r="G452" t="inlineStr">
         <is>
-          <t>0001466258</t>
+          <t>0001260221</t>
         </is>
       </c>
       <c r="H452" t="inlineStr">
         <is>
-          <t>1871</t>
+          <t>1993</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>TDG</t>
+          <t>TRV</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>TransDigm Group</t>
+          <t>Travelers Companies (The)</t>
         </is>
       </c>
       <c r="C453" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D453" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Property &amp; Casualty Insurance</t>
         </is>
       </c>
       <c r="E453" t="inlineStr">
         <is>
-          <t>Cleveland, Ohio</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F453" t="inlineStr">
         <is>
-          <t>2016-06-03</t>
+          <t>2002-08-21</t>
         </is>
       </c>
       <c r="G453" t="inlineStr">
         <is>
-          <t>0001260221</t>
+          <t>0000086312</t>
         </is>
       </c>
       <c r="H453" t="inlineStr">
         <is>
-          <t>1993</t>
+          <t>1853</t>
         </is>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>TRV</t>
+          <t>TRMB</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Travelers Companies (The)</t>
+          <t>Trimble Inc.</t>
         </is>
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
         <is>
-          <t>Property &amp; Casualty Insurance</t>
+          <t>Electronic Equipment &amp; Instruments</t>
         </is>
       </c>
       <c r="E454" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>Westminster, Colorado</t>
         </is>
       </c>
       <c r="F454" t="inlineStr">
         <is>
-          <t>2002-08-21</t>
+          <t>2021-01-21</t>
         </is>
       </c>
       <c r="G454" t="inlineStr">
         <is>
-          <t>0000086312</t>
+          <t>0000864749</t>
         </is>
       </c>
       <c r="H454" t="inlineStr">
         <is>
-          <t>1853</t>
+          <t>1978</t>
         </is>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>TRMB</t>
+          <t>TFC</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Trimble Inc.</t>
+          <t>Truist</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
         <is>
-          <t>Electronic Equipment &amp; Instruments</t>
+          <t>Regional Banks</t>
         </is>
       </c>
       <c r="E455" t="inlineStr">
         <is>
-          <t>Westminster, Colorado</t>
+          <t>Charlotte, North Carolina</t>
         </is>
       </c>
       <c r="F455" t="inlineStr">
         <is>
-          <t>2021-01-21</t>
+          <t>1997-12-04</t>
         </is>
       </c>
       <c r="G455" t="inlineStr">
         <is>
-          <t>0000864749</t>
+          <t>0000092230</t>
         </is>
       </c>
       <c r="H455" t="inlineStr">
         <is>
-          <t>1978</t>
+          <t>1872</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>TFC</t>
+          <t>TYL</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Truist</t>
+          <t>Tyler Technologies</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
         <is>
-          <t>Regional Banks</t>
+          <t>Application Software</t>
         </is>
       </c>
       <c r="E456" t="inlineStr">
         <is>
-          <t>Charlotte, North Carolina</t>
+          <t>Plano, Texas</t>
         </is>
       </c>
       <c r="F456" t="inlineStr">
         <is>
-          <t>1997-12-04</t>
+          <t>2020-06-22</t>
         </is>
       </c>
       <c r="G456" t="inlineStr">
         <is>
-          <t>0000092230</t>
+          <t>0000860731</t>
         </is>
       </c>
       <c r="H456" t="inlineStr">
         <is>
-          <t>1872</t>
+          <t>1966</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>TYL</t>
+          <t>TSN</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Tyler Technologies</t>
+          <t>Tyson Foods</t>
         </is>
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
         <is>
-          <t>Application Software</t>
+          <t>Packaged Foods &amp; Meats</t>
         </is>
       </c>
       <c r="E457" t="inlineStr">
         <is>
-          <t>Plano, Texas</t>
+          <t>Springdale, Arkansas</t>
         </is>
       </c>
       <c r="F457" t="inlineStr">
         <is>
-          <t>2020-06-22</t>
+          <t>2005-08-10</t>
         </is>
       </c>
       <c r="G457" t="inlineStr">
         <is>
-          <t>0000860731</t>
+          <t>0000100493</t>
         </is>
       </c>
       <c r="H457" t="inlineStr">
         <is>
-          <t>1966</t>
+          <t>1935</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>TSN</t>
+          <t>USB</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Tyson Foods</t>
+          <t>U.S. Bank</t>
         </is>
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
         <is>
-          <t>Packaged Foods &amp; Meats</t>
+          <t>Diversified Banks</t>
         </is>
       </c>
       <c r="E458" t="inlineStr">
         <is>
-          <t>Springdale, Arkansas</t>
+          <t>Minneapolis, Minnesota</t>
         </is>
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>2005-08-10</t>
+          <t>1999-11-01</t>
         </is>
       </c>
       <c r="G458" t="inlineStr">
         <is>
-          <t>0000100493</t>
+          <t>0000036104</t>
         </is>
       </c>
       <c r="H458" t="inlineStr">
         <is>
-          <t>1935</t>
+          <t>1968</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>USB</t>
+          <t>UBER</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>U.S. Bank</t>
+          <t>Uber</t>
         </is>
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
         <is>
-          <t>Diversified Banks</t>
+          <t>Passenger Ground Transportation</t>
         </is>
       </c>
       <c r="E459" t="inlineStr">
         <is>
-          <t>Minneapolis, Minnesota</t>
+          <t>San Francisco, California</t>
         </is>
       </c>
       <c r="F459" t="inlineStr">
         <is>
-          <t>1999-11-01</t>
+          <t>2023-12-18</t>
         </is>
       </c>
       <c r="G459" t="inlineStr">
         <is>
-          <t>0000036104</t>
+          <t>0001543151</t>
         </is>
       </c>
       <c r="H459" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>2009</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>UDR</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Uber</t>
+          <t>UDR, Inc.</t>
         </is>
       </c>
       <c r="C460" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D460" t="inlineStr">
         <is>
-          <t>Passenger Ground Transportation</t>
+          <t>Multi-Family Residential REITs</t>
         </is>
       </c>
       <c r="E460" t="inlineStr">
         <is>
-          <t>San Francisco, California</t>
+          <t>Highlands Ranch, Colorado</t>
         </is>
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>2023-12-18</t>
+          <t>2016-03-07</t>
         </is>
       </c>
       <c r="G460" t="inlineStr">
         <is>
-          <t>0001543151</t>
+          <t>0000074208</t>
         </is>
       </c>
       <c r="H460" t="inlineStr">
         <is>
-          <t>2009</t>
+          <t>1972</t>
         </is>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>UDR</t>
+          <t>ULTA</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>UDR, Inc.</t>
+          <t>Ulta Beauty</t>
         </is>
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
         <is>
-          <t>Multi-Family Residential REITs</t>
+          <t>Other Specialty Retail</t>
         </is>
       </c>
       <c r="E461" t="inlineStr">
         <is>
-          <t>Highlands Ranch, Colorado</t>
+          <t>Bolingbrook, Illinois</t>
         </is>
       </c>
       <c r="F461" t="inlineStr">
         <is>
-          <t>2016-03-07</t>
+          <t>2016-04-18</t>
         </is>
       </c>
       <c r="G461" t="inlineStr">
         <is>
-          <t>0000074208</t>
+          <t>0001403568</t>
         </is>
       </c>
       <c r="H461" t="inlineStr">
         <is>
-          <t>1972</t>
+          <t>1990</t>
         </is>
       </c>
     </row>
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>ULTA</t>
+          <t>UNP</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Ulta Beauty</t>
+          <t>Union Pacific Corporation</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
         <is>
-          <t>Other Specialty Retail</t>
+          <t>Rail Transportation</t>
         </is>
       </c>
       <c r="E462" t="inlineStr">
         <is>
-          <t>Bolingbrook, Illinois</t>
+          <t>Omaha, Nebraska</t>
         </is>
       </c>
       <c r="F462" t="inlineStr">
         <is>
-          <t>2016-04-18</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G462" t="inlineStr">
         <is>
-          <t>0001403568</t>
+          <t>0000100885</t>
         </is>
       </c>
       <c r="H462" t="inlineStr">
         <is>
-          <t>1990</t>
+          <t>1862</t>
         </is>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>UNP</t>
+          <t>UAL</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Union Pacific Corporation</t>
+          <t>United Airlines Holdings</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -19855,39 +19855,39 @@
       </c>
       <c r="D463" t="inlineStr">
         <is>
-          <t>Rail Transportation</t>
+          <t>Passenger Airlines</t>
         </is>
       </c>
       <c r="E463" t="inlineStr">
         <is>
-          <t>Omaha, Nebraska</t>
+          <t>Chicago, Illinois</t>
         </is>
       </c>
       <c r="F463" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2015-09-03</t>
         </is>
       </c>
       <c r="G463" t="inlineStr">
         <is>
-          <t>0000100885</t>
+          <t>0000100517</t>
         </is>
       </c>
       <c r="H463" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>1967</t>
         </is>
       </c>
     </row>
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>UPS</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>United Airlines Holdings</t>
+          <t>United Parcel Service</t>
         </is>
       </c>
       <c r="C464" t="inlineStr">
@@ -19897,39 +19897,39 @@
       </c>
       <c r="D464" t="inlineStr">
         <is>
-          <t>Passenger Airlines</t>
+          <t>Air Freight &amp; Logistics</t>
         </is>
       </c>
       <c r="E464" t="inlineStr">
         <is>
-          <t>Chicago, Illinois</t>
+          <t>Sandy Springs, Georgia</t>
         </is>
       </c>
       <c r="F464" t="inlineStr">
         <is>
-          <t>2015-09-03</t>
+          <t>2002-07-22</t>
         </is>
       </c>
       <c r="G464" t="inlineStr">
         <is>
-          <t>0000100517</t>
+          <t>0001090727</t>
         </is>
       </c>
       <c r="H464" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1907</t>
         </is>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>UPS</t>
+          <t>URI</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
         <is>
-          <t>United Parcel Service</t>
+          <t>United Rentals</t>
         </is>
       </c>
       <c r="C465" t="inlineStr">
@@ -19939,81 +19939,81 @@
       </c>
       <c r="D465" t="inlineStr">
         <is>
-          <t>Air Freight &amp; Logistics</t>
+          <t>Trading Companies &amp; Distributors</t>
         </is>
       </c>
       <c r="E465" t="inlineStr">
         <is>
-          <t>Sandy Springs, Georgia</t>
+          <t>Stamford, Connecticut</t>
         </is>
       </c>
       <c r="F465" t="inlineStr">
         <is>
-          <t>2002-07-22</t>
+          <t>2014-09-20</t>
         </is>
       </c>
       <c r="G465" t="inlineStr">
         <is>
-          <t>0001090727</t>
+          <t>0001067701</t>
         </is>
       </c>
       <c r="H465" t="inlineStr">
         <is>
-          <t>1907</t>
+          <t>1997</t>
         </is>
       </c>
     </row>
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>URI</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>United Rentals</t>
+          <t>UnitedHealth Group</t>
         </is>
       </c>
       <c r="C466" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D466" t="inlineStr">
         <is>
-          <t>Trading Companies &amp; Distributors</t>
+          <t>Managed Health Care</t>
         </is>
       </c>
       <c r="E466" t="inlineStr">
         <is>
-          <t>Stamford, Connecticut</t>
+          <t>Minnetonka, Minnesota</t>
         </is>
       </c>
       <c r="F466" t="inlineStr">
         <is>
-          <t>2014-09-20</t>
+          <t>1994-07-01</t>
         </is>
       </c>
       <c r="G466" t="inlineStr">
         <is>
-          <t>0001067701</t>
+          <t>0000731766</t>
         </is>
       </c>
       <c r="H466" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1977</t>
         </is>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>UNH</t>
+          <t>UHS</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>UnitedHealth Group</t>
+          <t>Universal Health Services</t>
         </is>
       </c>
       <c r="C467" t="inlineStr">
@@ -20023,333 +20023,333 @@
       </c>
       <c r="D467" t="inlineStr">
         <is>
-          <t>Managed Health Care</t>
+          <t>Health Care Facilities</t>
         </is>
       </c>
       <c r="E467" t="inlineStr">
         <is>
-          <t>Minnetonka, Minnesota</t>
+          <t>King of Prussia, Pennsylvania</t>
         </is>
       </c>
       <c r="F467" t="inlineStr">
         <is>
-          <t>1994-07-01</t>
+          <t>2014-09-20</t>
         </is>
       </c>
       <c r="G467" t="inlineStr">
         <is>
-          <t>0000731766</t>
+          <t>0000352915</t>
         </is>
       </c>
       <c r="H467" t="inlineStr">
         <is>
-          <t>1977</t>
+          <t>1979</t>
         </is>
       </c>
     </row>
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>UHS</t>
+          <t>VLO</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>Universal Health Services</t>
+          <t>Valero Energy</t>
         </is>
       </c>
       <c r="C468" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D468" t="inlineStr">
         <is>
-          <t>Health Care Facilities</t>
+          <t>Oil &amp; Gas Refining &amp; Marketing</t>
         </is>
       </c>
       <c r="E468" t="inlineStr">
         <is>
-          <t>King of Prussia, Pennsylvania</t>
+          <t>San Antonio, Texas</t>
         </is>
       </c>
       <c r="F468" t="inlineStr">
         <is>
-          <t>2014-09-20</t>
+          <t>2002-12-20</t>
         </is>
       </c>
       <c r="G468" t="inlineStr">
         <is>
-          <t>0000352915</t>
+          <t>0001035002</t>
         </is>
       </c>
       <c r="H468" t="inlineStr">
         <is>
-          <t>1979</t>
+          <t>1980</t>
         </is>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>VLO</t>
+          <t>VTR</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>Valero Energy</t>
+          <t>Ventas</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D469" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Refining &amp; Marketing</t>
+          <t>Health Care REITs</t>
         </is>
       </c>
       <c r="E469" t="inlineStr">
         <is>
-          <t>San Antonio, Texas</t>
+          <t>Chicago, Illinois</t>
         </is>
       </c>
       <c r="F469" t="inlineStr">
         <is>
-          <t>2002-12-20</t>
+          <t>2009-03-04</t>
         </is>
       </c>
       <c r="G469" t="inlineStr">
         <is>
-          <t>0001035002</t>
+          <t>0000740260</t>
         </is>
       </c>
       <c r="H469" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1998</t>
         </is>
       </c>
     </row>
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>VTR</t>
+          <t>VLTO</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>Ventas</t>
+          <t>Veralto</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D470" t="inlineStr">
         <is>
-          <t>Health Care REITs</t>
+          <t>Environmental &amp; Facilities Services</t>
         </is>
       </c>
       <c r="E470" t="inlineStr">
         <is>
-          <t>Chicago, Illinois</t>
+          <t>Waltham, Massachusetts</t>
         </is>
       </c>
       <c r="F470" t="inlineStr">
         <is>
-          <t>2009-03-04</t>
+          <t>2023-10-02</t>
         </is>
       </c>
       <c r="G470" t="inlineStr">
         <is>
-          <t>0000740260</t>
+          <t>0001967680</t>
         </is>
       </c>
       <c r="H470" t="inlineStr">
         <is>
-          <t>1998</t>
+          <t>2023</t>
         </is>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>VLTO</t>
+          <t>VRSN</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>Veralto</t>
+          <t>Verisign</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D471" t="inlineStr">
         <is>
-          <t>Environmental &amp; Facilities Services</t>
+          <t>Internet Services &amp; Infrastructure</t>
         </is>
       </c>
       <c r="E471" t="inlineStr">
         <is>
-          <t>Waltham, Massachusetts</t>
+          <t>Dulles, Virginia</t>
         </is>
       </c>
       <c r="F471" t="inlineStr">
         <is>
-          <t>2023-10-02</t>
+          <t>2006-02-01</t>
         </is>
       </c>
       <c r="G471" t="inlineStr">
         <is>
-          <t>0001967680</t>
+          <t>0001014473</t>
         </is>
       </c>
       <c r="H471" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>1995</t>
         </is>
       </c>
     </row>
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>VRSN</t>
+          <t>VRSK</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
         <is>
-          <t>Verisign</t>
+          <t>Verisk</t>
         </is>
       </c>
       <c r="C472" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D472" t="inlineStr">
         <is>
-          <t>Internet Services &amp; Infrastructure</t>
+          <t>Research &amp; Consulting Services</t>
         </is>
       </c>
       <c r="E472" t="inlineStr">
         <is>
-          <t>Dulles, Virginia</t>
+          <t>Jersey City, New Jersey</t>
         </is>
       </c>
       <c r="F472" t="inlineStr">
         <is>
-          <t>2006-02-01</t>
+          <t>2015-10-08</t>
         </is>
       </c>
       <c r="G472" t="inlineStr">
         <is>
-          <t>0001014473</t>
+          <t>0001442145</t>
         </is>
       </c>
       <c r="H472" t="inlineStr">
         <is>
-          <t>1995</t>
+          <t>1971</t>
         </is>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>VRSK</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>Verisk</t>
+          <t>Verizon</t>
         </is>
       </c>
       <c r="C473" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D473" t="inlineStr">
         <is>
-          <t>Research &amp; Consulting Services</t>
+          <t>Integrated Telecommunication Services</t>
         </is>
       </c>
       <c r="E473" t="inlineStr">
         <is>
-          <t>Jersey City, New Jersey</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F473" t="inlineStr">
         <is>
-          <t>2015-10-08</t>
+          <t>1983-11-30</t>
         </is>
       </c>
       <c r="G473" t="inlineStr">
         <is>
-          <t>0001442145</t>
+          <t>0000732712</t>
         </is>
       </c>
       <c r="H473" t="inlineStr">
         <is>
-          <t>1971</t>
+          <t>1983 (1877)</t>
         </is>
       </c>
     </row>
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>VRTX</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
         <is>
-          <t>Verizon</t>
+          <t>Vertex Pharmaceuticals</t>
         </is>
       </c>
       <c r="C474" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D474" t="inlineStr">
         <is>
-          <t>Integrated Telecommunication Services</t>
+          <t>Biotechnology</t>
         </is>
       </c>
       <c r="E474" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>Cambridge, Massachusetts</t>
         </is>
       </c>
       <c r="F474" t="inlineStr">
         <is>
-          <t>1983-11-30</t>
+          <t>2013-09-23</t>
         </is>
       </c>
       <c r="G474" t="inlineStr">
         <is>
-          <t>0000732712</t>
+          <t>0000875320</t>
         </is>
       </c>
       <c r="H474" t="inlineStr">
         <is>
-          <t>1983 (1877)</t>
+          <t>1989</t>
         </is>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>VRTX</t>
+          <t>VTRS</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>Vertex Pharmaceuticals</t>
+          <t>Viatris</t>
         </is>
       </c>
       <c r="C475" t="inlineStr">
@@ -20359,291 +20359,291 @@
       </c>
       <c r="D475" t="inlineStr">
         <is>
-          <t>Biotechnology</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="E475" t="inlineStr">
         <is>
-          <t>Cambridge, Massachusetts</t>
+          <t>Pittsburgh, Pennsylvania</t>
         </is>
       </c>
       <c r="F475" t="inlineStr">
         <is>
-          <t>2013-09-23</t>
+          <t>2004-04-23</t>
         </is>
       </c>
       <c r="G475" t="inlineStr">
         <is>
-          <t>0000875320</t>
+          <t>0001792044</t>
         </is>
       </c>
       <c r="H475" t="inlineStr">
         <is>
-          <t>1989</t>
+          <t>1961</t>
         </is>
       </c>
     </row>
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>VTRS</t>
+          <t>VICI</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>Viatris</t>
+          <t>Vici Properties</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D476" t="inlineStr">
         <is>
-          <t>Pharmaceuticals</t>
+          <t>Hotel &amp; Resort REITs</t>
         </is>
       </c>
       <c r="E476" t="inlineStr">
         <is>
-          <t>Pittsburgh, Pennsylvania</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F476" t="inlineStr">
         <is>
-          <t>2004-04-23</t>
+          <t>2022-06-08</t>
         </is>
       </c>
       <c r="G476" t="inlineStr">
         <is>
-          <t>0001792044</t>
+          <t>0001705696</t>
         </is>
       </c>
       <c r="H476" t="inlineStr">
         <is>
-          <t>1961</t>
+          <t>2017</t>
         </is>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>V</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>Vici Properties</t>
+          <t>Visa Inc.</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D477" t="inlineStr">
         <is>
-          <t>Hotel &amp; Resort REITs</t>
+          <t>Transaction &amp; Payment Processing Services</t>
         </is>
       </c>
       <c r="E477" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>San Francisco, California</t>
         </is>
       </c>
       <c r="F477" t="inlineStr">
         <is>
-          <t>2022-06-08</t>
+          <t>2009-12-21</t>
         </is>
       </c>
       <c r="G477" t="inlineStr">
         <is>
-          <t>0001705696</t>
+          <t>0001403161</t>
         </is>
       </c>
       <c r="H477" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>1958</t>
         </is>
       </c>
     </row>
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>V</t>
+          <t>VMC</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Visa Inc.</t>
+          <t>Vulcan Materials Company</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Transaction &amp; Payment Processing Services</t>
+          <t>Construction Materials</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>San Francisco, California</t>
+          <t>Birmingham, Alabama</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>2009-12-21</t>
+          <t>1999-06-30</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>0001403161</t>
+          <t>0001396009</t>
         </is>
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1909</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>WRB</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Vulcan Materials Company</t>
+          <t>Berkley</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Construction Materials</t>
+          <t>Property &amp; Casualty Insurance</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Birmingham, Alabama</t>
+          <t>Greenwich, Connecticut</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>1999-06-30</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>0001396009</t>
+          <t>0000011544</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>1909</t>
+          <t>1967</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>WAB</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Berkley</t>
+          <t>Wabtec</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Property &amp; Casualty Insurance</t>
+          <t>Construction Machinery &amp; Heavy Transportation Equipment</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Greenwich, Connecticut</t>
+          <t>Pittsburgh, Pennsylvania</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-02-27</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>0000011544</t>
+          <t>0000943452</t>
         </is>
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1999 (1869)</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>WAB</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Wabtec</t>
+          <t>Walgreens Boots Alliance</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Construction Machinery &amp; Heavy Transportation Equipment</t>
+          <t>Drug Retail</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Pittsburgh, Pennsylvania</t>
+          <t>Deerfield, Illinois</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>2019-02-27</t>
+          <t>1979-12-31</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>0000943452</t>
+          <t>0001618921</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>1999 (1869)</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Walgreens Boots Alliance</t>
+          <t>Walmart</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
@@ -20653,81 +20653,81 @@
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Drug Retail</t>
+          <t>Consumer Staples Merchandise Retail</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Deerfield, Illinois</t>
+          <t>Bentonville, Arkansas</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>1979-12-31</t>
+          <t>1982-08-31</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>0001618921</t>
+          <t>0000104169</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1962</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>Walt Disney</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Consumer Staples Merchandise Retail</t>
+          <t>Movies &amp; Entertainment</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Bentonville, Arkansas</t>
+          <t>Burbank, California</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>1982-08-31</t>
+          <t>1976-06-30</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>0000104169</t>
+          <t>0001744489</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1923</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Walt Disney</t>
+          <t>Warner Bros. Discovery</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -20737,795 +20737,795 @@
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Movies &amp; Entertainment</t>
+          <t>Broadcasting</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>Burbank, California</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>1976-06-30</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>0001744489</t>
+          <t>0001437107</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>2022 (Warner Bros. 1923)</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>WM</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Warner Bros. Discovery</t>
+          <t>Waste Management</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Broadcasting</t>
+          <t>Environmental &amp; Facilities Services</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>Houston, Texas</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>1998-08-31</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>0001437107</t>
+          <t>0000823768</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>2022 (Warner Bros. 1923)</t>
+          <t>1968</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Waste Management</t>
+          <t>Waters Corporation</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Environmental &amp; Facilities Services</t>
+          <t>Life Sciences Tools &amp; Services</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Houston, Texas</t>
+          <t>Milford, Massachusetts</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>1998-08-31</t>
+          <t>2002-01-02</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>0000823768</t>
+          <t>0001000697</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1958</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>WEC</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>Waters Corporation</t>
+          <t>WEC Energy Group</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Milford, Massachusetts</t>
+          <t>Milwaukee, Wisconsin</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>2002-01-02</t>
+          <t>2008-10-31</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>0001000697</t>
+          <t>0000783325</t>
         </is>
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>1896</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>WEC</t>
+          <t>WFC</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>WEC Energy Group</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Diversified Banks</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>Milwaukee, Wisconsin</t>
+          <t>San Francisco, California</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>2008-10-31</t>
+          <t>1976-06-30</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>0000783325</t>
+          <t>0000072971</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>1852</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>WELL</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>Welltower</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Diversified Banks</t>
+          <t>Health Care REITs</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>San Francisco, California</t>
+          <t>Toledo, Ohio</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>1976-06-30</t>
+          <t>2009-01-30</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>0000072971</t>
+          <t>0000766704</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>1970</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>WST</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>Welltower</t>
+          <t>West Pharmaceutical Services</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Health Care REITs</t>
+          <t>Health Care Supplies</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Toledo, Ohio</t>
+          <t>Exton, Pennsylvania</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>2009-01-30</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>0000766704</t>
+          <t>0000105770</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1923</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>WDC</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>West Pharmaceutical Services</t>
+          <t>Western Digital</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Health Care Supplies</t>
+          <t>Technology Hardware, Storage &amp; Peripherals</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>Exton, Pennsylvania</t>
+          <t>San Jose, California</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>2009-07-01</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>0000105770</t>
+          <t>0000106040</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1970</t>
         </is>
       </c>
     </row>
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>WDC</t>
+          <t>WRK</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>Western Digital</t>
+          <t>WestRock</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Technology Hardware, Storage &amp; Peripherals</t>
+          <t>Paper &amp; Plastic Packaging Products &amp; Materials</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>San Jose, California</t>
+          <t>Atlanta, Georgia</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>2009-07-01</t>
+          <t>2015-06-25</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>0000106040</t>
+          <t>0001732845</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>WRK</t>
+          <t>WY</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>WestRock</t>
+          <t>Weyerhaeuser</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Paper &amp; Plastic Packaging Products &amp; Materials</t>
+          <t>Timber REITs</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Atlanta, Georgia</t>
+          <t>Seattle, Washington</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>2015-06-25</t>
+          <t>1979-10-01</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>0001732845</t>
+          <t>0000106535</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1900</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>WY</t>
+          <t>WMB</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Weyerhaeuser</t>
+          <t>Williams Companies</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Timber REITs</t>
+          <t>Oil &amp; Gas Storage &amp; Transportation</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Seattle, Washington</t>
+          <t>Tulsa, Oklahoma</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>1979-10-01</t>
+          <t>1975-03-31</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>0000106535</t>
+          <t>0000107263</t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>1908</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>WMB</t>
+          <t>WTW</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Williams Companies</t>
+          <t>Willis Towers Watson</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Storage &amp; Transportation</t>
+          <t>Insurance Brokers</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>Tulsa, Oklahoma</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>1975-03-31</t>
+          <t>2016-01-05</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>0000107263</t>
+          <t>0001140536</t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>1908</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>GWW</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>Willis Towers Watson</t>
+          <t>W. W. Grainger</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Insurance Brokers</t>
+          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Lake Forest, Illinois</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>2016-01-05</t>
+          <t>1981-06-30</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>0001140536</t>
+          <t>0000277135</t>
         </is>
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1927</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>GWW</t>
+          <t>WYNN</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>W. W. Grainger</t>
+          <t>Wynn Resorts</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
+          <t>Casinos &amp; Gaming</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Lake Forest, Illinois</t>
+          <t>Paradise, Nevada</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>1981-06-30</t>
+          <t>2008-11-14</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>0000277135</t>
+          <t>0001174922</t>
         </is>
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>2002</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>XEL</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Wynn Resorts</t>
+          <t>Xcel Energy</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Casinos &amp; Gaming</t>
+          <t>Multi-Utilities</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Paradise, Nevada</t>
+          <t>Minneapolis, Minnesota</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>2008-11-14</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>0001174922</t>
+          <t>0000072903</t>
         </is>
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>1909</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>XEL</t>
+          <t>XYL</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Xcel Energy</t>
+          <t>Xylem Inc.</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>Minneapolis, Minnesota</t>
+          <t>White Plains, New York</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2011-11-01</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>0000072903</t>
+          <t>0001524472</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>1909</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>YUM</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Xylem Inc.</t>
+          <t>Yum! Brands</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>White Plains, New York</t>
+          <t>Louisville, Kentucky</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>2011-11-01</t>
+          <t>1997-10-06</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>0001524472</t>
+          <t>0001041061</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1997</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>YUM</t>
+          <t>ZBRA</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Yum! Brands</t>
+          <t>Zebra Technologies</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Electronic Equipment &amp; Instruments</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Louisville, Kentucky</t>
+          <t>Lincolnshire, Illinois</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>1997-10-06</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>0001041061</t>
+          <t>0000877212</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>1969</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>ZBH</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Zebra Technologies</t>
+          <t>Zimmer Biomet</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>Electronic Equipment &amp; Instruments</t>
+          <t>Health Care Equipment</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>Lincolnshire, Illinois</t>
+          <t>Warsaw, Indiana</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>2001-08-07</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>0000877212</t>
+          <t>0001136869</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1927</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>ZTS</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
         <is>
-          <t>Zimmer Biomet</t>
+          <t>Zoetis</t>
         </is>
       </c>
       <c r="C503" t="inlineStr">
@@ -21535,67 +21535,25 @@
       </c>
       <c r="D503" t="inlineStr">
         <is>
-          <t>Health Care Equipment</t>
+          <t>Pharmaceuticals</t>
         </is>
       </c>
       <c r="E503" t="inlineStr">
         <is>
-          <t>Warsaw, Indiana</t>
+          <t>Parsippany, New Jersey</t>
         </is>
       </c>
       <c r="F503" t="inlineStr">
         <is>
-          <t>2001-08-07</t>
+          <t>2013-06-21</t>
         </is>
       </c>
       <c r="G503" t="inlineStr">
         <is>
-          <t>0001136869</t>
+          <t>0001555280</t>
         </is>
       </c>
       <c r="H503" t="inlineStr">
-        <is>
-          <t>1927</t>
-        </is>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>ZTS</t>
-        </is>
-      </c>
-      <c r="B504" t="inlineStr">
-        <is>
-          <t>Zoetis</t>
-        </is>
-      </c>
-      <c r="C504" t="inlineStr">
-        <is>
-          <t>Health Care</t>
-        </is>
-      </c>
-      <c r="D504" t="inlineStr">
-        <is>
-          <t>Pharmaceuticals</t>
-        </is>
-      </c>
-      <c r="E504" t="inlineStr">
-        <is>
-          <t>Parsippany, New Jersey</t>
-        </is>
-      </c>
-      <c r="F504" t="inlineStr">
-        <is>
-          <t>2013-06-21</t>
-        </is>
-      </c>
-      <c r="G504" t="inlineStr">
-        <is>
-          <t>0001555280</t>
-        </is>
-      </c>
-      <c r="H504" t="inlineStr">
         <is>
           <t>1952</t>
         </is>

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H503"/>
+  <dimension ref="A1:H504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20470,583 +20470,583 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>VMC</t>
+          <t>VST</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>Vulcan Materials Company</t>
+          <t>Vistra</t>
         </is>
       </c>
       <c r="C478" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D478" t="inlineStr">
         <is>
-          <t>Construction Materials</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E478" t="inlineStr">
         <is>
-          <t>Birmingham, Alabama</t>
+          <t>Irving, Texas</t>
         </is>
       </c>
       <c r="F478" t="inlineStr">
         <is>
-          <t>1999-06-30</t>
+          <t>2024-05-08</t>
         </is>
       </c>
       <c r="G478" t="inlineStr">
         <is>
-          <t>0001396009</t>
+          <t>0001692819</t>
         </is>
       </c>
       <c r="H478" t="inlineStr">
         <is>
-          <t>1909</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>WRB</t>
+          <t>VMC</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>Berkley</t>
+          <t>Vulcan Materials Company</t>
         </is>
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
         <is>
-          <t>Property &amp; Casualty Insurance</t>
+          <t>Construction Materials</t>
         </is>
       </c>
       <c r="E479" t="inlineStr">
         <is>
-          <t>Greenwich, Connecticut</t>
+          <t>Birmingham, Alabama</t>
         </is>
       </c>
       <c r="F479" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>1999-06-30</t>
         </is>
       </c>
       <c r="G479" t="inlineStr">
         <is>
-          <t>0000011544</t>
+          <t>0001396009</t>
         </is>
       </c>
       <c r="H479" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>1909</t>
         </is>
       </c>
     </row>
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>WAB</t>
+          <t>WRB</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>Wabtec</t>
+          <t>W. R. Berkley Corporation</t>
         </is>
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
         <is>
-          <t>Construction Machinery &amp; Heavy Transportation Equipment</t>
+          <t>Property &amp; Casualty Insurance</t>
         </is>
       </c>
       <c r="E480" t="inlineStr">
         <is>
-          <t>Pittsburgh, Pennsylvania</t>
+          <t>Greenwich, Connecticut</t>
         </is>
       </c>
       <c r="F480" t="inlineStr">
         <is>
-          <t>2019-02-27</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="G480" t="inlineStr">
         <is>
-          <t>0000943452</t>
+          <t>0000011544</t>
         </is>
       </c>
       <c r="H480" t="inlineStr">
         <is>
-          <t>1999 (1869)</t>
+          <t>1967</t>
         </is>
       </c>
     </row>
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>GWW</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>Walgreens Boots Alliance</t>
+          <t>W. W. Grainger</t>
         </is>
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
         <is>
-          <t>Drug Retail</t>
+          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
         </is>
       </c>
       <c r="E481" t="inlineStr">
         <is>
-          <t>Deerfield, Illinois</t>
+          <t>Lake Forest, Illinois</t>
         </is>
       </c>
       <c r="F481" t="inlineStr">
         <is>
-          <t>1979-12-31</t>
+          <t>1981-06-30</t>
         </is>
       </c>
       <c r="G481" t="inlineStr">
         <is>
-          <t>0001618921</t>
+          <t>0000277135</t>
         </is>
       </c>
       <c r="H481" t="inlineStr">
         <is>
-          <t>2014</t>
+          <t>1927</t>
         </is>
       </c>
     </row>
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>WAB</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>Walmart</t>
+          <t>Wabtec</t>
         </is>
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>Consumer Staples</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
         <is>
-          <t>Consumer Staples Merchandise Retail</t>
+          <t>Construction Machinery &amp; Heavy Transportation Equipment</t>
         </is>
       </c>
       <c r="E482" t="inlineStr">
         <is>
-          <t>Bentonville, Arkansas</t>
+          <t>Pittsburgh, Pennsylvania</t>
         </is>
       </c>
       <c r="F482" t="inlineStr">
         <is>
-          <t>1982-08-31</t>
+          <t>2019-02-27</t>
         </is>
       </c>
       <c r="G482" t="inlineStr">
         <is>
-          <t>0000104169</t>
+          <t>0000943452</t>
         </is>
       </c>
       <c r="H482" t="inlineStr">
         <is>
-          <t>1962</t>
+          <t>1999 (1869)</t>
         </is>
       </c>
     </row>
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>Walt Disney</t>
+          <t>Walgreens Boots Alliance</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D483" t="inlineStr">
         <is>
-          <t>Movies &amp; Entertainment</t>
+          <t>Drug Retail</t>
         </is>
       </c>
       <c r="E483" t="inlineStr">
         <is>
-          <t>Burbank, California</t>
+          <t>Deerfield, Illinois</t>
         </is>
       </c>
       <c r="F483" t="inlineStr">
         <is>
-          <t>1976-06-30</t>
+          <t>1979-12-31</t>
         </is>
       </c>
       <c r="G483" t="inlineStr">
         <is>
-          <t>0001744489</t>
+          <t>0001618921</t>
         </is>
       </c>
       <c r="H483" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>2014</t>
         </is>
       </c>
     </row>
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>Warner Bros. Discovery</t>
+          <t>Walmart</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
         <is>
-          <t>Communication Services</t>
+          <t>Consumer Staples</t>
         </is>
       </c>
       <c r="D484" t="inlineStr">
         <is>
-          <t>Broadcasting</t>
+          <t>Consumer Staples Merchandise Retail</t>
         </is>
       </c>
       <c r="E484" t="inlineStr">
         <is>
-          <t>New York City, New York</t>
+          <t>Bentonville, Arkansas</t>
         </is>
       </c>
       <c r="F484" t="inlineStr">
         <is>
-          <t>2022-04-11</t>
+          <t>1982-08-31</t>
         </is>
       </c>
       <c r="G484" t="inlineStr">
         <is>
-          <t>0001437107</t>
+          <t>0000104169</t>
         </is>
       </c>
       <c r="H484" t="inlineStr">
         <is>
-          <t>2022 (Warner Bros. 1923)</t>
+          <t>1962</t>
         </is>
       </c>
     </row>
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>WM</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>Waste Management</t>
+          <t>Walt Disney Company (The)</t>
         </is>
       </c>
       <c r="C485" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D485" t="inlineStr">
         <is>
-          <t>Environmental &amp; Facilities Services</t>
+          <t>Movies &amp; Entertainment</t>
         </is>
       </c>
       <c r="E485" t="inlineStr">
         <is>
-          <t>Houston, Texas</t>
+          <t>Burbank, California</t>
         </is>
       </c>
       <c r="F485" t="inlineStr">
         <is>
-          <t>1998-08-31</t>
+          <t>1976-06-30</t>
         </is>
       </c>
       <c r="G485" t="inlineStr">
         <is>
-          <t>0000823768</t>
+          <t>0001744489</t>
         </is>
       </c>
       <c r="H485" t="inlineStr">
         <is>
-          <t>1968</t>
+          <t>1923</t>
         </is>
       </c>
     </row>
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>Waters Corporation</t>
+          <t>Warner Bros. Discovery</t>
         </is>
       </c>
       <c r="C486" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Communication Services</t>
         </is>
       </c>
       <c r="D486" t="inlineStr">
         <is>
-          <t>Life Sciences Tools &amp; Services</t>
+          <t>Broadcasting</t>
         </is>
       </c>
       <c r="E486" t="inlineStr">
         <is>
-          <t>Milford, Massachusetts</t>
+          <t>New York City, New York</t>
         </is>
       </c>
       <c r="F486" t="inlineStr">
         <is>
-          <t>2002-01-02</t>
+          <t>2022-04-11</t>
         </is>
       </c>
       <c r="G486" t="inlineStr">
         <is>
-          <t>0001000697</t>
+          <t>0001437107</t>
         </is>
       </c>
       <c r="H486" t="inlineStr">
         <is>
-          <t>1958</t>
+          <t>2022 (Warner Bros. 1923)</t>
         </is>
       </c>
     </row>
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>WEC</t>
+          <t>WM</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>WEC Energy Group</t>
+          <t>Waste Management</t>
         </is>
       </c>
       <c r="C487" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D487" t="inlineStr">
         <is>
-          <t>Electric Utilities</t>
+          <t>Environmental &amp; Facilities Services</t>
         </is>
       </c>
       <c r="E487" t="inlineStr">
         <is>
-          <t>Milwaukee, Wisconsin</t>
+          <t>Houston, Texas</t>
         </is>
       </c>
       <c r="F487" t="inlineStr">
         <is>
-          <t>2008-10-31</t>
+          <t>1998-08-31</t>
         </is>
       </c>
       <c r="G487" t="inlineStr">
         <is>
-          <t>0000783325</t>
+          <t>0000823768</t>
         </is>
       </c>
       <c r="H487" t="inlineStr">
         <is>
-          <t>1896</t>
+          <t>1968</t>
         </is>
       </c>
     </row>
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>Wells Fargo</t>
+          <t>Waters Corporation</t>
         </is>
       </c>
       <c r="C488" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D488" t="inlineStr">
         <is>
-          <t>Diversified Banks</t>
+          <t>Life Sciences Tools &amp; Services</t>
         </is>
       </c>
       <c r="E488" t="inlineStr">
         <is>
-          <t>San Francisco, California</t>
+          <t>Milford, Massachusetts</t>
         </is>
       </c>
       <c r="F488" t="inlineStr">
         <is>
-          <t>1976-06-30</t>
+          <t>2002-01-02</t>
         </is>
       </c>
       <c r="G488" t="inlineStr">
         <is>
-          <t>0000072971</t>
+          <t>0001000697</t>
         </is>
       </c>
       <c r="H488" t="inlineStr">
         <is>
-          <t>1852</t>
+          <t>1958</t>
         </is>
       </c>
     </row>
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>WELL</t>
+          <t>WEC</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>Welltower</t>
+          <t>WEC Energy Group</t>
         </is>
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
         <is>
-          <t>Health Care REITs</t>
+          <t>Electric Utilities</t>
         </is>
       </c>
       <c r="E489" t="inlineStr">
         <is>
-          <t>Toledo, Ohio</t>
+          <t>Milwaukee, Wisconsin</t>
         </is>
       </c>
       <c r="F489" t="inlineStr">
         <is>
-          <t>2009-01-30</t>
+          <t>2008-10-31</t>
         </is>
       </c>
       <c r="G489" t="inlineStr">
         <is>
-          <t>0000766704</t>
+          <t>0000783325</t>
         </is>
       </c>
       <c r="H489" t="inlineStr">
         <is>
-          <t>1970</t>
+          <t>1896</t>
         </is>
       </c>
     </row>
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>WST</t>
+          <t>WFC</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>West Pharmaceutical Services</t>
+          <t>Wells Fargo</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
         <is>
-          <t>Health Care Supplies</t>
+          <t>Diversified Banks</t>
         </is>
       </c>
       <c r="E490" t="inlineStr">
         <is>
-          <t>Exton, Pennsylvania</t>
+          <t>San Francisco, California</t>
         </is>
       </c>
       <c r="F490" t="inlineStr">
         <is>
-          <t>2020-05-22</t>
+          <t>1976-06-30</t>
         </is>
       </c>
       <c r="G490" t="inlineStr">
         <is>
-          <t>0000105770</t>
+          <t>0000072971</t>
         </is>
       </c>
       <c r="H490" t="inlineStr">
         <is>
-          <t>1923</t>
+          <t>1852</t>
         </is>
       </c>
     </row>
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>WDC</t>
+          <t>WELL</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>Western Digital</t>
+          <t>Welltower</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
         <is>
-          <t>Technology Hardware, Storage &amp; Peripherals</t>
+          <t>Health Care REITs</t>
         </is>
       </c>
       <c r="E491" t="inlineStr">
         <is>
-          <t>San Jose, California</t>
+          <t>Toledo, Ohio</t>
         </is>
       </c>
       <c r="F491" t="inlineStr">
         <is>
-          <t>2009-07-01</t>
+          <t>2009-01-30</t>
         </is>
       </c>
       <c r="G491" t="inlineStr">
         <is>
-          <t>0000106040</t>
+          <t>0000766704</t>
         </is>
       </c>
       <c r="H491" t="inlineStr">
@@ -21058,502 +21058,544 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>WRK</t>
+          <t>WST</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>WestRock</t>
+          <t>West Pharmaceutical Services</t>
         </is>
       </c>
       <c r="C492" t="inlineStr">
         <is>
-          <t>Materials</t>
+          <t>Health Care</t>
         </is>
       </c>
       <c r="D492" t="inlineStr">
         <is>
-          <t>Paper &amp; Plastic Packaging Products &amp; Materials</t>
+          <t>Health Care Supplies</t>
         </is>
       </c>
       <c r="E492" t="inlineStr">
         <is>
-          <t>Atlanta, Georgia</t>
+          <t>Exton, Pennsylvania</t>
         </is>
       </c>
       <c r="F492" t="inlineStr">
         <is>
-          <t>2015-06-25</t>
+          <t>2020-05-22</t>
         </is>
       </c>
       <c r="G492" t="inlineStr">
         <is>
-          <t>0001732845</t>
+          <t>0000105770</t>
         </is>
       </c>
       <c r="H492" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>1923</t>
         </is>
       </c>
     </row>
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>WY</t>
+          <t>WDC</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
         <is>
-          <t>Weyerhaeuser</t>
+          <t>Western Digital</t>
         </is>
       </c>
       <c r="C493" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D493" t="inlineStr">
         <is>
-          <t>Timber REITs</t>
+          <t>Technology Hardware, Storage &amp; Peripherals</t>
         </is>
       </c>
       <c r="E493" t="inlineStr">
         <is>
-          <t>Seattle, Washington</t>
+          <t>San Jose, California</t>
         </is>
       </c>
       <c r="F493" t="inlineStr">
         <is>
-          <t>1979-10-01</t>
+          <t>2009-07-01</t>
         </is>
       </c>
       <c r="G493" t="inlineStr">
         <is>
-          <t>0000106535</t>
+          <t>0000106040</t>
         </is>
       </c>
       <c r="H493" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>1970</t>
         </is>
       </c>
     </row>
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>WMB</t>
+          <t>WRK</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>Williams Companies</t>
+          <t>WestRock</t>
         </is>
       </c>
       <c r="C494" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Materials</t>
         </is>
       </c>
       <c r="D494" t="inlineStr">
         <is>
-          <t>Oil &amp; Gas Storage &amp; Transportation</t>
+          <t>Paper &amp; Plastic Packaging Products &amp; Materials</t>
         </is>
       </c>
       <c r="E494" t="inlineStr">
         <is>
-          <t>Tulsa, Oklahoma</t>
+          <t>Atlanta, Georgia</t>
         </is>
       </c>
       <c r="F494" t="inlineStr">
         <is>
-          <t>1975-03-31</t>
+          <t>2015-06-25</t>
         </is>
       </c>
       <c r="G494" t="inlineStr">
         <is>
-          <t>0000107263</t>
+          <t>0001732845</t>
         </is>
       </c>
       <c r="H494" t="inlineStr">
         <is>
-          <t>1908</t>
+          <t>2015</t>
         </is>
       </c>
     </row>
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>WTW</t>
+          <t>WY</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>Willis Towers Watson</t>
+          <t>Weyerhaeuser</t>
         </is>
       </c>
       <c r="C495" t="inlineStr">
         <is>
-          <t>Financials</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D495" t="inlineStr">
         <is>
-          <t>Insurance Brokers</t>
+          <t>Timber REITs</t>
         </is>
       </c>
       <c r="E495" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Seattle, Washington</t>
         </is>
       </c>
       <c r="F495" t="inlineStr">
         <is>
-          <t>2016-01-05</t>
+          <t>1979-10-01</t>
         </is>
       </c>
       <c r="G495" t="inlineStr">
         <is>
-          <t>0001140536</t>
+          <t>0000106535</t>
         </is>
       </c>
       <c r="H495" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>1900</t>
         </is>
       </c>
     </row>
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>GWW</t>
+          <t>WMB</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>W. W. Grainger</t>
+          <t>Williams Companies</t>
         </is>
       </c>
       <c r="C496" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="D496" t="inlineStr">
         <is>
-          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
+          <t>Oil &amp; Gas Storage &amp; Transportation</t>
         </is>
       </c>
       <c r="E496" t="inlineStr">
         <is>
-          <t>Lake Forest, Illinois</t>
+          <t>Tulsa, Oklahoma</t>
         </is>
       </c>
       <c r="F496" t="inlineStr">
         <is>
-          <t>1981-06-30</t>
+          <t>1975-03-31</t>
         </is>
       </c>
       <c r="G496" t="inlineStr">
         <is>
-          <t>0000277135</t>
+          <t>0000107263</t>
         </is>
       </c>
       <c r="H496" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>1908</t>
         </is>
       </c>
     </row>
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>WYNN</t>
+          <t>WTW</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>Wynn Resorts</t>
+          <t>Willis Towers Watson</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Financials</t>
         </is>
       </c>
       <c r="D497" t="inlineStr">
         <is>
-          <t>Casinos &amp; Gaming</t>
+          <t>Insurance Brokers</t>
         </is>
       </c>
       <c r="E497" t="inlineStr">
         <is>
-          <t>Paradise, Nevada</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="F497" t="inlineStr">
         <is>
-          <t>2008-11-14</t>
+          <t>2016-01-05</t>
         </is>
       </c>
       <c r="G497" t="inlineStr">
         <is>
-          <t>0001174922</t>
+          <t>0001140536</t>
         </is>
       </c>
       <c r="H497" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>XEL</t>
+          <t>WYNN</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>Xcel Energy</t>
+          <t>Wynn Resorts</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
         <is>
-          <t>Utilities</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D498" t="inlineStr">
         <is>
-          <t>Multi-Utilities</t>
+          <t>Casinos &amp; Gaming</t>
         </is>
       </c>
       <c r="E498" t="inlineStr">
         <is>
-          <t>Minneapolis, Minnesota</t>
+          <t>Paradise, Nevada</t>
         </is>
       </c>
       <c r="F498" t="inlineStr">
         <is>
-          <t>1957-03-04</t>
+          <t>2008-11-14</t>
         </is>
       </c>
       <c r="G498" t="inlineStr">
         <is>
-          <t>0000072903</t>
+          <t>0001174922</t>
         </is>
       </c>
       <c r="H498" t="inlineStr">
         <is>
-          <t>1909</t>
+          <t>2002</t>
         </is>
       </c>
     </row>
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>XYL</t>
+          <t>XEL</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
         <is>
-          <t>Xylem Inc.</t>
+          <t>Xcel Energy</t>
         </is>
       </c>
       <c r="C499" t="inlineStr">
         <is>
-          <t>Industrials</t>
+          <t>Utilities</t>
         </is>
       </c>
       <c r="D499" t="inlineStr">
         <is>
-          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
+          <t>Multi-Utilities</t>
         </is>
       </c>
       <c r="E499" t="inlineStr">
         <is>
-          <t>White Plains, New York</t>
+          <t>Minneapolis, Minnesota</t>
         </is>
       </c>
       <c r="F499" t="inlineStr">
         <is>
-          <t>2011-11-01</t>
+          <t>1957-03-04</t>
         </is>
       </c>
       <c r="G499" t="inlineStr">
         <is>
-          <t>0001524472</t>
+          <t>0000072903</t>
         </is>
       </c>
       <c r="H499" t="inlineStr">
         <is>
-          <t>2011</t>
+          <t>1909</t>
         </is>
       </c>
     </row>
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>YUM</t>
+          <t>XYL</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>Yum! Brands</t>
+          <t>Xylem Inc.</t>
         </is>
       </c>
       <c r="C500" t="inlineStr">
         <is>
-          <t>Consumer Discretionary</t>
+          <t>Industrials</t>
         </is>
       </c>
       <c r="D500" t="inlineStr">
         <is>
-          <t>Restaurants</t>
+          <t>Industrial Machinery &amp; Supplies &amp; Components</t>
         </is>
       </c>
       <c r="E500" t="inlineStr">
         <is>
-          <t>Louisville, Kentucky</t>
+          <t>White Plains, New York</t>
         </is>
       </c>
       <c r="F500" t="inlineStr">
         <is>
-          <t>1997-10-06</t>
+          <t>2011-11-01</t>
         </is>
       </c>
       <c r="G500" t="inlineStr">
         <is>
-          <t>0001041061</t>
+          <t>0001524472</t>
         </is>
       </c>
       <c r="H500" t="inlineStr">
         <is>
-          <t>1997</t>
+          <t>2011</t>
         </is>
       </c>
     </row>
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>ZBRA</t>
+          <t>YUM</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
         <is>
-          <t>Zebra Technologies</t>
+          <t>Yum! Brands</t>
         </is>
       </c>
       <c r="C501" t="inlineStr">
         <is>
-          <t>Information Technology</t>
+          <t>Consumer Discretionary</t>
         </is>
       </c>
       <c r="D501" t="inlineStr">
         <is>
-          <t>Electronic Equipment &amp; Instruments</t>
+          <t>Restaurants</t>
         </is>
       </c>
       <c r="E501" t="inlineStr">
         <is>
-          <t>Lincolnshire, Illinois</t>
+          <t>Louisville, Kentucky</t>
         </is>
       </c>
       <c r="F501" t="inlineStr">
         <is>
-          <t>2019-12-23</t>
+          <t>1997-10-06</t>
         </is>
       </c>
       <c r="G501" t="inlineStr">
         <is>
-          <t>0000877212</t>
+          <t>0001041061</t>
         </is>
       </c>
       <c r="H501" t="inlineStr">
         <is>
-          <t>1969</t>
+          <t>1997</t>
         </is>
       </c>
     </row>
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>ZBH</t>
+          <t>ZBRA</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
         <is>
-          <t>Zimmer Biomet</t>
+          <t>Zebra Technologies</t>
         </is>
       </c>
       <c r="C502" t="inlineStr">
         <is>
-          <t>Health Care</t>
+          <t>Information Technology</t>
         </is>
       </c>
       <c r="D502" t="inlineStr">
         <is>
-          <t>Health Care Equipment</t>
+          <t>Electronic Equipment &amp; Instruments</t>
         </is>
       </c>
       <c r="E502" t="inlineStr">
         <is>
-          <t>Warsaw, Indiana</t>
+          <t>Lincolnshire, Illinois</t>
         </is>
       </c>
       <c r="F502" t="inlineStr">
         <is>
-          <t>2001-08-07</t>
+          <t>2019-12-23</t>
         </is>
       </c>
       <c r="G502" t="inlineStr">
         <is>
-          <t>0001136869</t>
+          <t>0000877212</t>
         </is>
       </c>
       <c r="H502" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>1969</t>
         </is>
       </c>
     </row>
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
+          <t>ZBH</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>Zimmer Biomet</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Health Care</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>Health Care Equipment</t>
+        </is>
+      </c>
+      <c r="E503" t="inlineStr">
+        <is>
+          <t>Warsaw, Indiana</t>
+        </is>
+      </c>
+      <c r="F503" t="inlineStr">
+        <is>
+          <t>2001-08-07</t>
+        </is>
+      </c>
+      <c r="G503" t="inlineStr">
+        <is>
+          <t>0001136869</t>
+        </is>
+      </c>
+      <c r="H503" t="inlineStr">
+        <is>
+          <t>1927</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
           <t>ZTS</t>
         </is>
       </c>
-      <c r="B503" t="inlineStr">
+      <c r="B504" t="inlineStr">
         <is>
           <t>Zoetis</t>
         </is>
       </c>
-      <c r="C503" t="inlineStr">
+      <c r="C504" t="inlineStr">
         <is>
           <t>Health Care</t>
         </is>
       </c>
-      <c r="D503" t="inlineStr">
+      <c r="D504" t="inlineStr">
         <is>
           <t>Pharmaceuticals</t>
         </is>
       </c>
-      <c r="E503" t="inlineStr">
+      <c r="E504" t="inlineStr">
         <is>
           <t>Parsippany, New Jersey</t>
         </is>
       </c>
-      <c r="F503" t="inlineStr">
+      <c r="F504" t="inlineStr">
         <is>
           <t>2013-06-21</t>
         </is>
       </c>
-      <c r="G503" t="inlineStr">
+      <c r="G504" t="inlineStr">
         <is>
           <t>0001555280</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
+      <c r="H504" t="inlineStr">
         <is>
           <t>1952</t>
         </is>

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -4446,7 +4446,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Lincolnshire, Illinois</t>
+          <t>Vernon Hills, Illinois</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -7833,7 +7833,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>EQT Corporation</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">

--- a/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
+++ b/data/stocks/~index_ticker_list/usa/sp_500_tickers.xlsx
@@ -13503,7 +13503,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>McKesson</t>
+          <t>McKesson Corporation</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
